--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2021_Fall/CS440/hw/proj1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/ma04289_st_habib_edu_pk/Documents/DELL/Habib University/Semester 7/CG/Projects/project-1-flight-simulator-ray/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4AFBA-B85D-0748-9A92-4FB3C1E49108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3FE4AFBA-B85D-0748-9A92-4FB3C1E49108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D85EA0D-6858-460B-95F5-AB5504779C16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P I-R" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Score</t>
   </si>
@@ -149,6 +149,18 @@
   <si>
     <t xml:space="preserve">Care is taken to keep the code efficient. Wherever applicable, computation is offloaded to the GPU and geometric types are favored over JS types . </t>
   </si>
+  <si>
+    <t>Munawwar</t>
+  </si>
+  <si>
+    <t>Adan</t>
+  </si>
+  <si>
+    <t>Arham</t>
+  </si>
+  <si>
+    <t>Adan/Aliza</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,11 +251,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -313,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,21 +572,21 @@
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="9" max="10" width="14.5" style="22"/>
-    <col min="11" max="11" width="28.5" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="14.5" style="22"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" style="22"/>
+    <col min="11" max="11" width="28.44140625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="14.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -595,7 +628,7 @@
       <c r="AA1" s="28"/>
       <c r="AB1" s="28"/>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -607,14 +640,14 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
       <c r="D3" s="11"/>
@@ -622,15 +655,18 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:28" ht="42" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="I3" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="31">
         <v>5</v>
       </c>
       <c r="D4" s="11"/>
@@ -638,17 +674,20 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
+      <c r="I4" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="N4" s="23"/>
       <c r="S4" s="23"/>
     </row>
-    <row r="5" spans="1:28" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="31">
         <v>5</v>
       </c>
       <c r="D5" s="11"/>
@@ -656,15 +695,18 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="I5" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="31">
         <v>10</v>
       </c>
       <c r="D6" s="11"/>
@@ -672,15 +714,18 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="I6" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="31">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -688,15 +733,18 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="I7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="31">
         <v>10</v>
       </c>
       <c r="D8" s="11"/>
@@ -704,15 +752,18 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="I8" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="31">
         <v>5</v>
       </c>
       <c r="D9" s="11"/>
@@ -720,15 +771,18 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="I9" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="31">
         <v>5</v>
       </c>
       <c r="D10" s="11"/>
@@ -736,15 +790,18 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" ht="42" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="I10" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="31">
         <v>5</v>
       </c>
       <c r="D11" s="11"/>
@@ -752,15 +809,18 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="I11" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="31">
         <v>5</v>
       </c>
       <c r="D12" s="11"/>
@@ -768,15 +828,18 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="I12" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="31">
         <v>10</v>
       </c>
       <c r="D13" s="11"/>
@@ -784,8 +847,11 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="I13" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>35</v>
       </c>
@@ -807,7 +873,7 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -819,7 +885,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="70" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="66" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
@@ -835,7 +901,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
@@ -851,7 +917,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="6"/>
       <c r="C18" s="18" t="s">
@@ -870,7 +936,7 @@
       <c r="S18" s="25"/>
       <c r="X18" s="25"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1"/>
@@ -900,7 +966,7 @@
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
@@ -930,7 +996,7 @@
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
     </row>
-    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -962,7 +1028,7 @@
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
     </row>
-    <row r="22" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>0</v>
       </c>
@@ -996,7 +1062,7 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>1</v>
       </c>
@@ -1030,7 +1096,7 @@
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
     </row>
-    <row r="24" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>1.05</v>
       </c>
@@ -1064,7 +1130,7 @@
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="1"/>
@@ -1094,7 +1160,7 @@
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="1"/>
@@ -1124,7 +1190,7 @@
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="1"/>
@@ -1154,7 +1220,7 @@
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
@@ -1184,7 +1250,7 @@
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="1"/>
@@ -1214,7 +1280,7 @@
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="1"/>
@@ -1244,7 +1310,7 @@
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="1"/>
@@ -1274,7 +1340,7 @@
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="1"/>
@@ -1304,7 +1370,7 @@
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="1"/>
@@ -1334,7 +1400,7 @@
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="1"/>
@@ -1364,7 +1430,7 @@
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="1"/>
@@ -1394,7 +1460,7 @@
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
@@ -1424,7 +1490,7 @@
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="1"/>
@@ -1454,7 +1520,7 @@
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="1"/>
@@ -1484,7 +1550,7 @@
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="1"/>
@@ -1514,7 +1580,7 @@
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="1"/>
@@ -1544,7 +1610,7 @@
       <c r="AA40" s="26"/>
       <c r="AB40" s="26"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="1"/>
@@ -1574,7 +1640,7 @@
       <c r="AA41" s="26"/>
       <c r="AB41" s="26"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="1"/>
@@ -1604,7 +1670,7 @@
       <c r="AA42" s="26"/>
       <c r="AB42" s="26"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="1"/>
@@ -1634,7 +1700,7 @@
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="1"/>
@@ -1664,7 +1730,7 @@
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="1"/>
@@ -1694,7 +1760,7 @@
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="1"/>
@@ -1724,7 +1790,7 @@
       <c r="AA46" s="26"/>
       <c r="AB46" s="26"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="1"/>
@@ -1754,7 +1820,7 @@
       <c r="AA47" s="26"/>
       <c r="AB47" s="26"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="1"/>
@@ -1784,7 +1850,7 @@
       <c r="AA48" s="26"/>
       <c r="AB48" s="26"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="1"/>
@@ -1814,7 +1880,7 @@
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="1"/>
@@ -1844,7 +1910,7 @@
       <c r="AA50" s="26"/>
       <c r="AB50" s="26"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="1"/>
@@ -1874,7 +1940,7 @@
       <c r="AA51" s="26"/>
       <c r="AB51" s="26"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="1"/>
@@ -1904,7 +1970,7 @@
       <c r="AA52" s="26"/>
       <c r="AB52" s="26"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="1"/>
@@ -1934,7 +2000,7 @@
       <c r="AA53" s="26"/>
       <c r="AB53" s="26"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="1"/>
@@ -1964,7 +2030,7 @@
       <c r="AA54" s="26"/>
       <c r="AB54" s="26"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="1"/>
@@ -1994,7 +2060,7 @@
       <c r="AA55" s="26"/>
       <c r="AB55" s="26"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="1"/>
@@ -2024,7 +2090,7 @@
       <c r="AA56" s="26"/>
       <c r="AB56" s="26"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="1"/>
@@ -2054,7 +2120,7 @@
       <c r="AA57" s="26"/>
       <c r="AB57" s="26"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="1"/>
@@ -2084,7 +2150,7 @@
       <c r="AA58" s="26"/>
       <c r="AB58" s="26"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="1"/>
@@ -2114,7 +2180,7 @@
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="1"/>
@@ -2144,7 +2210,7 @@
       <c r="AA60" s="26"/>
       <c r="AB60" s="26"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="1"/>
@@ -2174,7 +2240,7 @@
       <c r="AA61" s="26"/>
       <c r="AB61" s="26"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="1"/>
@@ -2204,7 +2270,7 @@
       <c r="AA62" s="26"/>
       <c r="AB62" s="26"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="1"/>
@@ -2234,7 +2300,7 @@
       <c r="AA63" s="26"/>
       <c r="AB63" s="26"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="1"/>
@@ -2264,7 +2330,7 @@
       <c r="AA64" s="26"/>
       <c r="AB64" s="26"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="1"/>
@@ -2294,7 +2360,7 @@
       <c r="AA65" s="26"/>
       <c r="AB65" s="26"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="1"/>
@@ -2324,7 +2390,7 @@
       <c r="AA66" s="26"/>
       <c r="AB66" s="26"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="1"/>
@@ -2354,7 +2420,7 @@
       <c r="AA67" s="26"/>
       <c r="AB67" s="26"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="1"/>
@@ -2384,7 +2450,7 @@
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="1"/>
@@ -2414,7 +2480,7 @@
       <c r="AA69" s="26"/>
       <c r="AB69" s="26"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="1"/>
@@ -2444,7 +2510,7 @@
       <c r="AA70" s="26"/>
       <c r="AB70" s="26"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="1"/>
@@ -2474,7 +2540,7 @@
       <c r="AA71" s="26"/>
       <c r="AB71" s="26"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="1"/>
@@ -2504,7 +2570,7 @@
       <c r="AA72" s="26"/>
       <c r="AB72" s="26"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="1"/>
@@ -2534,7 +2600,7 @@
       <c r="AA73" s="26"/>
       <c r="AB73" s="26"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="1"/>
@@ -2564,7 +2630,7 @@
       <c r="AA74" s="26"/>
       <c r="AB74" s="26"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="1"/>
@@ -2594,7 +2660,7 @@
       <c r="AA75" s="26"/>
       <c r="AB75" s="26"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="1"/>
@@ -2624,7 +2690,7 @@
       <c r="AA76" s="26"/>
       <c r="AB76" s="26"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="1"/>
@@ -2654,7 +2720,7 @@
       <c r="AA77" s="26"/>
       <c r="AB77" s="26"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="1"/>
@@ -2684,7 +2750,7 @@
       <c r="AA78" s="26"/>
       <c r="AB78" s="26"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="1"/>
@@ -2714,7 +2780,7 @@
       <c r="AA79" s="26"/>
       <c r="AB79" s="26"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="1"/>
@@ -2744,7 +2810,7 @@
       <c r="AA80" s="26"/>
       <c r="AB80" s="26"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="1"/>
@@ -2774,7 +2840,7 @@
       <c r="AA81" s="26"/>
       <c r="AB81" s="26"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="1"/>
@@ -2804,7 +2870,7 @@
       <c r="AA82" s="26"/>
       <c r="AB82" s="26"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="1"/>
@@ -2834,7 +2900,7 @@
       <c r="AA83" s="26"/>
       <c r="AB83" s="26"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="1"/>
@@ -2864,7 +2930,7 @@
       <c r="AA84" s="26"/>
       <c r="AB84" s="26"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="1"/>
@@ -2894,7 +2960,7 @@
       <c r="AA85" s="26"/>
       <c r="AB85" s="26"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="1"/>
@@ -2924,7 +2990,7 @@
       <c r="AA86" s="26"/>
       <c r="AB86" s="26"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="1"/>
@@ -2954,7 +3020,7 @@
       <c r="AA87" s="26"/>
       <c r="AB87" s="26"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="1"/>
@@ -2984,7 +3050,7 @@
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="1"/>
@@ -3014,7 +3080,7 @@
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="1"/>
@@ -3044,7 +3110,7 @@
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="1"/>
@@ -3074,7 +3140,7 @@
       <c r="AA91" s="26"/>
       <c r="AB91" s="26"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="1"/>
@@ -3104,7 +3170,7 @@
       <c r="AA92" s="26"/>
       <c r="AB92" s="26"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="1"/>
@@ -3134,7 +3200,7 @@
       <c r="AA93" s="26"/>
       <c r="AB93" s="26"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="1"/>
@@ -3164,7 +3230,7 @@
       <c r="AA94" s="26"/>
       <c r="AB94" s="26"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="1"/>
@@ -3194,7 +3260,7 @@
       <c r="AA95" s="26"/>
       <c r="AB95" s="26"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="1"/>
@@ -3224,7 +3290,7 @@
       <c r="AA96" s="26"/>
       <c r="AB96" s="26"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="1"/>
@@ -3254,7 +3320,7 @@
       <c r="AA97" s="26"/>
       <c r="AB97" s="26"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="1"/>
@@ -3284,7 +3350,7 @@
       <c r="AA98" s="26"/>
       <c r="AB98" s="26"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="1"/>
@@ -3314,7 +3380,7 @@
       <c r="AA99" s="26"/>
       <c r="AB99" s="26"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="1"/>
@@ -3344,7 +3410,7 @@
       <c r="AA100" s="26"/>
       <c r="AB100" s="26"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="1"/>
@@ -3374,7 +3440,7 @@
       <c r="AA101" s="26"/>
       <c r="AB101" s="26"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="1"/>
@@ -3404,7 +3470,7 @@
       <c r="AA102" s="26"/>
       <c r="AB102" s="26"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="1"/>
@@ -3434,7 +3500,7 @@
       <c r="AA103" s="26"/>
       <c r="AB103" s="26"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="1"/>
@@ -3464,7 +3530,7 @@
       <c r="AA104" s="26"/>
       <c r="AB104" s="26"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="1"/>
@@ -3494,7 +3560,7 @@
       <c r="AA105" s="26"/>
       <c r="AB105" s="26"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="1"/>
@@ -3524,7 +3590,7 @@
       <c r="AA106" s="26"/>
       <c r="AB106" s="26"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="1"/>
@@ -3554,7 +3620,7 @@
       <c r="AA107" s="26"/>
       <c r="AB107" s="26"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="1"/>
@@ -3584,7 +3650,7 @@
       <c r="AA108" s="26"/>
       <c r="AB108" s="26"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="1"/>
@@ -3614,7 +3680,7 @@
       <c r="AA109" s="26"/>
       <c r="AB109" s="26"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="1"/>
@@ -3644,7 +3710,7 @@
       <c r="AA110" s="26"/>
       <c r="AB110" s="26"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="1"/>
@@ -3674,7 +3740,7 @@
       <c r="AA111" s="26"/>
       <c r="AB111" s="26"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="1"/>
@@ -3704,7 +3770,7 @@
       <c r="AA112" s="26"/>
       <c r="AB112" s="26"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="1"/>
@@ -3734,7 +3800,7 @@
       <c r="AA113" s="26"/>
       <c r="AB113" s="26"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="1"/>
@@ -3764,7 +3830,7 @@
       <c r="AA114" s="26"/>
       <c r="AB114" s="26"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="1"/>
@@ -3794,7 +3860,7 @@
       <c r="AA115" s="26"/>
       <c r="AB115" s="26"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="1"/>
@@ -3824,7 +3890,7 @@
       <c r="AA116" s="26"/>
       <c r="AB116" s="26"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="1"/>
@@ -3854,7 +3920,7 @@
       <c r="AA117" s="26"/>
       <c r="AB117" s="26"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="1"/>
@@ -3884,7 +3950,7 @@
       <c r="AA118" s="26"/>
       <c r="AB118" s="26"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="1"/>
@@ -3914,7 +3980,7 @@
       <c r="AA119" s="26"/>
       <c r="AB119" s="26"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="1"/>
@@ -3944,7 +4010,7 @@
       <c r="AA120" s="26"/>
       <c r="AB120" s="26"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="1"/>
@@ -3974,7 +4040,7 @@
       <c r="AA121" s="26"/>
       <c r="AB121" s="26"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="1"/>
@@ -4004,7 +4070,7 @@
       <c r="AA122" s="26"/>
       <c r="AB122" s="26"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="1"/>
@@ -4034,7 +4100,7 @@
       <c r="AA123" s="26"/>
       <c r="AB123" s="26"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="1"/>
@@ -4064,7 +4130,7 @@
       <c r="AA124" s="26"/>
       <c r="AB124" s="26"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="1"/>
@@ -4094,7 +4160,7 @@
       <c r="AA125" s="26"/>
       <c r="AB125" s="26"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="1"/>
@@ -4124,7 +4190,7 @@
       <c r="AA126" s="26"/>
       <c r="AB126" s="26"/>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="1"/>
@@ -4154,7 +4220,7 @@
       <c r="AA127" s="26"/>
       <c r="AB127" s="26"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="1"/>
@@ -4184,7 +4250,7 @@
       <c r="AA128" s="26"/>
       <c r="AB128" s="26"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="1"/>
@@ -4214,7 +4280,7 @@
       <c r="AA129" s="26"/>
       <c r="AB129" s="26"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="1"/>
@@ -4244,7 +4310,7 @@
       <c r="AA130" s="26"/>
       <c r="AB130" s="26"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="1"/>
@@ -4274,7 +4340,7 @@
       <c r="AA131" s="26"/>
       <c r="AB131" s="26"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="1"/>
@@ -4304,7 +4370,7 @@
       <c r="AA132" s="26"/>
       <c r="AB132" s="26"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="1"/>
@@ -4334,7 +4400,7 @@
       <c r="AA133" s="26"/>
       <c r="AB133" s="26"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="1"/>
@@ -4364,7 +4430,7 @@
       <c r="AA134" s="26"/>
       <c r="AB134" s="26"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="1"/>
@@ -4394,7 +4460,7 @@
       <c r="AA135" s="26"/>
       <c r="AB135" s="26"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="1"/>
@@ -4424,7 +4490,7 @@
       <c r="AA136" s="26"/>
       <c r="AB136" s="26"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="1"/>
@@ -4454,7 +4520,7 @@
       <c r="AA137" s="26"/>
       <c r="AB137" s="26"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="1"/>
@@ -4484,7 +4550,7 @@
       <c r="AA138" s="26"/>
       <c r="AB138" s="26"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="1"/>
@@ -4514,7 +4580,7 @@
       <c r="AA139" s="26"/>
       <c r="AB139" s="26"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="1"/>
@@ -4544,7 +4610,7 @@
       <c r="AA140" s="26"/>
       <c r="AB140" s="26"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="1"/>
@@ -4574,7 +4640,7 @@
       <c r="AA141" s="26"/>
       <c r="AB141" s="26"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="1"/>
@@ -4604,7 +4670,7 @@
       <c r="AA142" s="26"/>
       <c r="AB142" s="26"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="1"/>
@@ -4634,7 +4700,7 @@
       <c r="AA143" s="26"/>
       <c r="AB143" s="26"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="1"/>
@@ -4664,7 +4730,7 @@
       <c r="AA144" s="26"/>
       <c r="AB144" s="26"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="1"/>
@@ -4694,7 +4760,7 @@
       <c r="AA145" s="26"/>
       <c r="AB145" s="26"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="1"/>
@@ -4724,7 +4790,7 @@
       <c r="AA146" s="26"/>
       <c r="AB146" s="26"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="1"/>
@@ -4754,7 +4820,7 @@
       <c r="AA147" s="26"/>
       <c r="AB147" s="26"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="1"/>
@@ -4784,7 +4850,7 @@
       <c r="AA148" s="26"/>
       <c r="AB148" s="26"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="1"/>
@@ -4814,7 +4880,7 @@
       <c r="AA149" s="26"/>
       <c r="AB149" s="26"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="1"/>
@@ -4844,7 +4910,7 @@
       <c r="AA150" s="26"/>
       <c r="AB150" s="26"/>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="1"/>
@@ -4874,7 +4940,7 @@
       <c r="AA151" s="26"/>
       <c r="AB151" s="26"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="1"/>
@@ -4904,7 +4970,7 @@
       <c r="AA152" s="26"/>
       <c r="AB152" s="26"/>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="1"/>
@@ -4934,7 +5000,7 @@
       <c r="AA153" s="26"/>
       <c r="AB153" s="26"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="1"/>
@@ -4964,7 +5030,7 @@
       <c r="AA154" s="26"/>
       <c r="AB154" s="26"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="1"/>
@@ -4994,7 +5060,7 @@
       <c r="AA155" s="26"/>
       <c r="AB155" s="26"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="1"/>
@@ -5024,7 +5090,7 @@
       <c r="AA156" s="26"/>
       <c r="AB156" s="26"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="1"/>
@@ -5054,7 +5120,7 @@
       <c r="AA157" s="26"/>
       <c r="AB157" s="26"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="1"/>
@@ -5084,7 +5150,7 @@
       <c r="AA158" s="26"/>
       <c r="AB158" s="26"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="1"/>
@@ -5114,7 +5180,7 @@
       <c r="AA159" s="26"/>
       <c r="AB159" s="26"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="1"/>
@@ -5144,7 +5210,7 @@
       <c r="AA160" s="26"/>
       <c r="AB160" s="26"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="1"/>
@@ -5174,7 +5240,7 @@
       <c r="AA161" s="26"/>
       <c r="AB161" s="26"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="1"/>
@@ -5204,7 +5270,7 @@
       <c r="AA162" s="26"/>
       <c r="AB162" s="26"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="1"/>
@@ -5234,7 +5300,7 @@
       <c r="AA163" s="26"/>
       <c r="AB163" s="26"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="1"/>
@@ -5264,7 +5330,7 @@
       <c r="AA164" s="26"/>
       <c r="AB164" s="26"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="1"/>
@@ -5294,7 +5360,7 @@
       <c r="AA165" s="26"/>
       <c r="AB165" s="26"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="1"/>
@@ -5324,7 +5390,7 @@
       <c r="AA166" s="26"/>
       <c r="AB166" s="26"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="1"/>
@@ -5354,7 +5420,7 @@
       <c r="AA167" s="26"/>
       <c r="AB167" s="26"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="1"/>
@@ -5384,7 +5450,7 @@
       <c r="AA168" s="26"/>
       <c r="AB168" s="26"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="1"/>
@@ -5414,7 +5480,7 @@
       <c r="AA169" s="26"/>
       <c r="AB169" s="26"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="1"/>
@@ -5444,7 +5510,7 @@
       <c r="AA170" s="26"/>
       <c r="AB170" s="26"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="1"/>
@@ -5474,7 +5540,7 @@
       <c r="AA171" s="26"/>
       <c r="AB171" s="26"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="1"/>
@@ -5504,7 +5570,7 @@
       <c r="AA172" s="26"/>
       <c r="AB172" s="26"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="1"/>
@@ -5534,7 +5600,7 @@
       <c r="AA173" s="26"/>
       <c r="AB173" s="26"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="1"/>
@@ -5564,7 +5630,7 @@
       <c r="AA174" s="26"/>
       <c r="AB174" s="26"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="1"/>
@@ -5594,7 +5660,7 @@
       <c r="AA175" s="26"/>
       <c r="AB175" s="26"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="1"/>
@@ -5624,7 +5690,7 @@
       <c r="AA176" s="26"/>
       <c r="AB176" s="26"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="1"/>
@@ -5654,7 +5720,7 @@
       <c r="AA177" s="26"/>
       <c r="AB177" s="26"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="1"/>
@@ -5684,7 +5750,7 @@
       <c r="AA178" s="26"/>
       <c r="AB178" s="26"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="1"/>
@@ -5714,7 +5780,7 @@
       <c r="AA179" s="26"/>
       <c r="AB179" s="26"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="1"/>
@@ -5744,7 +5810,7 @@
       <c r="AA180" s="26"/>
       <c r="AB180" s="26"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="1"/>
@@ -5774,7 +5840,7 @@
       <c r="AA181" s="26"/>
       <c r="AB181" s="26"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="1"/>
@@ -5804,7 +5870,7 @@
       <c r="AA182" s="26"/>
       <c r="AB182" s="26"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="1"/>
@@ -5834,7 +5900,7 @@
       <c r="AA183" s="26"/>
       <c r="AB183" s="26"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="1"/>
@@ -5864,7 +5930,7 @@
       <c r="AA184" s="26"/>
       <c r="AB184" s="26"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="1"/>
@@ -5894,7 +5960,7 @@
       <c r="AA185" s="26"/>
       <c r="AB185" s="26"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="1"/>
@@ -5924,7 +5990,7 @@
       <c r="AA186" s="26"/>
       <c r="AB186" s="26"/>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="1"/>
@@ -5954,7 +6020,7 @@
       <c r="AA187" s="26"/>
       <c r="AB187" s="26"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="1"/>
@@ -5984,7 +6050,7 @@
       <c r="AA188" s="26"/>
       <c r="AB188" s="26"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="1"/>
@@ -6014,7 +6080,7 @@
       <c r="AA189" s="26"/>
       <c r="AB189" s="26"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="1"/>
@@ -6044,7 +6110,7 @@
       <c r="AA190" s="26"/>
       <c r="AB190" s="26"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="1"/>
@@ -6074,7 +6140,7 @@
       <c r="AA191" s="26"/>
       <c r="AB191" s="26"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="1"/>
@@ -6104,7 +6170,7 @@
       <c r="AA192" s="26"/>
       <c r="AB192" s="26"/>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="1"/>
@@ -6134,7 +6200,7 @@
       <c r="AA193" s="26"/>
       <c r="AB193" s="26"/>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="1"/>
@@ -6164,7 +6230,7 @@
       <c r="AA194" s="26"/>
       <c r="AB194" s="26"/>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="1"/>
@@ -6194,7 +6260,7 @@
       <c r="AA195" s="26"/>
       <c r="AB195" s="26"/>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="1"/>
@@ -6224,7 +6290,7 @@
       <c r="AA196" s="26"/>
       <c r="AB196" s="26"/>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="1"/>
@@ -6254,7 +6320,7 @@
       <c r="AA197" s="26"/>
       <c r="AB197" s="26"/>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="1"/>
@@ -6284,7 +6350,7 @@
       <c r="AA198" s="26"/>
       <c r="AB198" s="26"/>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="1"/>
@@ -6314,7 +6380,7 @@
       <c r="AA199" s="26"/>
       <c r="AB199" s="26"/>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="1"/>
@@ -6344,7 +6410,7 @@
       <c r="AA200" s="26"/>
       <c r="AB200" s="26"/>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
       <c r="C201" s="1"/>
@@ -6374,7 +6440,7 @@
       <c r="AA201" s="26"/>
       <c r="AB201" s="26"/>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
       <c r="C202" s="1"/>
@@ -6404,7 +6470,7 @@
       <c r="AA202" s="26"/>
       <c r="AB202" s="26"/>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
       <c r="C203" s="1"/>
@@ -6434,7 +6500,7 @@
       <c r="AA203" s="26"/>
       <c r="AB203" s="26"/>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="1"/>
@@ -6464,7 +6530,7 @@
       <c r="AA204" s="26"/>
       <c r="AB204" s="26"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="1"/>
@@ -6494,7 +6560,7 @@
       <c r="AA205" s="26"/>
       <c r="AB205" s="26"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="1"/>
@@ -6524,7 +6590,7 @@
       <c r="AA206" s="26"/>
       <c r="AB206" s="26"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="1"/>
@@ -6554,7 +6620,7 @@
       <c r="AA207" s="26"/>
       <c r="AB207" s="26"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
       <c r="C208" s="1"/>
@@ -6584,7 +6650,7 @@
       <c r="AA208" s="26"/>
       <c r="AB208" s="26"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
       <c r="C209" s="1"/>
@@ -6614,7 +6680,7 @@
       <c r="AA209" s="26"/>
       <c r="AB209" s="26"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
       <c r="C210" s="1"/>
@@ -6644,7 +6710,7 @@
       <c r="AA210" s="26"/>
       <c r="AB210" s="26"/>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="1"/>
@@ -6674,7 +6740,7 @@
       <c r="AA211" s="26"/>
       <c r="AB211" s="26"/>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
       <c r="C212" s="1"/>
@@ -6704,7 +6770,7 @@
       <c r="AA212" s="26"/>
       <c r="AB212" s="26"/>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="1"/>
@@ -6734,7 +6800,7 @@
       <c r="AA213" s="26"/>
       <c r="AB213" s="26"/>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="1"/>
@@ -6764,7 +6830,7 @@
       <c r="AA214" s="26"/>
       <c r="AB214" s="26"/>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="1"/>
@@ -6794,7 +6860,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="26"/>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
       <c r="C216" s="1"/>
@@ -6824,7 +6890,7 @@
       <c r="AA216" s="26"/>
       <c r="AB216" s="26"/>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="1"/>
@@ -6854,7 +6920,7 @@
       <c r="AA217" s="26"/>
       <c r="AB217" s="26"/>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
       <c r="C218" s="1"/>
@@ -6884,7 +6950,7 @@
       <c r="AA218" s="26"/>
       <c r="AB218" s="26"/>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="1"/>
@@ -6914,7 +6980,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="26"/>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
       <c r="C220" s="1"/>
@@ -6944,7 +7010,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="26"/>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
       <c r="C221" s="1"/>
@@ -6974,7 +7040,7 @@
       <c r="AA221" s="26"/>
       <c r="AB221" s="26"/>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
       <c r="C222" s="1"/>
@@ -7004,7 +7070,7 @@
       <c r="AA222" s="26"/>
       <c r="AB222" s="26"/>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
       <c r="C223" s="1"/>
@@ -7034,7 +7100,7 @@
       <c r="AA223" s="26"/>
       <c r="AB223" s="26"/>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
       <c r="C224" s="1"/>
@@ -7064,7 +7130,7 @@
       <c r="AA224" s="26"/>
       <c r="AB224" s="26"/>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
       <c r="C225" s="1"/>
@@ -7094,7 +7160,7 @@
       <c r="AA225" s="26"/>
       <c r="AB225" s="26"/>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
       <c r="C226" s="1"/>
@@ -7124,7 +7190,7 @@
       <c r="AA226" s="26"/>
       <c r="AB226" s="26"/>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="1"/>
@@ -7154,7 +7220,7 @@
       <c r="AA227" s="26"/>
       <c r="AB227" s="26"/>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="1"/>
@@ -7184,7 +7250,7 @@
       <c r="AA228" s="26"/>
       <c r="AB228" s="26"/>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
       <c r="C229" s="1"/>
@@ -7214,7 +7280,7 @@
       <c r="AA229" s="26"/>
       <c r="AB229" s="26"/>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
       <c r="C230" s="1"/>
@@ -7244,7 +7310,7 @@
       <c r="AA230" s="26"/>
       <c r="AB230" s="26"/>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
       <c r="C231" s="1"/>
@@ -7274,7 +7340,7 @@
       <c r="AA231" s="26"/>
       <c r="AB231" s="26"/>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
       <c r="C232" s="1"/>
@@ -7304,7 +7370,7 @@
       <c r="AA232" s="26"/>
       <c r="AB232" s="26"/>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
       <c r="C233" s="1"/>
@@ -7334,7 +7400,7 @@
       <c r="AA233" s="26"/>
       <c r="AB233" s="26"/>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
       <c r="C234" s="1"/>
@@ -7364,7 +7430,7 @@
       <c r="AA234" s="26"/>
       <c r="AB234" s="26"/>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
       <c r="C235" s="1"/>
@@ -7394,7 +7460,7 @@
       <c r="AA235" s="26"/>
       <c r="AB235" s="26"/>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
       <c r="C236" s="1"/>
@@ -7424,7 +7490,7 @@
       <c r="AA236" s="26"/>
       <c r="AB236" s="26"/>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
       <c r="C237" s="1"/>
@@ -7454,7 +7520,7 @@
       <c r="AA237" s="26"/>
       <c r="AB237" s="26"/>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
       <c r="C238" s="1"/>
@@ -7484,7 +7550,7 @@
       <c r="AA238" s="26"/>
       <c r="AB238" s="26"/>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
       <c r="C239" s="1"/>
@@ -7514,7 +7580,7 @@
       <c r="AA239" s="26"/>
       <c r="AB239" s="26"/>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
       <c r="C240" s="1"/>
@@ -7544,7 +7610,7 @@
       <c r="AA240" s="26"/>
       <c r="AB240" s="26"/>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="1"/>
@@ -7574,7 +7640,7 @@
       <c r="AA241" s="26"/>
       <c r="AB241" s="26"/>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
       <c r="C242" s="1"/>
@@ -7604,7 +7670,7 @@
       <c r="AA242" s="26"/>
       <c r="AB242" s="26"/>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
       <c r="C243" s="1"/>
@@ -7634,7 +7700,7 @@
       <c r="AA243" s="26"/>
       <c r="AB243" s="26"/>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
       <c r="C244" s="1"/>
@@ -7664,7 +7730,7 @@
       <c r="AA244" s="26"/>
       <c r="AB244" s="26"/>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
       <c r="C245" s="1"/>
@@ -7694,7 +7760,7 @@
       <c r="AA245" s="26"/>
       <c r="AB245" s="26"/>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
       <c r="C246" s="1"/>
@@ -7724,7 +7790,7 @@
       <c r="AA246" s="26"/>
       <c r="AB246" s="26"/>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
       <c r="C247" s="1"/>
@@ -7754,7 +7820,7 @@
       <c r="AA247" s="26"/>
       <c r="AB247" s="26"/>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
       <c r="C248" s="1"/>
@@ -7784,7 +7850,7 @@
       <c r="AA248" s="26"/>
       <c r="AB248" s="26"/>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
       <c r="C249" s="1"/>
@@ -7814,7 +7880,7 @@
       <c r="AA249" s="26"/>
       <c r="AB249" s="26"/>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
       <c r="C250" s="1"/>
@@ -7844,7 +7910,7 @@
       <c r="AA250" s="26"/>
       <c r="AB250" s="26"/>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="1"/>
@@ -7874,7 +7940,7 @@
       <c r="AA251" s="26"/>
       <c r="AB251" s="26"/>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
@@ -7904,7 +7970,7 @@
       <c r="AA252" s="26"/>
       <c r="AB252" s="26"/>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
       <c r="C253" s="1"/>
@@ -7934,7 +8000,7 @@
       <c r="AA253" s="26"/>
       <c r="AB253" s="26"/>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
       <c r="C254" s="1"/>
@@ -7964,7 +8030,7 @@
       <c r="AA254" s="26"/>
       <c r="AB254" s="26"/>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
       <c r="C255" s="1"/>
@@ -7994,7 +8060,7 @@
       <c r="AA255" s="26"/>
       <c r="AB255" s="26"/>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
       <c r="C256" s="1"/>
@@ -8024,7 +8090,7 @@
       <c r="AA256" s="26"/>
       <c r="AB256" s="26"/>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
       <c r="C257" s="1"/>
@@ -8054,7 +8120,7 @@
       <c r="AA257" s="26"/>
       <c r="AB257" s="26"/>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
       <c r="C258" s="1"/>
@@ -8084,7 +8150,7 @@
       <c r="AA258" s="26"/>
       <c r="AB258" s="26"/>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
       <c r="C259" s="1"/>
@@ -8114,7 +8180,7 @@
       <c r="AA259" s="26"/>
       <c r="AB259" s="26"/>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
       <c r="C260" s="1"/>
@@ -8144,7 +8210,7 @@
       <c r="AA260" s="26"/>
       <c r="AB260" s="26"/>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
       <c r="C261" s="1"/>
@@ -8174,7 +8240,7 @@
       <c r="AA261" s="26"/>
       <c r="AB261" s="26"/>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
       <c r="C262" s="1"/>
@@ -8204,7 +8270,7 @@
       <c r="AA262" s="26"/>
       <c r="AB262" s="26"/>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
       <c r="C263" s="1"/>
@@ -8234,7 +8300,7 @@
       <c r="AA263" s="26"/>
       <c r="AB263" s="26"/>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
       <c r="C264" s="1"/>
@@ -8264,7 +8330,7 @@
       <c r="AA264" s="26"/>
       <c r="AB264" s="26"/>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
       <c r="C265" s="1"/>
@@ -8294,7 +8360,7 @@
       <c r="AA265" s="26"/>
       <c r="AB265" s="26"/>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="16"/>
       <c r="B266" s="16"/>
       <c r="C266" s="1"/>
@@ -8324,7 +8390,7 @@
       <c r="AA266" s="26"/>
       <c r="AB266" s="26"/>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="16"/>
       <c r="B267" s="16"/>
       <c r="C267" s="1"/>
@@ -8354,7 +8420,7 @@
       <c r="AA267" s="26"/>
       <c r="AB267" s="26"/>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="16"/>
       <c r="B268" s="16"/>
       <c r="C268" s="1"/>
@@ -8384,7 +8450,7 @@
       <c r="AA268" s="26"/>
       <c r="AB268" s="26"/>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="16"/>
       <c r="B269" s="16"/>
       <c r="C269" s="1"/>
@@ -8414,7 +8480,7 @@
       <c r="AA269" s="26"/>
       <c r="AB269" s="26"/>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="16"/>
       <c r="B270" s="16"/>
       <c r="C270" s="1"/>
@@ -8444,7 +8510,7 @@
       <c r="AA270" s="26"/>
       <c r="AB270" s="26"/>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="16"/>
       <c r="B271" s="16"/>
       <c r="C271" s="1"/>
@@ -8474,7 +8540,7 @@
       <c r="AA271" s="26"/>
       <c r="AB271" s="26"/>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="16"/>
       <c r="B272" s="16"/>
       <c r="C272" s="1"/>
@@ -8504,7 +8570,7 @@
       <c r="AA272" s="26"/>
       <c r="AB272" s="26"/>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="16"/>
       <c r="B273" s="16"/>
       <c r="C273" s="1"/>
@@ -8534,7 +8600,7 @@
       <c r="AA273" s="26"/>
       <c r="AB273" s="26"/>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="16"/>
       <c r="B274" s="16"/>
       <c r="C274" s="1"/>
@@ -8564,7 +8630,7 @@
       <c r="AA274" s="26"/>
       <c r="AB274" s="26"/>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="1"/>
@@ -8594,7 +8660,7 @@
       <c r="AA275" s="26"/>
       <c r="AB275" s="26"/>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="16"/>
       <c r="B276" s="16"/>
       <c r="C276" s="1"/>
@@ -8624,7 +8690,7 @@
       <c r="AA276" s="26"/>
       <c r="AB276" s="26"/>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="16"/>
       <c r="B277" s="16"/>
       <c r="C277" s="1"/>
@@ -8654,7 +8720,7 @@
       <c r="AA277" s="26"/>
       <c r="AB277" s="26"/>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="16"/>
       <c r="B278" s="16"/>
       <c r="C278" s="1"/>
@@ -8684,7 +8750,7 @@
       <c r="AA278" s="26"/>
       <c r="AB278" s="26"/>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="16"/>
       <c r="B279" s="16"/>
       <c r="C279" s="1"/>
@@ -8714,7 +8780,7 @@
       <c r="AA279" s="26"/>
       <c r="AB279" s="26"/>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="16"/>
       <c r="B280" s="16"/>
       <c r="C280" s="1"/>
@@ -8744,7 +8810,7 @@
       <c r="AA280" s="26"/>
       <c r="AB280" s="26"/>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="16"/>
       <c r="B281" s="16"/>
       <c r="C281" s="1"/>
@@ -8774,7 +8840,7 @@
       <c r="AA281" s="26"/>
       <c r="AB281" s="26"/>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="16"/>
       <c r="C282" s="1"/>
@@ -8804,7 +8870,7 @@
       <c r="AA282" s="26"/>
       <c r="AB282" s="26"/>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="16"/>
       <c r="B283" s="16"/>
       <c r="C283" s="1"/>
@@ -8834,7 +8900,7 @@
       <c r="AA283" s="26"/>
       <c r="AB283" s="26"/>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="16"/>
       <c r="B284" s="16"/>
       <c r="C284" s="1"/>
@@ -8864,7 +8930,7 @@
       <c r="AA284" s="26"/>
       <c r="AB284" s="26"/>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="16"/>
       <c r="B285" s="16"/>
       <c r="C285" s="1"/>
@@ -8894,7 +8960,7 @@
       <c r="AA285" s="26"/>
       <c r="AB285" s="26"/>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="16"/>
       <c r="B286" s="16"/>
       <c r="C286" s="1"/>
@@ -8924,7 +8990,7 @@
       <c r="AA286" s="26"/>
       <c r="AB286" s="26"/>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="16"/>
       <c r="B287" s="16"/>
       <c r="C287" s="1"/>
@@ -8954,7 +9020,7 @@
       <c r="AA287" s="26"/>
       <c r="AB287" s="26"/>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="16"/>
       <c r="B288" s="16"/>
       <c r="C288" s="1"/>
@@ -8984,7 +9050,7 @@
       <c r="AA288" s="26"/>
       <c r="AB288" s="26"/>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="16"/>
       <c r="B289" s="16"/>
       <c r="C289" s="1"/>
@@ -9014,7 +9080,7 @@
       <c r="AA289" s="26"/>
       <c r="AB289" s="26"/>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="16"/>
       <c r="B290" s="16"/>
       <c r="C290" s="1"/>
@@ -9044,7 +9110,7 @@
       <c r="AA290" s="26"/>
       <c r="AB290" s="26"/>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="B291" s="16"/>
       <c r="C291" s="1"/>
@@ -9074,7 +9140,7 @@
       <c r="AA291" s="26"/>
       <c r="AB291" s="26"/>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="16"/>
       <c r="B292" s="16"/>
       <c r="C292" s="1"/>
@@ -9104,7 +9170,7 @@
       <c r="AA292" s="26"/>
       <c r="AB292" s="26"/>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="16"/>
       <c r="B293" s="16"/>
       <c r="C293" s="1"/>
@@ -9134,7 +9200,7 @@
       <c r="AA293" s="26"/>
       <c r="AB293" s="26"/>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="16"/>
       <c r="B294" s="16"/>
       <c r="C294" s="1"/>
@@ -9164,7 +9230,7 @@
       <c r="AA294" s="26"/>
       <c r="AB294" s="26"/>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="16"/>
       <c r="B295" s="16"/>
       <c r="C295" s="1"/>
@@ -9194,7 +9260,7 @@
       <c r="AA295" s="26"/>
       <c r="AB295" s="26"/>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="16"/>
       <c r="B296" s="16"/>
       <c r="C296" s="1"/>
@@ -9224,7 +9290,7 @@
       <c r="AA296" s="26"/>
       <c r="AB296" s="26"/>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="16"/>
       <c r="B297" s="16"/>
       <c r="C297" s="1"/>
@@ -9254,7 +9320,7 @@
       <c r="AA297" s="26"/>
       <c r="AB297" s="26"/>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="16"/>
       <c r="B298" s="16"/>
       <c r="C298" s="1"/>
@@ -9284,7 +9350,7 @@
       <c r="AA298" s="26"/>
       <c r="AB298" s="26"/>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="16"/>
       <c r="B299" s="16"/>
       <c r="C299" s="1"/>
@@ -9314,7 +9380,7 @@
       <c r="AA299" s="26"/>
       <c r="AB299" s="26"/>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" s="16"/>
       <c r="B300" s="16"/>
       <c r="C300" s="1"/>
@@ -9344,7 +9410,7 @@
       <c r="AA300" s="26"/>
       <c r="AB300" s="26"/>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" s="16"/>
       <c r="B301" s="16"/>
       <c r="C301" s="1"/>
@@ -9374,7 +9440,7 @@
       <c r="AA301" s="26"/>
       <c r="AB301" s="26"/>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" s="16"/>
       <c r="B302" s="16"/>
       <c r="C302" s="1"/>
@@ -9404,7 +9470,7 @@
       <c r="AA302" s="26"/>
       <c r="AB302" s="26"/>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" s="16"/>
       <c r="B303" s="16"/>
       <c r="C303" s="1"/>
@@ -9434,7 +9500,7 @@
       <c r="AA303" s="26"/>
       <c r="AB303" s="26"/>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" s="16"/>
       <c r="B304" s="16"/>
       <c r="C304" s="1"/>
@@ -9464,7 +9530,7 @@
       <c r="AA304" s="26"/>
       <c r="AB304" s="26"/>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" s="16"/>
       <c r="B305" s="16"/>
       <c r="C305" s="1"/>
@@ -9494,7 +9560,7 @@
       <c r="AA305" s="26"/>
       <c r="AB305" s="26"/>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" s="16"/>
       <c r="B306" s="16"/>
       <c r="C306" s="1"/>
@@ -9524,7 +9590,7 @@
       <c r="AA306" s="26"/>
       <c r="AB306" s="26"/>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" s="16"/>
       <c r="B307" s="16"/>
       <c r="C307" s="1"/>
@@ -9554,7 +9620,7 @@
       <c r="AA307" s="26"/>
       <c r="AB307" s="26"/>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" s="16"/>
       <c r="B308" s="16"/>
       <c r="C308" s="1"/>
@@ -9584,7 +9650,7 @@
       <c r="AA308" s="26"/>
       <c r="AB308" s="26"/>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" s="16"/>
       <c r="B309" s="16"/>
       <c r="C309" s="1"/>
@@ -9614,7 +9680,7 @@
       <c r="AA309" s="26"/>
       <c r="AB309" s="26"/>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" s="16"/>
       <c r="B310" s="16"/>
       <c r="C310" s="1"/>
@@ -9644,7 +9710,7 @@
       <c r="AA310" s="26"/>
       <c r="AB310" s="26"/>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" s="16"/>
       <c r="B311" s="16"/>
       <c r="C311" s="1"/>
@@ -9674,7 +9740,7 @@
       <c r="AA311" s="26"/>
       <c r="AB311" s="26"/>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" s="16"/>
       <c r="B312" s="16"/>
       <c r="C312" s="1"/>
@@ -9704,7 +9770,7 @@
       <c r="AA312" s="26"/>
       <c r="AB312" s="26"/>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" s="16"/>
       <c r="B313" s="16"/>
       <c r="C313" s="1"/>
@@ -9734,7 +9800,7 @@
       <c r="AA313" s="26"/>
       <c r="AB313" s="26"/>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" s="16"/>
       <c r="B314" s="16"/>
       <c r="C314" s="1"/>
@@ -9764,7 +9830,7 @@
       <c r="AA314" s="26"/>
       <c r="AB314" s="26"/>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" s="16"/>
       <c r="B315" s="16"/>
       <c r="C315" s="1"/>
@@ -9794,7 +9860,7 @@
       <c r="AA315" s="26"/>
       <c r="AB315" s="26"/>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" s="16"/>
       <c r="B316" s="16"/>
       <c r="C316" s="1"/>
@@ -9824,7 +9890,7 @@
       <c r="AA316" s="26"/>
       <c r="AB316" s="26"/>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" s="16"/>
       <c r="B317" s="16"/>
       <c r="C317" s="1"/>
@@ -9854,7 +9920,7 @@
       <c r="AA317" s="26"/>
       <c r="AB317" s="26"/>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" s="16"/>
       <c r="B318" s="16"/>
       <c r="C318" s="1"/>
@@ -9884,7 +9950,7 @@
       <c r="AA318" s="26"/>
       <c r="AB318" s="26"/>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" s="16"/>
       <c r="B319" s="16"/>
       <c r="C319" s="1"/>
@@ -9914,7 +9980,7 @@
       <c r="AA319" s="26"/>
       <c r="AB319" s="26"/>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" s="16"/>
       <c r="B320" s="16"/>
       <c r="C320" s="1"/>
@@ -9944,7 +10010,7 @@
       <c r="AA320" s="26"/>
       <c r="AB320" s="26"/>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" s="16"/>
       <c r="B321" s="16"/>
       <c r="C321" s="1"/>
@@ -9974,7 +10040,7 @@
       <c r="AA321" s="26"/>
       <c r="AB321" s="26"/>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="16"/>
       <c r="C322" s="1"/>
@@ -10004,7 +10070,7 @@
       <c r="AA322" s="26"/>
       <c r="AB322" s="26"/>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" s="16"/>
       <c r="B323" s="16"/>
       <c r="C323" s="1"/>
@@ -10034,7 +10100,7 @@
       <c r="AA323" s="26"/>
       <c r="AB323" s="26"/>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" s="16"/>
       <c r="B324" s="16"/>
       <c r="C324" s="1"/>
@@ -10064,7 +10130,7 @@
       <c r="AA324" s="26"/>
       <c r="AB324" s="26"/>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" s="16"/>
       <c r="B325" s="16"/>
       <c r="C325" s="1"/>
@@ -10094,7 +10160,7 @@
       <c r="AA325" s="26"/>
       <c r="AB325" s="26"/>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" s="16"/>
       <c r="B326" s="16"/>
       <c r="C326" s="1"/>
@@ -10124,7 +10190,7 @@
       <c r="AA326" s="26"/>
       <c r="AB326" s="26"/>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" s="16"/>
       <c r="B327" s="16"/>
       <c r="C327" s="1"/>
@@ -10154,7 +10220,7 @@
       <c r="AA327" s="26"/>
       <c r="AB327" s="26"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="16"/>
       <c r="B328" s="16"/>
       <c r="C328" s="1"/>
@@ -10184,7 +10250,7 @@
       <c r="AA328" s="26"/>
       <c r="AB328" s="26"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="16"/>
       <c r="B329" s="16"/>
       <c r="C329" s="1"/>
@@ -10214,7 +10280,7 @@
       <c r="AA329" s="26"/>
       <c r="AB329" s="26"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="16"/>
       <c r="B330" s="16"/>
       <c r="C330" s="1"/>
@@ -10244,7 +10310,7 @@
       <c r="AA330" s="26"/>
       <c r="AB330" s="26"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="16"/>
       <c r="B331" s="16"/>
       <c r="C331" s="1"/>
@@ -10274,7 +10340,7 @@
       <c r="AA331" s="26"/>
       <c r="AB331" s="26"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="16"/>
       <c r="B332" s="16"/>
       <c r="C332" s="1"/>
@@ -10304,7 +10370,7 @@
       <c r="AA332" s="26"/>
       <c r="AB332" s="26"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="16"/>
       <c r="B333" s="16"/>
       <c r="C333" s="1"/>
@@ -10334,7 +10400,7 @@
       <c r="AA333" s="26"/>
       <c r="AB333" s="26"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" s="16"/>
       <c r="B334" s="16"/>
       <c r="C334" s="1"/>
@@ -10364,7 +10430,7 @@
       <c r="AA334" s="26"/>
       <c r="AB334" s="26"/>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" s="16"/>
       <c r="B335" s="16"/>
       <c r="C335" s="1"/>
@@ -10394,7 +10460,7 @@
       <c r="AA335" s="26"/>
       <c r="AB335" s="26"/>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" s="16"/>
       <c r="B336" s="16"/>
       <c r="C336" s="1"/>
@@ -10424,7 +10490,7 @@
       <c r="AA336" s="26"/>
       <c r="AB336" s="26"/>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" s="16"/>
       <c r="B337" s="16"/>
       <c r="C337" s="1"/>
@@ -10454,7 +10520,7 @@
       <c r="AA337" s="26"/>
       <c r="AB337" s="26"/>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" s="16"/>
       <c r="B338" s="16"/>
       <c r="C338" s="1"/>
@@ -10484,7 +10550,7 @@
       <c r="AA338" s="26"/>
       <c r="AB338" s="26"/>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" s="16"/>
       <c r="B339" s="16"/>
       <c r="C339" s="1"/>
@@ -10514,7 +10580,7 @@
       <c r="AA339" s="26"/>
       <c r="AB339" s="26"/>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" s="16"/>
       <c r="B340" s="16"/>
       <c r="C340" s="1"/>
@@ -10544,7 +10610,7 @@
       <c r="AA340" s="26"/>
       <c r="AB340" s="26"/>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" s="16"/>
       <c r="B341" s="16"/>
       <c r="C341" s="1"/>
@@ -10574,7 +10640,7 @@
       <c r="AA341" s="26"/>
       <c r="AB341" s="26"/>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" s="16"/>
       <c r="B342" s="16"/>
       <c r="C342" s="1"/>
@@ -10604,7 +10670,7 @@
       <c r="AA342" s="26"/>
       <c r="AB342" s="26"/>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" s="16"/>
       <c r="B343" s="16"/>
       <c r="C343" s="1"/>
@@ -10634,7 +10700,7 @@
       <c r="AA343" s="26"/>
       <c r="AB343" s="26"/>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" s="16"/>
       <c r="B344" s="16"/>
       <c r="C344" s="1"/>
@@ -10664,7 +10730,7 @@
       <c r="AA344" s="26"/>
       <c r="AB344" s="26"/>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" s="16"/>
       <c r="B345" s="16"/>
       <c r="C345" s="1"/>
@@ -10694,7 +10760,7 @@
       <c r="AA345" s="26"/>
       <c r="AB345" s="26"/>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" s="16"/>
       <c r="B346" s="16"/>
       <c r="C346" s="1"/>
@@ -10724,7 +10790,7 @@
       <c r="AA346" s="26"/>
       <c r="AB346" s="26"/>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" s="16"/>
       <c r="B347" s="16"/>
       <c r="C347" s="1"/>
@@ -10754,7 +10820,7 @@
       <c r="AA347" s="26"/>
       <c r="AB347" s="26"/>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" s="16"/>
       <c r="B348" s="16"/>
       <c r="C348" s="1"/>
@@ -10784,7 +10850,7 @@
       <c r="AA348" s="26"/>
       <c r="AB348" s="26"/>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" s="16"/>
       <c r="B349" s="16"/>
       <c r="C349" s="1"/>
@@ -10814,7 +10880,7 @@
       <c r="AA349" s="26"/>
       <c r="AB349" s="26"/>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" s="16"/>
       <c r="B350" s="16"/>
       <c r="C350" s="1"/>
@@ -10844,7 +10910,7 @@
       <c r="AA350" s="26"/>
       <c r="AB350" s="26"/>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" s="16"/>
       <c r="B351" s="16"/>
       <c r="C351" s="1"/>
@@ -10874,7 +10940,7 @@
       <c r="AA351" s="26"/>
       <c r="AB351" s="26"/>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" s="16"/>
       <c r="B352" s="16"/>
       <c r="C352" s="1"/>
@@ -10904,7 +10970,7 @@
       <c r="AA352" s="26"/>
       <c r="AB352" s="26"/>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" s="16"/>
       <c r="B353" s="16"/>
       <c r="C353" s="1"/>
@@ -10934,7 +11000,7 @@
       <c r="AA353" s="26"/>
       <c r="AB353" s="26"/>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" s="16"/>
       <c r="B354" s="16"/>
       <c r="C354" s="1"/>
@@ -10964,7 +11030,7 @@
       <c r="AA354" s="26"/>
       <c r="AB354" s="26"/>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" s="16"/>
       <c r="B355" s="16"/>
       <c r="C355" s="1"/>
@@ -10994,7 +11060,7 @@
       <c r="AA355" s="26"/>
       <c r="AB355" s="26"/>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" s="16"/>
       <c r="B356" s="16"/>
       <c r="C356" s="1"/>
@@ -11024,7 +11090,7 @@
       <c r="AA356" s="26"/>
       <c r="AB356" s="26"/>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" s="16"/>
       <c r="B357" s="16"/>
       <c r="C357" s="1"/>
@@ -11054,7 +11120,7 @@
       <c r="AA357" s="26"/>
       <c r="AB357" s="26"/>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" s="16"/>
       <c r="B358" s="16"/>
       <c r="C358" s="1"/>
@@ -11084,7 +11150,7 @@
       <c r="AA358" s="26"/>
       <c r="AB358" s="26"/>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" s="16"/>
       <c r="B359" s="16"/>
       <c r="C359" s="1"/>
@@ -11114,7 +11180,7 @@
       <c r="AA359" s="26"/>
       <c r="AB359" s="26"/>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" s="16"/>
       <c r="B360" s="16"/>
       <c r="C360" s="1"/>
@@ -11144,7 +11210,7 @@
       <c r="AA360" s="26"/>
       <c r="AB360" s="26"/>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" s="16"/>
       <c r="B361" s="16"/>
       <c r="C361" s="1"/>
@@ -11174,7 +11240,7 @@
       <c r="AA361" s="26"/>
       <c r="AB361" s="26"/>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" s="16"/>
       <c r="B362" s="16"/>
       <c r="C362" s="1"/>
@@ -11204,7 +11270,7 @@
       <c r="AA362" s="26"/>
       <c r="AB362" s="26"/>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" s="16"/>
       <c r="B363" s="16"/>
       <c r="C363" s="1"/>
@@ -11234,7 +11300,7 @@
       <c r="AA363" s="26"/>
       <c r="AB363" s="26"/>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" s="16"/>
       <c r="B364" s="16"/>
       <c r="C364" s="1"/>
@@ -11264,7 +11330,7 @@
       <c r="AA364" s="26"/>
       <c r="AB364" s="26"/>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" s="16"/>
       <c r="B365" s="16"/>
       <c r="C365" s="1"/>
@@ -11294,7 +11360,7 @@
       <c r="AA365" s="26"/>
       <c r="AB365" s="26"/>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" s="16"/>
       <c r="B366" s="16"/>
       <c r="C366" s="1"/>
@@ -11324,7 +11390,7 @@
       <c r="AA366" s="26"/>
       <c r="AB366" s="26"/>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" s="16"/>
       <c r="B367" s="16"/>
       <c r="C367" s="1"/>
@@ -11354,7 +11420,7 @@
       <c r="AA367" s="26"/>
       <c r="AB367" s="26"/>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" s="16"/>
       <c r="B368" s="16"/>
       <c r="C368" s="1"/>
@@ -11384,7 +11450,7 @@
       <c r="AA368" s="26"/>
       <c r="AB368" s="26"/>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" s="16"/>
       <c r="B369" s="16"/>
       <c r="C369" s="1"/>
@@ -11414,7 +11480,7 @@
       <c r="AA369" s="26"/>
       <c r="AB369" s="26"/>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" s="16"/>
       <c r="B370" s="16"/>
       <c r="C370" s="1"/>
@@ -11444,7 +11510,7 @@
       <c r="AA370" s="26"/>
       <c r="AB370" s="26"/>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" s="16"/>
       <c r="B371" s="16"/>
       <c r="C371" s="1"/>
@@ -11474,7 +11540,7 @@
       <c r="AA371" s="26"/>
       <c r="AB371" s="26"/>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" s="16"/>
       <c r="B372" s="16"/>
       <c r="C372" s="1"/>
@@ -11504,7 +11570,7 @@
       <c r="AA372" s="26"/>
       <c r="AB372" s="26"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="16"/>
       <c r="B373" s="16"/>
       <c r="C373" s="1"/>
@@ -11534,7 +11600,7 @@
       <c r="AA373" s="26"/>
       <c r="AB373" s="26"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="16"/>
       <c r="B374" s="16"/>
       <c r="C374" s="1"/>
@@ -11564,7 +11630,7 @@
       <c r="AA374" s="26"/>
       <c r="AB374" s="26"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="16"/>
       <c r="B375" s="16"/>
       <c r="C375" s="1"/>
@@ -11594,7 +11660,7 @@
       <c r="AA375" s="26"/>
       <c r="AB375" s="26"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="16"/>
       <c r="B376" s="16"/>
       <c r="C376" s="1"/>
@@ -11624,7 +11690,7 @@
       <c r="AA376" s="26"/>
       <c r="AB376" s="26"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="16"/>
       <c r="B377" s="16"/>
       <c r="C377" s="1"/>
@@ -11654,7 +11720,7 @@
       <c r="AA377" s="26"/>
       <c r="AB377" s="26"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="16"/>
       <c r="B378" s="16"/>
       <c r="C378" s="1"/>
@@ -11684,7 +11750,7 @@
       <c r="AA378" s="26"/>
       <c r="AB378" s="26"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" s="16"/>
       <c r="B379" s="16"/>
       <c r="C379" s="1"/>
@@ -11714,7 +11780,7 @@
       <c r="AA379" s="26"/>
       <c r="AB379" s="26"/>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" s="16"/>
       <c r="B380" s="16"/>
       <c r="C380" s="1"/>
@@ -11744,7 +11810,7 @@
       <c r="AA380" s="26"/>
       <c r="AB380" s="26"/>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" s="16"/>
       <c r="B381" s="16"/>
       <c r="C381" s="1"/>
@@ -11774,7 +11840,7 @@
       <c r="AA381" s="26"/>
       <c r="AB381" s="26"/>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="16"/>
       <c r="B382" s="16"/>
       <c r="C382" s="1"/>
@@ -11804,7 +11870,7 @@
       <c r="AA382" s="26"/>
       <c r="AB382" s="26"/>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="16"/>
       <c r="B383" s="16"/>
       <c r="C383" s="1"/>
@@ -11834,7 +11900,7 @@
       <c r="AA383" s="26"/>
       <c r="AB383" s="26"/>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="16"/>
       <c r="B384" s="16"/>
       <c r="C384" s="1"/>
@@ -11864,7 +11930,7 @@
       <c r="AA384" s="26"/>
       <c r="AB384" s="26"/>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="16"/>
       <c r="B385" s="16"/>
       <c r="C385" s="1"/>
@@ -11894,7 +11960,7 @@
       <c r="AA385" s="26"/>
       <c r="AB385" s="26"/>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="16"/>
       <c r="B386" s="16"/>
       <c r="C386" s="1"/>
@@ -11924,7 +11990,7 @@
       <c r="AA386" s="26"/>
       <c r="AB386" s="26"/>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="16"/>
       <c r="B387" s="16"/>
       <c r="C387" s="1"/>
@@ -11954,7 +12020,7 @@
       <c r="AA387" s="26"/>
       <c r="AB387" s="26"/>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" s="16"/>
       <c r="B388" s="16"/>
       <c r="C388" s="1"/>
@@ -11984,7 +12050,7 @@
       <c r="AA388" s="26"/>
       <c r="AB388" s="26"/>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" s="16"/>
       <c r="B389" s="16"/>
       <c r="C389" s="1"/>
@@ -12014,7 +12080,7 @@
       <c r="AA389" s="26"/>
       <c r="AB389" s="26"/>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" s="16"/>
       <c r="B390" s="16"/>
       <c r="C390" s="1"/>
@@ -12044,7 +12110,7 @@
       <c r="AA390" s="26"/>
       <c r="AB390" s="26"/>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" s="16"/>
       <c r="B391" s="16"/>
       <c r="C391" s="1"/>
@@ -12074,7 +12140,7 @@
       <c r="AA391" s="26"/>
       <c r="AB391" s="26"/>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" s="16"/>
       <c r="B392" s="16"/>
       <c r="C392" s="1"/>
@@ -12104,7 +12170,7 @@
       <c r="AA392" s="26"/>
       <c r="AB392" s="26"/>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" s="16"/>
       <c r="B393" s="16"/>
       <c r="C393" s="1"/>
@@ -12134,7 +12200,7 @@
       <c r="AA393" s="26"/>
       <c r="AB393" s="26"/>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" s="16"/>
       <c r="B394" s="16"/>
       <c r="C394" s="1"/>
@@ -12164,7 +12230,7 @@
       <c r="AA394" s="26"/>
       <c r="AB394" s="26"/>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" s="16"/>
       <c r="B395" s="16"/>
       <c r="C395" s="1"/>
@@ -12194,7 +12260,7 @@
       <c r="AA395" s="26"/>
       <c r="AB395" s="26"/>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" s="16"/>
       <c r="B396" s="16"/>
       <c r="C396" s="1"/>
@@ -12224,7 +12290,7 @@
       <c r="AA396" s="26"/>
       <c r="AB396" s="26"/>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" s="16"/>
       <c r="B397" s="16"/>
       <c r="C397" s="1"/>
@@ -12254,7 +12320,7 @@
       <c r="AA397" s="26"/>
       <c r="AB397" s="26"/>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" s="16"/>
       <c r="B398" s="16"/>
       <c r="C398" s="1"/>
@@ -12284,7 +12350,7 @@
       <c r="AA398" s="26"/>
       <c r="AB398" s="26"/>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" s="16"/>
       <c r="B399" s="16"/>
       <c r="C399" s="1"/>
@@ -12314,7 +12380,7 @@
       <c r="AA399" s="26"/>
       <c r="AB399" s="26"/>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" s="16"/>
       <c r="B400" s="16"/>
       <c r="C400" s="1"/>
@@ -12344,7 +12410,7 @@
       <c r="AA400" s="26"/>
       <c r="AB400" s="26"/>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" s="16"/>
       <c r="B401" s="16"/>
       <c r="C401" s="1"/>
@@ -12374,7 +12440,7 @@
       <c r="AA401" s="26"/>
       <c r="AB401" s="26"/>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" s="16"/>
       <c r="B402" s="16"/>
       <c r="C402" s="1"/>
@@ -12404,7 +12470,7 @@
       <c r="AA402" s="26"/>
       <c r="AB402" s="26"/>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" s="16"/>
       <c r="B403" s="16"/>
       <c r="C403" s="1"/>
@@ -12434,7 +12500,7 @@
       <c r="AA403" s="26"/>
       <c r="AB403" s="26"/>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" s="16"/>
       <c r="B404" s="16"/>
       <c r="C404" s="1"/>
@@ -12464,7 +12530,7 @@
       <c r="AA404" s="26"/>
       <c r="AB404" s="26"/>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" s="16"/>
       <c r="B405" s="16"/>
       <c r="C405" s="1"/>
@@ -12494,7 +12560,7 @@
       <c r="AA405" s="26"/>
       <c r="AB405" s="26"/>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" s="16"/>
       <c r="B406" s="16"/>
       <c r="C406" s="1"/>
@@ -12524,7 +12590,7 @@
       <c r="AA406" s="26"/>
       <c r="AB406" s="26"/>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" s="16"/>
       <c r="B407" s="16"/>
       <c r="C407" s="1"/>
@@ -12554,7 +12620,7 @@
       <c r="AA407" s="26"/>
       <c r="AB407" s="26"/>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" s="16"/>
       <c r="B408" s="16"/>
       <c r="C408" s="1"/>
@@ -12584,7 +12650,7 @@
       <c r="AA408" s="26"/>
       <c r="AB408" s="26"/>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409" s="16"/>
       <c r="B409" s="16"/>
       <c r="C409" s="1"/>
@@ -12614,7 +12680,7 @@
       <c r="AA409" s="26"/>
       <c r="AB409" s="26"/>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410" s="16"/>
       <c r="B410" s="16"/>
       <c r="C410" s="1"/>
@@ -12644,7 +12710,7 @@
       <c r="AA410" s="26"/>
       <c r="AB410" s="26"/>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411" s="16"/>
       <c r="B411" s="16"/>
       <c r="C411" s="1"/>
@@ -12674,7 +12740,7 @@
       <c r="AA411" s="26"/>
       <c r="AB411" s="26"/>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412" s="16"/>
       <c r="B412" s="16"/>
       <c r="C412" s="1"/>
@@ -12704,7 +12770,7 @@
       <c r="AA412" s="26"/>
       <c r="AB412" s="26"/>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413" s="16"/>
       <c r="B413" s="16"/>
       <c r="C413" s="1"/>
@@ -12734,7 +12800,7 @@
       <c r="AA413" s="26"/>
       <c r="AB413" s="26"/>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414" s="16"/>
       <c r="B414" s="16"/>
       <c r="C414" s="1"/>
@@ -12764,7 +12830,7 @@
       <c r="AA414" s="26"/>
       <c r="AB414" s="26"/>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415" s="16"/>
       <c r="B415" s="16"/>
       <c r="C415" s="1"/>
@@ -12794,7 +12860,7 @@
       <c r="AA415" s="26"/>
       <c r="AB415" s="26"/>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416" s="16"/>
       <c r="B416" s="16"/>
       <c r="C416" s="1"/>
@@ -12824,7 +12890,7 @@
       <c r="AA416" s="26"/>
       <c r="AB416" s="26"/>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417" s="16"/>
       <c r="B417" s="16"/>
       <c r="C417" s="1"/>
@@ -12854,7 +12920,7 @@
       <c r="AA417" s="26"/>
       <c r="AB417" s="26"/>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418" s="16"/>
       <c r="B418" s="16"/>
       <c r="C418" s="1"/>
@@ -12884,7 +12950,7 @@
       <c r="AA418" s="26"/>
       <c r="AB418" s="26"/>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419" s="16"/>
       <c r="B419" s="16"/>
       <c r="C419" s="1"/>
@@ -12914,7 +12980,7 @@
       <c r="AA419" s="26"/>
       <c r="AB419" s="26"/>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420" s="16"/>
       <c r="B420" s="16"/>
       <c r="C420" s="1"/>
@@ -12944,7 +13010,7 @@
       <c r="AA420" s="26"/>
       <c r="AB420" s="26"/>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421" s="16"/>
       <c r="B421" s="16"/>
       <c r="C421" s="1"/>
@@ -12974,7 +13040,7 @@
       <c r="AA421" s="26"/>
       <c r="AB421" s="26"/>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422" s="16"/>
       <c r="B422" s="16"/>
       <c r="C422" s="1"/>
@@ -13004,7 +13070,7 @@
       <c r="AA422" s="26"/>
       <c r="AB422" s="26"/>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423" s="16"/>
       <c r="B423" s="16"/>
       <c r="C423" s="1"/>
@@ -13034,7 +13100,7 @@
       <c r="AA423" s="26"/>
       <c r="AB423" s="26"/>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424" s="16"/>
       <c r="B424" s="16"/>
       <c r="C424" s="1"/>
@@ -13064,7 +13130,7 @@
       <c r="AA424" s="26"/>
       <c r="AB424" s="26"/>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425" s="16"/>
       <c r="B425" s="16"/>
       <c r="C425" s="1"/>
@@ -13094,7 +13160,7 @@
       <c r="AA425" s="26"/>
       <c r="AB425" s="26"/>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426" s="16"/>
       <c r="B426" s="16"/>
       <c r="C426" s="1"/>
@@ -13124,7 +13190,7 @@
       <c r="AA426" s="26"/>
       <c r="AB426" s="26"/>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427" s="16"/>
       <c r="B427" s="16"/>
       <c r="C427" s="1"/>
@@ -13154,7 +13220,7 @@
       <c r="AA427" s="26"/>
       <c r="AB427" s="26"/>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428" s="16"/>
       <c r="B428" s="16"/>
       <c r="C428" s="1"/>
@@ -13184,7 +13250,7 @@
       <c r="AA428" s="26"/>
       <c r="AB428" s="26"/>
     </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429" s="16"/>
       <c r="B429" s="16"/>
       <c r="C429" s="1"/>
@@ -13214,7 +13280,7 @@
       <c r="AA429" s="26"/>
       <c r="AB429" s="26"/>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430" s="16"/>
       <c r="B430" s="16"/>
       <c r="C430" s="1"/>
@@ -13244,7 +13310,7 @@
       <c r="AA430" s="26"/>
       <c r="AB430" s="26"/>
     </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431" s="16"/>
       <c r="B431" s="16"/>
       <c r="C431" s="1"/>
@@ -13274,7 +13340,7 @@
       <c r="AA431" s="26"/>
       <c r="AB431" s="26"/>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432" s="16"/>
       <c r="B432" s="16"/>
       <c r="C432" s="1"/>
@@ -13304,7 +13370,7 @@
       <c r="AA432" s="26"/>
       <c r="AB432" s="26"/>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433" s="16"/>
       <c r="B433" s="16"/>
       <c r="C433" s="1"/>
@@ -13334,7 +13400,7 @@
       <c r="AA433" s="26"/>
       <c r="AB433" s="26"/>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434" s="16"/>
       <c r="B434" s="16"/>
       <c r="C434" s="1"/>
@@ -13364,7 +13430,7 @@
       <c r="AA434" s="26"/>
       <c r="AB434" s="26"/>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435" s="16"/>
       <c r="B435" s="16"/>
       <c r="C435" s="1"/>
@@ -13394,7 +13460,7 @@
       <c r="AA435" s="26"/>
       <c r="AB435" s="26"/>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436" s="16"/>
       <c r="B436" s="16"/>
       <c r="C436" s="1"/>
@@ -13424,7 +13490,7 @@
       <c r="AA436" s="26"/>
       <c r="AB436" s="26"/>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437" s="16"/>
       <c r="B437" s="16"/>
       <c r="C437" s="1"/>
@@ -13454,7 +13520,7 @@
       <c r="AA437" s="26"/>
       <c r="AB437" s="26"/>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438" s="16"/>
       <c r="B438" s="16"/>
       <c r="C438" s="1"/>
@@ -13484,7 +13550,7 @@
       <c r="AA438" s="26"/>
       <c r="AB438" s="26"/>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439" s="16"/>
       <c r="B439" s="16"/>
       <c r="C439" s="1"/>
@@ -13514,7 +13580,7 @@
       <c r="AA439" s="26"/>
       <c r="AB439" s="26"/>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440" s="16"/>
       <c r="B440" s="16"/>
       <c r="C440" s="1"/>
@@ -13544,7 +13610,7 @@
       <c r="AA440" s="26"/>
       <c r="AB440" s="26"/>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441" s="16"/>
       <c r="B441" s="16"/>
       <c r="C441" s="1"/>
@@ -13574,7 +13640,7 @@
       <c r="AA441" s="26"/>
       <c r="AB441" s="26"/>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442" s="16"/>
       <c r="B442" s="16"/>
       <c r="C442" s="1"/>
@@ -13604,7 +13670,7 @@
       <c r="AA442" s="26"/>
       <c r="AB442" s="26"/>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443" s="16"/>
       <c r="B443" s="16"/>
       <c r="C443" s="1"/>
@@ -13634,7 +13700,7 @@
       <c r="AA443" s="26"/>
       <c r="AB443" s="26"/>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444" s="16"/>
       <c r="B444" s="16"/>
       <c r="C444" s="1"/>
@@ -13664,7 +13730,7 @@
       <c r="AA444" s="26"/>
       <c r="AB444" s="26"/>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445" s="16"/>
       <c r="B445" s="16"/>
       <c r="C445" s="1"/>
@@ -13694,7 +13760,7 @@
       <c r="AA445" s="26"/>
       <c r="AB445" s="26"/>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446" s="16"/>
       <c r="B446" s="16"/>
       <c r="C446" s="1"/>
@@ -13724,7 +13790,7 @@
       <c r="AA446" s="26"/>
       <c r="AB446" s="26"/>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447" s="16"/>
       <c r="B447" s="16"/>
       <c r="C447" s="1"/>
@@ -13754,7 +13820,7 @@
       <c r="AA447" s="26"/>
       <c r="AB447" s="26"/>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448" s="16"/>
       <c r="B448" s="16"/>
       <c r="C448" s="1"/>
@@ -13784,7 +13850,7 @@
       <c r="AA448" s="26"/>
       <c r="AB448" s="26"/>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449" s="16"/>
       <c r="B449" s="16"/>
       <c r="C449" s="1"/>
@@ -13814,7 +13880,7 @@
       <c r="AA449" s="26"/>
       <c r="AB449" s="26"/>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450" s="16"/>
       <c r="B450" s="16"/>
       <c r="C450" s="1"/>
@@ -13844,7 +13910,7 @@
       <c r="AA450" s="26"/>
       <c r="AB450" s="26"/>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451" s="16"/>
       <c r="B451" s="16"/>
       <c r="C451" s="1"/>
@@ -13874,7 +13940,7 @@
       <c r="AA451" s="26"/>
       <c r="AB451" s="26"/>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452" s="16"/>
       <c r="B452" s="16"/>
       <c r="C452" s="1"/>
@@ -13904,7 +13970,7 @@
       <c r="AA452" s="26"/>
       <c r="AB452" s="26"/>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453" s="16"/>
       <c r="B453" s="16"/>
       <c r="C453" s="1"/>
@@ -13934,7 +14000,7 @@
       <c r="AA453" s="26"/>
       <c r="AB453" s="26"/>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454" s="16"/>
       <c r="B454" s="16"/>
       <c r="C454" s="1"/>
@@ -13964,7 +14030,7 @@
       <c r="AA454" s="26"/>
       <c r="AB454" s="26"/>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455" s="16"/>
       <c r="B455" s="16"/>
       <c r="C455" s="1"/>
@@ -13994,7 +14060,7 @@
       <c r="AA455" s="26"/>
       <c r="AB455" s="26"/>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456" s="16"/>
       <c r="B456" s="16"/>
       <c r="C456" s="1"/>
@@ -14024,7 +14090,7 @@
       <c r="AA456" s="26"/>
       <c r="AB456" s="26"/>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457" s="16"/>
       <c r="B457" s="16"/>
       <c r="C457" s="1"/>
@@ -14054,7 +14120,7 @@
       <c r="AA457" s="26"/>
       <c r="AB457" s="26"/>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458" s="16"/>
       <c r="B458" s="16"/>
       <c r="C458" s="1"/>
@@ -14084,7 +14150,7 @@
       <c r="AA458" s="26"/>
       <c r="AB458" s="26"/>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459" s="16"/>
       <c r="B459" s="16"/>
       <c r="C459" s="1"/>
@@ -14114,7 +14180,7 @@
       <c r="AA459" s="26"/>
       <c r="AB459" s="26"/>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A460" s="16"/>
       <c r="B460" s="16"/>
       <c r="C460" s="1"/>
@@ -14144,7 +14210,7 @@
       <c r="AA460" s="26"/>
       <c r="AB460" s="26"/>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461" s="16"/>
       <c r="B461" s="16"/>
       <c r="C461" s="1"/>
@@ -14174,7 +14240,7 @@
       <c r="AA461" s="26"/>
       <c r="AB461" s="26"/>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462" s="16"/>
       <c r="B462" s="16"/>
       <c r="C462" s="1"/>
@@ -14204,7 +14270,7 @@
       <c r="AA462" s="26"/>
       <c r="AB462" s="26"/>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463" s="16"/>
       <c r="B463" s="16"/>
       <c r="C463" s="1"/>
@@ -14234,7 +14300,7 @@
       <c r="AA463" s="26"/>
       <c r="AB463" s="26"/>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A464" s="16"/>
       <c r="B464" s="16"/>
       <c r="C464" s="1"/>
@@ -14264,7 +14330,7 @@
       <c r="AA464" s="26"/>
       <c r="AB464" s="26"/>
     </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A465" s="16"/>
       <c r="B465" s="16"/>
       <c r="C465" s="1"/>
@@ -14294,7 +14360,7 @@
       <c r="AA465" s="26"/>
       <c r="AB465" s="26"/>
     </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A466" s="16"/>
       <c r="B466" s="16"/>
       <c r="C466" s="1"/>
@@ -14324,7 +14390,7 @@
       <c r="AA466" s="26"/>
       <c r="AB466" s="26"/>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A467" s="16"/>
       <c r="B467" s="16"/>
       <c r="C467" s="1"/>
@@ -14354,7 +14420,7 @@
       <c r="AA467" s="26"/>
       <c r="AB467" s="26"/>
     </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A468" s="16"/>
       <c r="B468" s="16"/>
       <c r="C468" s="1"/>
@@ -14384,7 +14450,7 @@
       <c r="AA468" s="26"/>
       <c r="AB468" s="26"/>
     </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A469" s="16"/>
       <c r="B469" s="16"/>
       <c r="C469" s="1"/>
@@ -14414,7 +14480,7 @@
       <c r="AA469" s="26"/>
       <c r="AB469" s="26"/>
     </row>
-    <row r="470" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A470" s="16"/>
       <c r="B470" s="16"/>
       <c r="C470" s="1"/>
@@ -14444,7 +14510,7 @@
       <c r="AA470" s="26"/>
       <c r="AB470" s="26"/>
     </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A471" s="16"/>
       <c r="B471" s="16"/>
       <c r="C471" s="1"/>
@@ -14474,7 +14540,7 @@
       <c r="AA471" s="26"/>
       <c r="AB471" s="26"/>
     </row>
-    <row r="472" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A472" s="16"/>
       <c r="B472" s="16"/>
       <c r="C472" s="1"/>
@@ -14504,7 +14570,7 @@
       <c r="AA472" s="26"/>
       <c r="AB472" s="26"/>
     </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A473" s="16"/>
       <c r="B473" s="16"/>
       <c r="C473" s="1"/>
@@ -14534,7 +14600,7 @@
       <c r="AA473" s="26"/>
       <c r="AB473" s="26"/>
     </row>
-    <row r="474" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A474" s="16"/>
       <c r="B474" s="16"/>
       <c r="C474" s="1"/>
@@ -14564,7 +14630,7 @@
       <c r="AA474" s="26"/>
       <c r="AB474" s="26"/>
     </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A475" s="16"/>
       <c r="B475" s="16"/>
       <c r="C475" s="1"/>
@@ -14594,7 +14660,7 @@
       <c r="AA475" s="26"/>
       <c r="AB475" s="26"/>
     </row>
-    <row r="476" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A476" s="16"/>
       <c r="B476" s="16"/>
       <c r="C476" s="1"/>
@@ -14624,7 +14690,7 @@
       <c r="AA476" s="26"/>
       <c r="AB476" s="26"/>
     </row>
-    <row r="477" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A477" s="16"/>
       <c r="B477" s="16"/>
       <c r="C477" s="1"/>
@@ -14654,7 +14720,7 @@
       <c r="AA477" s="26"/>
       <c r="AB477" s="26"/>
     </row>
-    <row r="478" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A478" s="16"/>
       <c r="B478" s="16"/>
       <c r="C478" s="1"/>
@@ -14684,7 +14750,7 @@
       <c r="AA478" s="26"/>
       <c r="AB478" s="26"/>
     </row>
-    <row r="479" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A479" s="16"/>
       <c r="B479" s="16"/>
       <c r="C479" s="1"/>
@@ -14714,7 +14780,7 @@
       <c r="AA479" s="26"/>
       <c r="AB479" s="26"/>
     </row>
-    <row r="480" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A480" s="16"/>
       <c r="B480" s="16"/>
       <c r="C480" s="1"/>
@@ -14744,7 +14810,7 @@
       <c r="AA480" s="26"/>
       <c r="AB480" s="26"/>
     </row>
-    <row r="481" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A481" s="16"/>
       <c r="B481" s="16"/>
       <c r="C481" s="1"/>
@@ -14774,7 +14840,7 @@
       <c r="AA481" s="26"/>
       <c r="AB481" s="26"/>
     </row>
-    <row r="482" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A482" s="16"/>
       <c r="B482" s="16"/>
       <c r="C482" s="1"/>
@@ -14804,7 +14870,7 @@
       <c r="AA482" s="26"/>
       <c r="AB482" s="26"/>
     </row>
-    <row r="483" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A483" s="16"/>
       <c r="B483" s="16"/>
       <c r="C483" s="1"/>
@@ -14834,7 +14900,7 @@
       <c r="AA483" s="26"/>
       <c r="AB483" s="26"/>
     </row>
-    <row r="484" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A484" s="16"/>
       <c r="B484" s="16"/>
       <c r="C484" s="1"/>
@@ -14864,7 +14930,7 @@
       <c r="AA484" s="26"/>
       <c r="AB484" s="26"/>
     </row>
-    <row r="485" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A485" s="16"/>
       <c r="B485" s="16"/>
       <c r="C485" s="1"/>
@@ -14894,7 +14960,7 @@
       <c r="AA485" s="26"/>
       <c r="AB485" s="26"/>
     </row>
-    <row r="486" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A486" s="16"/>
       <c r="B486" s="16"/>
       <c r="C486" s="1"/>
@@ -14924,7 +14990,7 @@
       <c r="AA486" s="26"/>
       <c r="AB486" s="26"/>
     </row>
-    <row r="487" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A487" s="16"/>
       <c r="B487" s="16"/>
       <c r="C487" s="1"/>
@@ -14954,7 +15020,7 @@
       <c r="AA487" s="26"/>
       <c r="AB487" s="26"/>
     </row>
-    <row r="488" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A488" s="16"/>
       <c r="B488" s="16"/>
       <c r="C488" s="1"/>
@@ -14984,7 +15050,7 @@
       <c r="AA488" s="26"/>
       <c r="AB488" s="26"/>
     </row>
-    <row r="489" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A489" s="16"/>
       <c r="B489" s="16"/>
       <c r="C489" s="1"/>
@@ -15014,7 +15080,7 @@
       <c r="AA489" s="26"/>
       <c r="AB489" s="26"/>
     </row>
-    <row r="490" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A490" s="16"/>
       <c r="B490" s="16"/>
       <c r="C490" s="1"/>
@@ -15044,7 +15110,7 @@
       <c r="AA490" s="26"/>
       <c r="AB490" s="26"/>
     </row>
-    <row r="491" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A491" s="16"/>
       <c r="B491" s="16"/>
       <c r="C491" s="1"/>
@@ -15074,7 +15140,7 @@
       <c r="AA491" s="26"/>
       <c r="AB491" s="26"/>
     </row>
-    <row r="492" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A492" s="16"/>
       <c r="B492" s="16"/>
       <c r="C492" s="1"/>
@@ -15104,7 +15170,7 @@
       <c r="AA492" s="26"/>
       <c r="AB492" s="26"/>
     </row>
-    <row r="493" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A493" s="16"/>
       <c r="B493" s="16"/>
       <c r="C493" s="1"/>
@@ -15134,7 +15200,7 @@
       <c r="AA493" s="26"/>
       <c r="AB493" s="26"/>
     </row>
-    <row r="494" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A494" s="16"/>
       <c r="B494" s="16"/>
       <c r="C494" s="1"/>
@@ -15164,7 +15230,7 @@
       <c r="AA494" s="26"/>
       <c r="AB494" s="26"/>
     </row>
-    <row r="495" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A495" s="16"/>
       <c r="B495" s="16"/>
       <c r="C495" s="1"/>
@@ -15194,7 +15260,7 @@
       <c r="AA495" s="26"/>
       <c r="AB495" s="26"/>
     </row>
-    <row r="496" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A496" s="16"/>
       <c r="B496" s="16"/>
       <c r="C496" s="1"/>
@@ -15224,7 +15290,7 @@
       <c r="AA496" s="26"/>
       <c r="AB496" s="26"/>
     </row>
-    <row r="497" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A497" s="16"/>
       <c r="B497" s="16"/>
       <c r="C497" s="1"/>
@@ -15254,7 +15320,7 @@
       <c r="AA497" s="26"/>
       <c r="AB497" s="26"/>
     </row>
-    <row r="498" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A498" s="16"/>
       <c r="B498" s="16"/>
       <c r="C498" s="1"/>
@@ -15284,7 +15350,7 @@
       <c r="AA498" s="26"/>
       <c r="AB498" s="26"/>
     </row>
-    <row r="499" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A499" s="16"/>
       <c r="B499" s="16"/>
       <c r="C499" s="1"/>
@@ -15314,7 +15380,7 @@
       <c r="AA499" s="26"/>
       <c r="AB499" s="26"/>
     </row>
-    <row r="500" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A500" s="16"/>
       <c r="B500" s="16"/>
       <c r="C500" s="1"/>
@@ -15344,7 +15410,7 @@
       <c r="AA500" s="26"/>
       <c r="AB500" s="26"/>
     </row>
-    <row r="501" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A501" s="16"/>
       <c r="B501" s="16"/>
       <c r="C501" s="1"/>
@@ -15374,7 +15440,7 @@
       <c r="AA501" s="26"/>
       <c r="AB501" s="26"/>
     </row>
-    <row r="502" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A502" s="16"/>
       <c r="B502" s="16"/>
       <c r="C502" s="1"/>
@@ -15404,7 +15470,7 @@
       <c r="AA502" s="26"/>
       <c r="AB502" s="26"/>
     </row>
-    <row r="503" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A503" s="16"/>
       <c r="B503" s="16"/>
       <c r="C503" s="1"/>
@@ -15434,7 +15500,7 @@
       <c r="AA503" s="26"/>
       <c r="AB503" s="26"/>
     </row>
-    <row r="504" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A504" s="16"/>
       <c r="B504" s="16"/>
       <c r="C504" s="1"/>
@@ -15464,7 +15530,7 @@
       <c r="AA504" s="26"/>
       <c r="AB504" s="26"/>
     </row>
-    <row r="505" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A505" s="16"/>
       <c r="B505" s="16"/>
       <c r="C505" s="1"/>
@@ -15494,7 +15560,7 @@
       <c r="AA505" s="26"/>
       <c r="AB505" s="26"/>
     </row>
-    <row r="506" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A506" s="16"/>
       <c r="B506" s="16"/>
       <c r="C506" s="1"/>
@@ -15524,7 +15590,7 @@
       <c r="AA506" s="26"/>
       <c r="AB506" s="26"/>
     </row>
-    <row r="507" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A507" s="16"/>
       <c r="B507" s="16"/>
       <c r="C507" s="1"/>
@@ -15554,7 +15620,7 @@
       <c r="AA507" s="26"/>
       <c r="AB507" s="26"/>
     </row>
-    <row r="508" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A508" s="16"/>
       <c r="B508" s="16"/>
       <c r="C508" s="1"/>
@@ -15584,7 +15650,7 @@
       <c r="AA508" s="26"/>
       <c r="AB508" s="26"/>
     </row>
-    <row r="509" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A509" s="16"/>
       <c r="B509" s="16"/>
       <c r="C509" s="1"/>
@@ -15614,7 +15680,7 @@
       <c r="AA509" s="26"/>
       <c r="AB509" s="26"/>
     </row>
-    <row r="510" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A510" s="16"/>
       <c r="B510" s="16"/>
       <c r="C510" s="1"/>
@@ -15644,7 +15710,7 @@
       <c r="AA510" s="26"/>
       <c r="AB510" s="26"/>
     </row>
-    <row r="511" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A511" s="16"/>
       <c r="B511" s="16"/>
       <c r="C511" s="1"/>
@@ -15674,7 +15740,7 @@
       <c r="AA511" s="26"/>
       <c r="AB511" s="26"/>
     </row>
-    <row r="512" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A512" s="16"/>
       <c r="B512" s="16"/>
       <c r="C512" s="1"/>
@@ -15704,7 +15770,7 @@
       <c r="AA512" s="26"/>
       <c r="AB512" s="26"/>
     </row>
-    <row r="513" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A513" s="16"/>
       <c r="B513" s="16"/>
       <c r="C513" s="1"/>
@@ -15734,7 +15800,7 @@
       <c r="AA513" s="26"/>
       <c r="AB513" s="26"/>
     </row>
-    <row r="514" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A514" s="16"/>
       <c r="B514" s="16"/>
       <c r="C514" s="1"/>
@@ -15764,7 +15830,7 @@
       <c r="AA514" s="26"/>
       <c r="AB514" s="26"/>
     </row>
-    <row r="515" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A515" s="16"/>
       <c r="B515" s="16"/>
       <c r="C515" s="1"/>
@@ -15794,7 +15860,7 @@
       <c r="AA515" s="26"/>
       <c r="AB515" s="26"/>
     </row>
-    <row r="516" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A516" s="16"/>
       <c r="B516" s="16"/>
       <c r="C516" s="1"/>
@@ -15824,7 +15890,7 @@
       <c r="AA516" s="26"/>
       <c r="AB516" s="26"/>
     </row>
-    <row r="517" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A517" s="16"/>
       <c r="B517" s="16"/>
       <c r="C517" s="1"/>
@@ -15854,7 +15920,7 @@
       <c r="AA517" s="26"/>
       <c r="AB517" s="26"/>
     </row>
-    <row r="518" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A518" s="16"/>
       <c r="B518" s="16"/>
       <c r="C518" s="1"/>
@@ -15884,7 +15950,7 @@
       <c r="AA518" s="26"/>
       <c r="AB518" s="26"/>
     </row>
-    <row r="519" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A519" s="16"/>
       <c r="B519" s="16"/>
       <c r="C519" s="1"/>
@@ -15914,7 +15980,7 @@
       <c r="AA519" s="26"/>
       <c r="AB519" s="26"/>
     </row>
-    <row r="520" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A520" s="16"/>
       <c r="B520" s="16"/>
       <c r="C520" s="1"/>
@@ -15944,7 +16010,7 @@
       <c r="AA520" s="26"/>
       <c r="AB520" s="26"/>
     </row>
-    <row r="521" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A521" s="16"/>
       <c r="B521" s="16"/>
       <c r="C521" s="1"/>
@@ -15974,7 +16040,7 @@
       <c r="AA521" s="26"/>
       <c r="AB521" s="26"/>
     </row>
-    <row r="522" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A522" s="16"/>
       <c r="B522" s="16"/>
       <c r="C522" s="1"/>
@@ -16004,7 +16070,7 @@
       <c r="AA522" s="26"/>
       <c r="AB522" s="26"/>
     </row>
-    <row r="523" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A523" s="16"/>
       <c r="B523" s="16"/>
       <c r="C523" s="1"/>
@@ -16034,7 +16100,7 @@
       <c r="AA523" s="26"/>
       <c r="AB523" s="26"/>
     </row>
-    <row r="524" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A524" s="16"/>
       <c r="B524" s="16"/>
       <c r="C524" s="1"/>
@@ -16064,7 +16130,7 @@
       <c r="AA524" s="26"/>
       <c r="AB524" s="26"/>
     </row>
-    <row r="525" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>
       <c r="B525" s="16"/>
       <c r="C525" s="1"/>
@@ -16094,7 +16160,7 @@
       <c r="AA525" s="26"/>
       <c r="AB525" s="26"/>
     </row>
-    <row r="526" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A526" s="16"/>
       <c r="B526" s="16"/>
       <c r="C526" s="1"/>
@@ -16124,7 +16190,7 @@
       <c r="AA526" s="26"/>
       <c r="AB526" s="26"/>
     </row>
-    <row r="527" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A527" s="16"/>
       <c r="B527" s="16"/>
       <c r="C527" s="1"/>
@@ -16154,7 +16220,7 @@
       <c r="AA527" s="26"/>
       <c r="AB527" s="26"/>
     </row>
-    <row r="528" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A528" s="16"/>
       <c r="B528" s="16"/>
       <c r="C528" s="1"/>
@@ -16184,7 +16250,7 @@
       <c r="AA528" s="26"/>
       <c r="AB528" s="26"/>
     </row>
-    <row r="529" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A529" s="16"/>
       <c r="B529" s="16"/>
       <c r="C529" s="1"/>
@@ -16214,7 +16280,7 @@
       <c r="AA529" s="26"/>
       <c r="AB529" s="26"/>
     </row>
-    <row r="530" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A530" s="16"/>
       <c r="B530" s="16"/>
       <c r="C530" s="1"/>
@@ -16244,7 +16310,7 @@
       <c r="AA530" s="26"/>
       <c r="AB530" s="26"/>
     </row>
-    <row r="531" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A531" s="16"/>
       <c r="B531" s="16"/>
       <c r="C531" s="1"/>
@@ -16274,7 +16340,7 @@
       <c r="AA531" s="26"/>
       <c r="AB531" s="26"/>
     </row>
-    <row r="532" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A532" s="16"/>
       <c r="B532" s="16"/>
       <c r="C532" s="1"/>
@@ -16304,7 +16370,7 @@
       <c r="AA532" s="26"/>
       <c r="AB532" s="26"/>
     </row>
-    <row r="533" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A533" s="16"/>
       <c r="B533" s="16"/>
       <c r="C533" s="1"/>
@@ -16334,7 +16400,7 @@
       <c r="AA533" s="26"/>
       <c r="AB533" s="26"/>
     </row>
-    <row r="534" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A534" s="16"/>
       <c r="B534" s="16"/>
       <c r="C534" s="1"/>
@@ -16364,7 +16430,7 @@
       <c r="AA534" s="26"/>
       <c r="AB534" s="26"/>
     </row>
-    <row r="535" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A535" s="16"/>
       <c r="B535" s="16"/>
       <c r="C535" s="1"/>
@@ -16394,7 +16460,7 @@
       <c r="AA535" s="26"/>
       <c r="AB535" s="26"/>
     </row>
-    <row r="536" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A536" s="16"/>
       <c r="B536" s="16"/>
       <c r="C536" s="1"/>
@@ -16424,7 +16490,7 @@
       <c r="AA536" s="26"/>
       <c r="AB536" s="26"/>
     </row>
-    <row r="537" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A537" s="16"/>
       <c r="B537" s="16"/>
       <c r="C537" s="1"/>
@@ -16454,7 +16520,7 @@
       <c r="AA537" s="26"/>
       <c r="AB537" s="26"/>
     </row>
-    <row r="538" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A538" s="16"/>
       <c r="B538" s="16"/>
       <c r="C538" s="1"/>
@@ -16484,7 +16550,7 @@
       <c r="AA538" s="26"/>
       <c r="AB538" s="26"/>
     </row>
-    <row r="539" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A539" s="16"/>
       <c r="B539" s="16"/>
       <c r="C539" s="1"/>
@@ -16514,7 +16580,7 @@
       <c r="AA539" s="26"/>
       <c r="AB539" s="26"/>
     </row>
-    <row r="540" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A540" s="16"/>
       <c r="B540" s="16"/>
       <c r="C540" s="1"/>
@@ -16544,7 +16610,7 @@
       <c r="AA540" s="26"/>
       <c r="AB540" s="26"/>
     </row>
-    <row r="541" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A541" s="16"/>
       <c r="B541" s="16"/>
       <c r="C541" s="1"/>
@@ -16574,7 +16640,7 @@
       <c r="AA541" s="26"/>
       <c r="AB541" s="26"/>
     </row>
-    <row r="542" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A542" s="16"/>
       <c r="B542" s="16"/>
       <c r="C542" s="1"/>
@@ -16604,7 +16670,7 @@
       <c r="AA542" s="26"/>
       <c r="AB542" s="26"/>
     </row>
-    <row r="543" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A543" s="16"/>
       <c r="B543" s="16"/>
       <c r="C543" s="1"/>
@@ -16634,7 +16700,7 @@
       <c r="AA543" s="26"/>
       <c r="AB543" s="26"/>
     </row>
-    <row r="544" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A544" s="16"/>
       <c r="B544" s="16"/>
       <c r="C544" s="1"/>
@@ -16664,7 +16730,7 @@
       <c r="AA544" s="26"/>
       <c r="AB544" s="26"/>
     </row>
-    <row r="545" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A545" s="16"/>
       <c r="B545" s="16"/>
       <c r="C545" s="1"/>
@@ -16694,7 +16760,7 @@
       <c r="AA545" s="26"/>
       <c r="AB545" s="26"/>
     </row>
-    <row r="546" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A546" s="16"/>
       <c r="B546" s="16"/>
       <c r="C546" s="1"/>
@@ -16724,7 +16790,7 @@
       <c r="AA546" s="26"/>
       <c r="AB546" s="26"/>
     </row>
-    <row r="547" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A547" s="16"/>
       <c r="B547" s="16"/>
       <c r="C547" s="1"/>
@@ -16754,7 +16820,7 @@
       <c r="AA547" s="26"/>
       <c r="AB547" s="26"/>
     </row>
-    <row r="548" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A548" s="16"/>
       <c r="B548" s="16"/>
       <c r="C548" s="1"/>
@@ -16784,7 +16850,7 @@
       <c r="AA548" s="26"/>
       <c r="AB548" s="26"/>
     </row>
-    <row r="549" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A549" s="16"/>
       <c r="B549" s="16"/>
       <c r="C549" s="1"/>
@@ -16814,7 +16880,7 @@
       <c r="AA549" s="26"/>
       <c r="AB549" s="26"/>
     </row>
-    <row r="550" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A550" s="16"/>
       <c r="B550" s="16"/>
       <c r="C550" s="1"/>
@@ -16844,7 +16910,7 @@
       <c r="AA550" s="26"/>
       <c r="AB550" s="26"/>
     </row>
-    <row r="551" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A551" s="16"/>
       <c r="B551" s="16"/>
       <c r="C551" s="1"/>
@@ -16874,7 +16940,7 @@
       <c r="AA551" s="26"/>
       <c r="AB551" s="26"/>
     </row>
-    <row r="552" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A552" s="16"/>
       <c r="B552" s="16"/>
       <c r="C552" s="1"/>
@@ -16904,7 +16970,7 @@
       <c r="AA552" s="26"/>
       <c r="AB552" s="26"/>
     </row>
-    <row r="553" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A553" s="16"/>
       <c r="B553" s="16"/>
       <c r="C553" s="1"/>
@@ -16934,7 +17000,7 @@
       <c r="AA553" s="26"/>
       <c r="AB553" s="26"/>
     </row>
-    <row r="554" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A554" s="16"/>
       <c r="B554" s="16"/>
       <c r="C554" s="1"/>
@@ -16964,7 +17030,7 @@
       <c r="AA554" s="26"/>
       <c r="AB554" s="26"/>
     </row>
-    <row r="555" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A555" s="16"/>
       <c r="B555" s="16"/>
       <c r="C555" s="1"/>
@@ -16994,7 +17060,7 @@
       <c r="AA555" s="26"/>
       <c r="AB555" s="26"/>
     </row>
-    <row r="556" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A556" s="16"/>
       <c r="B556" s="16"/>
       <c r="C556" s="1"/>
@@ -17024,7 +17090,7 @@
       <c r="AA556" s="26"/>
       <c r="AB556" s="26"/>
     </row>
-    <row r="557" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A557" s="16"/>
       <c r="B557" s="16"/>
       <c r="C557" s="1"/>
@@ -17054,7 +17120,7 @@
       <c r="AA557" s="26"/>
       <c r="AB557" s="26"/>
     </row>
-    <row r="558" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A558" s="16"/>
       <c r="B558" s="16"/>
       <c r="C558" s="1"/>
@@ -17084,7 +17150,7 @@
       <c r="AA558" s="26"/>
       <c r="AB558" s="26"/>
     </row>
-    <row r="559" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A559" s="16"/>
       <c r="B559" s="16"/>
       <c r="C559" s="1"/>
@@ -17114,7 +17180,7 @@
       <c r="AA559" s="26"/>
       <c r="AB559" s="26"/>
     </row>
-    <row r="560" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A560" s="16"/>
       <c r="B560" s="16"/>
       <c r="C560" s="1"/>
@@ -17144,7 +17210,7 @@
       <c r="AA560" s="26"/>
       <c r="AB560" s="26"/>
     </row>
-    <row r="561" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A561" s="16"/>
       <c r="B561" s="16"/>
       <c r="C561" s="1"/>
@@ -17174,7 +17240,7 @@
       <c r="AA561" s="26"/>
       <c r="AB561" s="26"/>
     </row>
-    <row r="562" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A562" s="16"/>
       <c r="B562" s="16"/>
       <c r="C562" s="1"/>
@@ -17204,7 +17270,7 @@
       <c r="AA562" s="26"/>
       <c r="AB562" s="26"/>
     </row>
-    <row r="563" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A563" s="16"/>
       <c r="B563" s="16"/>
       <c r="C563" s="1"/>
@@ -17234,7 +17300,7 @@
       <c r="AA563" s="26"/>
       <c r="AB563" s="26"/>
     </row>
-    <row r="564" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A564" s="16"/>
       <c r="B564" s="16"/>
       <c r="C564" s="1"/>
@@ -17264,7 +17330,7 @@
       <c r="AA564" s="26"/>
       <c r="AB564" s="26"/>
     </row>
-    <row r="565" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A565" s="16"/>
       <c r="B565" s="16"/>
       <c r="C565" s="1"/>
@@ -17294,7 +17360,7 @@
       <c r="AA565" s="26"/>
       <c r="AB565" s="26"/>
     </row>
-    <row r="566" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A566" s="16"/>
       <c r="B566" s="16"/>
       <c r="C566" s="1"/>
@@ -17324,7 +17390,7 @@
       <c r="AA566" s="26"/>
       <c r="AB566" s="26"/>
     </row>
-    <row r="567" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A567" s="16"/>
       <c r="B567" s="16"/>
       <c r="C567" s="1"/>
@@ -17354,7 +17420,7 @@
       <c r="AA567" s="26"/>
       <c r="AB567" s="26"/>
     </row>
-    <row r="568" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A568" s="16"/>
       <c r="B568" s="16"/>
       <c r="C568" s="1"/>
@@ -17384,7 +17450,7 @@
       <c r="AA568" s="26"/>
       <c r="AB568" s="26"/>
     </row>
-    <row r="569" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A569" s="16"/>
       <c r="B569" s="16"/>
       <c r="C569" s="1"/>
@@ -17414,7 +17480,7 @@
       <c r="AA569" s="26"/>
       <c r="AB569" s="26"/>
     </row>
-    <row r="570" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A570" s="16"/>
       <c r="B570" s="16"/>
       <c r="C570" s="1"/>
@@ -17444,7 +17510,7 @@
       <c r="AA570" s="26"/>
       <c r="AB570" s="26"/>
     </row>
-    <row r="571" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A571" s="16"/>
       <c r="B571" s="16"/>
       <c r="C571" s="1"/>
@@ -17474,7 +17540,7 @@
       <c r="AA571" s="26"/>
       <c r="AB571" s="26"/>
     </row>
-    <row r="572" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A572" s="16"/>
       <c r="B572" s="16"/>
       <c r="C572" s="1"/>
@@ -17504,7 +17570,7 @@
       <c r="AA572" s="26"/>
       <c r="AB572" s="26"/>
     </row>
-    <row r="573" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A573" s="16"/>
       <c r="B573" s="16"/>
       <c r="C573" s="1"/>
@@ -17534,7 +17600,7 @@
       <c r="AA573" s="26"/>
       <c r="AB573" s="26"/>
     </row>
-    <row r="574" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A574" s="16"/>
       <c r="B574" s="16"/>
       <c r="C574" s="1"/>
@@ -17564,7 +17630,7 @@
       <c r="AA574" s="26"/>
       <c r="AB574" s="26"/>
     </row>
-    <row r="575" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A575" s="16"/>
       <c r="B575" s="16"/>
       <c r="C575" s="1"/>
@@ -17594,7 +17660,7 @@
       <c r="AA575" s="26"/>
       <c r="AB575" s="26"/>
     </row>
-    <row r="576" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A576" s="16"/>
       <c r="B576" s="16"/>
       <c r="C576" s="1"/>
@@ -17624,7 +17690,7 @@
       <c r="AA576" s="26"/>
       <c r="AB576" s="26"/>
     </row>
-    <row r="577" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A577" s="16"/>
       <c r="B577" s="16"/>
       <c r="C577" s="1"/>
@@ -17654,7 +17720,7 @@
       <c r="AA577" s="26"/>
       <c r="AB577" s="26"/>
     </row>
-    <row r="578" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A578" s="16"/>
       <c r="B578" s="16"/>
       <c r="C578" s="1"/>
@@ -17684,7 +17750,7 @@
       <c r="AA578" s="26"/>
       <c r="AB578" s="26"/>
     </row>
-    <row r="579" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A579" s="16"/>
       <c r="B579" s="16"/>
       <c r="C579" s="1"/>
@@ -17714,7 +17780,7 @@
       <c r="AA579" s="26"/>
       <c r="AB579" s="26"/>
     </row>
-    <row r="580" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A580" s="16"/>
       <c r="B580" s="16"/>
       <c r="C580" s="1"/>
@@ -17744,7 +17810,7 @@
       <c r="AA580" s="26"/>
       <c r="AB580" s="26"/>
     </row>
-    <row r="581" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A581" s="16"/>
       <c r="B581" s="16"/>
       <c r="C581" s="1"/>
@@ -17774,7 +17840,7 @@
       <c r="AA581" s="26"/>
       <c r="AB581" s="26"/>
     </row>
-    <row r="582" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A582" s="16"/>
       <c r="B582" s="16"/>
       <c r="C582" s="1"/>
@@ -17804,7 +17870,7 @@
       <c r="AA582" s="26"/>
       <c r="AB582" s="26"/>
     </row>
-    <row r="583" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A583" s="16"/>
       <c r="B583" s="16"/>
       <c r="C583" s="1"/>
@@ -17834,7 +17900,7 @@
       <c r="AA583" s="26"/>
       <c r="AB583" s="26"/>
     </row>
-    <row r="584" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A584" s="16"/>
       <c r="B584" s="16"/>
       <c r="C584" s="1"/>
@@ -17864,7 +17930,7 @@
       <c r="AA584" s="26"/>
       <c r="AB584" s="26"/>
     </row>
-    <row r="585" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A585" s="16"/>
       <c r="B585" s="16"/>
       <c r="C585" s="1"/>
@@ -17894,7 +17960,7 @@
       <c r="AA585" s="26"/>
       <c r="AB585" s="26"/>
     </row>
-    <row r="586" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A586" s="16"/>
       <c r="B586" s="16"/>
       <c r="C586" s="1"/>
@@ -17924,7 +17990,7 @@
       <c r="AA586" s="26"/>
       <c r="AB586" s="26"/>
     </row>
-    <row r="587" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A587" s="16"/>
       <c r="B587" s="16"/>
       <c r="C587" s="1"/>
@@ -17954,7 +18020,7 @@
       <c r="AA587" s="26"/>
       <c r="AB587" s="26"/>
     </row>
-    <row r="588" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A588" s="16"/>
       <c r="B588" s="16"/>
       <c r="C588" s="1"/>
@@ -17984,7 +18050,7 @@
       <c r="AA588" s="26"/>
       <c r="AB588" s="26"/>
     </row>
-    <row r="589" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A589" s="16"/>
       <c r="B589" s="16"/>
       <c r="C589" s="1"/>
@@ -18014,7 +18080,7 @@
       <c r="AA589" s="26"/>
       <c r="AB589" s="26"/>
     </row>
-    <row r="590" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A590" s="16"/>
       <c r="B590" s="16"/>
       <c r="C590" s="1"/>
@@ -18044,7 +18110,7 @@
       <c r="AA590" s="26"/>
       <c r="AB590" s="26"/>
     </row>
-    <row r="591" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A591" s="16"/>
       <c r="B591" s="16"/>
       <c r="C591" s="1"/>
@@ -18074,7 +18140,7 @@
       <c r="AA591" s="26"/>
       <c r="AB591" s="26"/>
     </row>
-    <row r="592" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A592" s="16"/>
       <c r="B592" s="16"/>
       <c r="C592" s="1"/>
@@ -18104,7 +18170,7 @@
       <c r="AA592" s="26"/>
       <c r="AB592" s="26"/>
     </row>
-    <row r="593" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A593" s="16"/>
       <c r="B593" s="16"/>
       <c r="C593" s="1"/>
@@ -18134,7 +18200,7 @@
       <c r="AA593" s="26"/>
       <c r="AB593" s="26"/>
     </row>
-    <row r="594" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A594" s="16"/>
       <c r="B594" s="16"/>
       <c r="C594" s="1"/>
@@ -18164,7 +18230,7 @@
       <c r="AA594" s="26"/>
       <c r="AB594" s="26"/>
     </row>
-    <row r="595" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A595" s="16"/>
       <c r="B595" s="16"/>
       <c r="C595" s="1"/>
@@ -18194,7 +18260,7 @@
       <c r="AA595" s="26"/>
       <c r="AB595" s="26"/>
     </row>
-    <row r="596" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A596" s="16"/>
       <c r="B596" s="16"/>
       <c r="C596" s="1"/>
@@ -18224,7 +18290,7 @@
       <c r="AA596" s="26"/>
       <c r="AB596" s="26"/>
     </row>
-    <row r="597" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A597" s="16"/>
       <c r="B597" s="16"/>
       <c r="C597" s="1"/>
@@ -18254,7 +18320,7 @@
       <c r="AA597" s="26"/>
       <c r="AB597" s="26"/>
     </row>
-    <row r="598" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A598" s="16"/>
       <c r="B598" s="16"/>
       <c r="C598" s="1"/>
@@ -18284,7 +18350,7 @@
       <c r="AA598" s="26"/>
       <c r="AB598" s="26"/>
     </row>
-    <row r="599" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A599" s="16"/>
       <c r="B599" s="16"/>
       <c r="C599" s="1"/>
@@ -18314,7 +18380,7 @@
       <c r="AA599" s="26"/>
       <c r="AB599" s="26"/>
     </row>
-    <row r="600" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A600" s="16"/>
       <c r="B600" s="16"/>
       <c r="C600" s="1"/>
@@ -18344,7 +18410,7 @@
       <c r="AA600" s="26"/>
       <c r="AB600" s="26"/>
     </row>
-    <row r="601" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A601" s="16"/>
       <c r="B601" s="16"/>
       <c r="C601" s="1"/>
@@ -18374,7 +18440,7 @@
       <c r="AA601" s="26"/>
       <c r="AB601" s="26"/>
     </row>
-    <row r="602" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A602" s="16"/>
       <c r="B602" s="16"/>
       <c r="C602" s="1"/>
@@ -18404,7 +18470,7 @@
       <c r="AA602" s="26"/>
       <c r="AB602" s="26"/>
     </row>
-    <row r="603" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A603" s="16"/>
       <c r="B603" s="16"/>
       <c r="C603" s="1"/>
@@ -18434,7 +18500,7 @@
       <c r="AA603" s="26"/>
       <c r="AB603" s="26"/>
     </row>
-    <row r="604" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A604" s="16"/>
       <c r="B604" s="16"/>
       <c r="C604" s="1"/>
@@ -18464,7 +18530,7 @@
       <c r="AA604" s="26"/>
       <c r="AB604" s="26"/>
     </row>
-    <row r="605" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A605" s="16"/>
       <c r="B605" s="16"/>
       <c r="C605" s="1"/>
@@ -18494,7 +18560,7 @@
       <c r="AA605" s="26"/>
       <c r="AB605" s="26"/>
     </row>
-    <row r="606" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A606" s="16"/>
       <c r="B606" s="16"/>
       <c r="C606" s="1"/>
@@ -18524,7 +18590,7 @@
       <c r="AA606" s="26"/>
       <c r="AB606" s="26"/>
     </row>
-    <row r="607" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A607" s="16"/>
       <c r="B607" s="16"/>
       <c r="C607" s="1"/>
@@ -18554,7 +18620,7 @@
       <c r="AA607" s="26"/>
       <c r="AB607" s="26"/>
     </row>
-    <row r="608" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A608" s="16"/>
       <c r="B608" s="16"/>
       <c r="C608" s="1"/>
@@ -18584,7 +18650,7 @@
       <c r="AA608" s="26"/>
       <c r="AB608" s="26"/>
     </row>
-    <row r="609" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A609" s="16"/>
       <c r="B609" s="16"/>
       <c r="C609" s="1"/>
@@ -18614,7 +18680,7 @@
       <c r="AA609" s="26"/>
       <c r="AB609" s="26"/>
     </row>
-    <row r="610" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A610" s="16"/>
       <c r="B610" s="16"/>
       <c r="C610" s="1"/>
@@ -18644,7 +18710,7 @@
       <c r="AA610" s="26"/>
       <c r="AB610" s="26"/>
     </row>
-    <row r="611" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A611" s="16"/>
       <c r="B611" s="16"/>
       <c r="C611" s="1"/>
@@ -18674,7 +18740,7 @@
       <c r="AA611" s="26"/>
       <c r="AB611" s="26"/>
     </row>
-    <row r="612" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A612" s="16"/>
       <c r="B612" s="16"/>
       <c r="C612" s="1"/>
@@ -18704,7 +18770,7 @@
       <c r="AA612" s="26"/>
       <c r="AB612" s="26"/>
     </row>
-    <row r="613" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A613" s="16"/>
       <c r="B613" s="16"/>
       <c r="C613" s="1"/>
@@ -18734,7 +18800,7 @@
       <c r="AA613" s="26"/>
       <c r="AB613" s="26"/>
     </row>
-    <row r="614" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A614" s="16"/>
       <c r="B614" s="16"/>
       <c r="C614" s="1"/>
@@ -18764,7 +18830,7 @@
       <c r="AA614" s="26"/>
       <c r="AB614" s="26"/>
     </row>
-    <row r="615" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A615" s="16"/>
       <c r="B615" s="16"/>
       <c r="C615" s="1"/>
@@ -18794,7 +18860,7 @@
       <c r="AA615" s="26"/>
       <c r="AB615" s="26"/>
     </row>
-    <row r="616" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A616" s="16"/>
       <c r="B616" s="16"/>
       <c r="C616" s="1"/>
@@ -18824,7 +18890,7 @@
       <c r="AA616" s="26"/>
       <c r="AB616" s="26"/>
     </row>
-    <row r="617" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A617" s="16"/>
       <c r="B617" s="16"/>
       <c r="C617" s="1"/>
@@ -18854,7 +18920,7 @@
       <c r="AA617" s="26"/>
       <c r="AB617" s="26"/>
     </row>
-    <row r="618" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A618" s="16"/>
       <c r="B618" s="16"/>
       <c r="C618" s="1"/>
@@ -18884,7 +18950,7 @@
       <c r="AA618" s="26"/>
       <c r="AB618" s="26"/>
     </row>
-    <row r="619" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A619" s="16"/>
       <c r="B619" s="16"/>
       <c r="C619" s="1"/>
@@ -18914,7 +18980,7 @@
       <c r="AA619" s="26"/>
       <c r="AB619" s="26"/>
     </row>
-    <row r="620" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A620" s="16"/>
       <c r="B620" s="16"/>
       <c r="C620" s="1"/>
@@ -18944,7 +19010,7 @@
       <c r="AA620" s="26"/>
       <c r="AB620" s="26"/>
     </row>
-    <row r="621" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A621" s="16"/>
       <c r="B621" s="16"/>
       <c r="C621" s="1"/>
@@ -18974,7 +19040,7 @@
       <c r="AA621" s="26"/>
       <c r="AB621" s="26"/>
     </row>
-    <row r="622" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A622" s="16"/>
       <c r="B622" s="16"/>
       <c r="C622" s="1"/>
@@ -19004,7 +19070,7 @@
       <c r="AA622" s="26"/>
       <c r="AB622" s="26"/>
     </row>
-    <row r="623" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A623" s="16"/>
       <c r="B623" s="16"/>
       <c r="C623" s="1"/>
@@ -19034,7 +19100,7 @@
       <c r="AA623" s="26"/>
       <c r="AB623" s="26"/>
     </row>
-    <row r="624" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A624" s="16"/>
       <c r="B624" s="16"/>
       <c r="C624" s="1"/>
@@ -19064,7 +19130,7 @@
       <c r="AA624" s="26"/>
       <c r="AB624" s="26"/>
     </row>
-    <row r="625" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A625" s="16"/>
       <c r="B625" s="16"/>
       <c r="C625" s="1"/>
@@ -19094,7 +19160,7 @@
       <c r="AA625" s="26"/>
       <c r="AB625" s="26"/>
     </row>
-    <row r="626" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A626" s="16"/>
       <c r="B626" s="16"/>
       <c r="C626" s="1"/>
@@ -19124,7 +19190,7 @@
       <c r="AA626" s="26"/>
       <c r="AB626" s="26"/>
     </row>
-    <row r="627" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A627" s="16"/>
       <c r="B627" s="16"/>
       <c r="C627" s="1"/>
@@ -19154,7 +19220,7 @@
       <c r="AA627" s="26"/>
       <c r="AB627" s="26"/>
     </row>
-    <row r="628" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A628" s="16"/>
       <c r="B628" s="16"/>
       <c r="C628" s="1"/>
@@ -19184,7 +19250,7 @@
       <c r="AA628" s="26"/>
       <c r="AB628" s="26"/>
     </row>
-    <row r="629" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A629" s="16"/>
       <c r="B629" s="16"/>
       <c r="C629" s="1"/>
@@ -19214,7 +19280,7 @@
       <c r="AA629" s="26"/>
       <c r="AB629" s="26"/>
     </row>
-    <row r="630" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A630" s="16"/>
       <c r="B630" s="16"/>
       <c r="C630" s="1"/>
@@ -19244,7 +19310,7 @@
       <c r="AA630" s="26"/>
       <c r="AB630" s="26"/>
     </row>
-    <row r="631" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A631" s="16"/>
       <c r="B631" s="16"/>
       <c r="C631" s="1"/>
@@ -19274,7 +19340,7 @@
       <c r="AA631" s="26"/>
       <c r="AB631" s="26"/>
     </row>
-    <row r="632" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A632" s="16"/>
       <c r="B632" s="16"/>
       <c r="C632" s="1"/>
@@ -19304,7 +19370,7 @@
       <c r="AA632" s="26"/>
       <c r="AB632" s="26"/>
     </row>
-    <row r="633" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A633" s="16"/>
       <c r="B633" s="16"/>
       <c r="C633" s="1"/>
@@ -19334,7 +19400,7 @@
       <c r="AA633" s="26"/>
       <c r="AB633" s="26"/>
     </row>
-    <row r="634" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A634" s="16"/>
       <c r="B634" s="16"/>
       <c r="C634" s="1"/>
@@ -19364,7 +19430,7 @@
       <c r="AA634" s="26"/>
       <c r="AB634" s="26"/>
     </row>
-    <row r="635" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A635" s="16"/>
       <c r="B635" s="16"/>
       <c r="C635" s="1"/>
@@ -19394,7 +19460,7 @@
       <c r="AA635" s="26"/>
       <c r="AB635" s="26"/>
     </row>
-    <row r="636" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A636" s="16"/>
       <c r="B636" s="16"/>
       <c r="C636" s="1"/>
@@ -19424,7 +19490,7 @@
       <c r="AA636" s="26"/>
       <c r="AB636" s="26"/>
     </row>
-    <row r="637" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A637" s="16"/>
       <c r="B637" s="16"/>
       <c r="C637" s="1"/>
@@ -19454,7 +19520,7 @@
       <c r="AA637" s="26"/>
       <c r="AB637" s="26"/>
     </row>
-    <row r="638" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A638" s="16"/>
       <c r="B638" s="16"/>
       <c r="C638" s="1"/>
@@ -19484,7 +19550,7 @@
       <c r="AA638" s="26"/>
       <c r="AB638" s="26"/>
     </row>
-    <row r="639" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A639" s="16"/>
       <c r="B639" s="16"/>
       <c r="C639" s="1"/>
@@ -19514,7 +19580,7 @@
       <c r="AA639" s="26"/>
       <c r="AB639" s="26"/>
     </row>
-    <row r="640" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A640" s="16"/>
       <c r="B640" s="16"/>
       <c r="C640" s="1"/>
@@ -19544,7 +19610,7 @@
       <c r="AA640" s="26"/>
       <c r="AB640" s="26"/>
     </row>
-    <row r="641" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A641" s="16"/>
       <c r="B641" s="16"/>
       <c r="C641" s="1"/>
@@ -19574,7 +19640,7 @@
       <c r="AA641" s="26"/>
       <c r="AB641" s="26"/>
     </row>
-    <row r="642" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A642" s="16"/>
       <c r="B642" s="16"/>
       <c r="C642" s="1"/>
@@ -19604,7 +19670,7 @@
       <c r="AA642" s="26"/>
       <c r="AB642" s="26"/>
     </row>
-    <row r="643" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A643" s="16"/>
       <c r="B643" s="16"/>
       <c r="C643" s="1"/>
@@ -19634,7 +19700,7 @@
       <c r="AA643" s="26"/>
       <c r="AB643" s="26"/>
     </row>
-    <row r="644" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A644" s="16"/>
       <c r="B644" s="16"/>
       <c r="C644" s="1"/>
@@ -19664,7 +19730,7 @@
       <c r="AA644" s="26"/>
       <c r="AB644" s="26"/>
     </row>
-    <row r="645" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A645" s="16"/>
       <c r="B645" s="16"/>
       <c r="C645" s="1"/>
@@ -19694,7 +19760,7 @@
       <c r="AA645" s="26"/>
       <c r="AB645" s="26"/>
     </row>
-    <row r="646" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A646" s="16"/>
       <c r="B646" s="16"/>
       <c r="C646" s="1"/>
@@ -19724,7 +19790,7 @@
       <c r="AA646" s="26"/>
       <c r="AB646" s="26"/>
     </row>
-    <row r="647" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A647" s="16"/>
       <c r="B647" s="16"/>
       <c r="C647" s="1"/>
@@ -19754,7 +19820,7 @@
       <c r="AA647" s="26"/>
       <c r="AB647" s="26"/>
     </row>
-    <row r="648" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A648" s="16"/>
       <c r="B648" s="16"/>
       <c r="C648" s="1"/>
@@ -19784,7 +19850,7 @@
       <c r="AA648" s="26"/>
       <c r="AB648" s="26"/>
     </row>
-    <row r="649" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A649" s="16"/>
       <c r="B649" s="16"/>
       <c r="C649" s="1"/>
@@ -19814,7 +19880,7 @@
       <c r="AA649" s="26"/>
       <c r="AB649" s="26"/>
     </row>
-    <row r="650" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A650" s="16"/>
       <c r="B650" s="16"/>
       <c r="C650" s="1"/>
@@ -19844,7 +19910,7 @@
       <c r="AA650" s="26"/>
       <c r="AB650" s="26"/>
     </row>
-    <row r="651" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A651" s="16"/>
       <c r="B651" s="16"/>
       <c r="C651" s="1"/>
@@ -19874,7 +19940,7 @@
       <c r="AA651" s="26"/>
       <c r="AB651" s="26"/>
     </row>
-    <row r="652" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A652" s="16"/>
       <c r="B652" s="16"/>
       <c r="C652" s="1"/>
@@ -19904,7 +19970,7 @@
       <c r="AA652" s="26"/>
       <c r="AB652" s="26"/>
     </row>
-    <row r="653" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A653" s="16"/>
       <c r="B653" s="16"/>
       <c r="C653" s="1"/>
@@ -19934,7 +20000,7 @@
       <c r="AA653" s="26"/>
       <c r="AB653" s="26"/>
     </row>
-    <row r="654" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A654" s="16"/>
       <c r="B654" s="16"/>
       <c r="C654" s="1"/>
@@ -19964,7 +20030,7 @@
       <c r="AA654" s="26"/>
       <c r="AB654" s="26"/>
     </row>
-    <row r="655" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A655" s="16"/>
       <c r="B655" s="16"/>
       <c r="C655" s="1"/>
@@ -19994,7 +20060,7 @@
       <c r="AA655" s="26"/>
       <c r="AB655" s="26"/>
     </row>
-    <row r="656" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A656" s="16"/>
       <c r="B656" s="16"/>
       <c r="C656" s="1"/>
@@ -20024,7 +20090,7 @@
       <c r="AA656" s="26"/>
       <c r="AB656" s="26"/>
     </row>
-    <row r="657" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A657" s="16"/>
       <c r="B657" s="16"/>
       <c r="C657" s="1"/>
@@ -20054,7 +20120,7 @@
       <c r="AA657" s="26"/>
       <c r="AB657" s="26"/>
     </row>
-    <row r="658" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A658" s="16"/>
       <c r="B658" s="16"/>
       <c r="C658" s="1"/>
@@ -20084,7 +20150,7 @@
       <c r="AA658" s="26"/>
       <c r="AB658" s="26"/>
     </row>
-    <row r="659" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A659" s="16"/>
       <c r="B659" s="16"/>
       <c r="C659" s="1"/>
@@ -20114,7 +20180,7 @@
       <c r="AA659" s="26"/>
       <c r="AB659" s="26"/>
     </row>
-    <row r="660" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A660" s="16"/>
       <c r="B660" s="16"/>
       <c r="C660" s="1"/>
@@ -20144,7 +20210,7 @@
       <c r="AA660" s="26"/>
       <c r="AB660" s="26"/>
     </row>
-    <row r="661" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A661" s="16"/>
       <c r="B661" s="16"/>
       <c r="C661" s="1"/>
@@ -20174,7 +20240,7 @@
       <c r="AA661" s="26"/>
       <c r="AB661" s="26"/>
     </row>
-    <row r="662" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A662" s="16"/>
       <c r="B662" s="16"/>
       <c r="C662" s="1"/>
@@ -20204,7 +20270,7 @@
       <c r="AA662" s="26"/>
       <c r="AB662" s="26"/>
     </row>
-    <row r="663" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A663" s="16"/>
       <c r="B663" s="16"/>
       <c r="C663" s="1"/>
@@ -20234,7 +20300,7 @@
       <c r="AA663" s="26"/>
       <c r="AB663" s="26"/>
     </row>
-    <row r="664" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A664" s="16"/>
       <c r="B664" s="16"/>
       <c r="C664" s="1"/>
@@ -20264,7 +20330,7 @@
       <c r="AA664" s="26"/>
       <c r="AB664" s="26"/>
     </row>
-    <row r="665" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A665" s="16"/>
       <c r="B665" s="16"/>
       <c r="C665" s="1"/>
@@ -20294,7 +20360,7 @@
       <c r="AA665" s="26"/>
       <c r="AB665" s="26"/>
     </row>
-    <row r="666" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A666" s="16"/>
       <c r="B666" s="16"/>
       <c r="C666" s="1"/>
@@ -20324,7 +20390,7 @@
       <c r="AA666" s="26"/>
       <c r="AB666" s="26"/>
     </row>
-    <row r="667" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A667" s="16"/>
       <c r="B667" s="16"/>
       <c r="C667" s="1"/>
@@ -20354,7 +20420,7 @@
       <c r="AA667" s="26"/>
       <c r="AB667" s="26"/>
     </row>
-    <row r="668" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A668" s="16"/>
       <c r="B668" s="16"/>
       <c r="C668" s="1"/>
@@ -20384,7 +20450,7 @@
       <c r="AA668" s="26"/>
       <c r="AB668" s="26"/>
     </row>
-    <row r="669" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A669" s="16"/>
       <c r="B669" s="16"/>
       <c r="C669" s="1"/>
@@ -20414,7 +20480,7 @@
       <c r="AA669" s="26"/>
       <c r="AB669" s="26"/>
     </row>
-    <row r="670" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A670" s="16"/>
       <c r="B670" s="16"/>
       <c r="C670" s="1"/>
@@ -20444,7 +20510,7 @@
       <c r="AA670" s="26"/>
       <c r="AB670" s="26"/>
     </row>
-    <row r="671" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A671" s="16"/>
       <c r="B671" s="16"/>
       <c r="C671" s="1"/>
@@ -20474,7 +20540,7 @@
       <c r="AA671" s="26"/>
       <c r="AB671" s="26"/>
     </row>
-    <row r="672" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A672" s="16"/>
       <c r="B672" s="16"/>
       <c r="C672" s="1"/>
@@ -20504,7 +20570,7 @@
       <c r="AA672" s="26"/>
       <c r="AB672" s="26"/>
     </row>
-    <row r="673" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A673" s="16"/>
       <c r="B673" s="16"/>
       <c r="C673" s="1"/>
@@ -20534,7 +20600,7 @@
       <c r="AA673" s="26"/>
       <c r="AB673" s="26"/>
     </row>
-    <row r="674" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A674" s="16"/>
       <c r="B674" s="16"/>
       <c r="C674" s="1"/>
@@ -20564,7 +20630,7 @@
       <c r="AA674" s="26"/>
       <c r="AB674" s="26"/>
     </row>
-    <row r="675" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A675" s="16"/>
       <c r="B675" s="16"/>
       <c r="C675" s="1"/>
@@ -20594,7 +20660,7 @@
       <c r="AA675" s="26"/>
       <c r="AB675" s="26"/>
     </row>
-    <row r="676" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A676" s="16"/>
       <c r="B676" s="16"/>
       <c r="C676" s="1"/>
@@ -20624,7 +20690,7 @@
       <c r="AA676" s="26"/>
       <c r="AB676" s="26"/>
     </row>
-    <row r="677" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A677" s="16"/>
       <c r="B677" s="16"/>
       <c r="C677" s="1"/>
@@ -20654,7 +20720,7 @@
       <c r="AA677" s="26"/>
       <c r="AB677" s="26"/>
     </row>
-    <row r="678" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A678" s="16"/>
       <c r="B678" s="16"/>
       <c r="C678" s="1"/>
@@ -20684,7 +20750,7 @@
       <c r="AA678" s="26"/>
       <c r="AB678" s="26"/>
     </row>
-    <row r="679" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A679" s="16"/>
       <c r="B679" s="16"/>
       <c r="C679" s="1"/>
@@ -20714,7 +20780,7 @@
       <c r="AA679" s="26"/>
       <c r="AB679" s="26"/>
     </row>
-    <row r="680" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A680" s="16"/>
       <c r="B680" s="16"/>
       <c r="C680" s="1"/>
@@ -20744,7 +20810,7 @@
       <c r="AA680" s="26"/>
       <c r="AB680" s="26"/>
     </row>
-    <row r="681" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A681" s="16"/>
       <c r="B681" s="16"/>
       <c r="C681" s="1"/>
@@ -20774,7 +20840,7 @@
       <c r="AA681" s="26"/>
       <c r="AB681" s="26"/>
     </row>
-    <row r="682" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A682" s="16"/>
       <c r="B682" s="16"/>
       <c r="C682" s="1"/>
@@ -20804,7 +20870,7 @@
       <c r="AA682" s="26"/>
       <c r="AB682" s="26"/>
     </row>
-    <row r="683" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A683" s="16"/>
       <c r="B683" s="16"/>
       <c r="C683" s="1"/>
@@ -20834,7 +20900,7 @@
       <c r="AA683" s="26"/>
       <c r="AB683" s="26"/>
     </row>
-    <row r="684" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A684" s="16"/>
       <c r="B684" s="16"/>
       <c r="C684" s="1"/>
@@ -20864,7 +20930,7 @@
       <c r="AA684" s="26"/>
       <c r="AB684" s="26"/>
     </row>
-    <row r="685" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A685" s="16"/>
       <c r="B685" s="16"/>
       <c r="C685" s="1"/>
@@ -20894,7 +20960,7 @@
       <c r="AA685" s="26"/>
       <c r="AB685" s="26"/>
     </row>
-    <row r="686" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A686" s="16"/>
       <c r="B686" s="16"/>
       <c r="C686" s="1"/>
@@ -20924,7 +20990,7 @@
       <c r="AA686" s="26"/>
       <c r="AB686" s="26"/>
     </row>
-    <row r="687" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A687" s="16"/>
       <c r="B687" s="16"/>
       <c r="C687" s="1"/>
@@ -20954,7 +21020,7 @@
       <c r="AA687" s="26"/>
       <c r="AB687" s="26"/>
     </row>
-    <row r="688" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A688" s="16"/>
       <c r="B688" s="16"/>
       <c r="C688" s="1"/>
@@ -20984,7 +21050,7 @@
       <c r="AA688" s="26"/>
       <c r="AB688" s="26"/>
     </row>
-    <row r="689" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A689" s="16"/>
       <c r="B689" s="16"/>
       <c r="C689" s="1"/>
@@ -21014,7 +21080,7 @@
       <c r="AA689" s="26"/>
       <c r="AB689" s="26"/>
     </row>
-    <row r="690" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A690" s="16"/>
       <c r="B690" s="16"/>
       <c r="C690" s="1"/>
@@ -21044,7 +21110,7 @@
       <c r="AA690" s="26"/>
       <c r="AB690" s="26"/>
     </row>
-    <row r="691" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A691" s="16"/>
       <c r="B691" s="16"/>
       <c r="C691" s="1"/>
@@ -21074,7 +21140,7 @@
       <c r="AA691" s="26"/>
       <c r="AB691" s="26"/>
     </row>
-    <row r="692" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A692" s="16"/>
       <c r="B692" s="16"/>
       <c r="C692" s="1"/>
@@ -21104,7 +21170,7 @@
       <c r="AA692" s="26"/>
       <c r="AB692" s="26"/>
     </row>
-    <row r="693" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A693" s="16"/>
       <c r="B693" s="16"/>
       <c r="C693" s="1"/>
@@ -21134,7 +21200,7 @@
       <c r="AA693" s="26"/>
       <c r="AB693" s="26"/>
     </row>
-    <row r="694" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A694" s="16"/>
       <c r="B694" s="16"/>
       <c r="C694" s="1"/>
@@ -21164,7 +21230,7 @@
       <c r="AA694" s="26"/>
       <c r="AB694" s="26"/>
     </row>
-    <row r="695" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A695" s="16"/>
       <c r="B695" s="16"/>
       <c r="C695" s="1"/>
@@ -21194,7 +21260,7 @@
       <c r="AA695" s="26"/>
       <c r="AB695" s="26"/>
     </row>
-    <row r="696" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A696" s="16"/>
       <c r="B696" s="16"/>
       <c r="C696" s="1"/>
@@ -21224,7 +21290,7 @@
       <c r="AA696" s="26"/>
       <c r="AB696" s="26"/>
     </row>
-    <row r="697" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A697" s="16"/>
       <c r="B697" s="16"/>
       <c r="C697" s="1"/>
@@ -21254,7 +21320,7 @@
       <c r="AA697" s="26"/>
       <c r="AB697" s="26"/>
     </row>
-    <row r="698" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A698" s="16"/>
       <c r="B698" s="16"/>
       <c r="C698" s="1"/>
@@ -21284,7 +21350,7 @@
       <c r="AA698" s="26"/>
       <c r="AB698" s="26"/>
     </row>
-    <row r="699" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A699" s="16"/>
       <c r="B699" s="16"/>
       <c r="C699" s="1"/>
@@ -21314,7 +21380,7 @@
       <c r="AA699" s="26"/>
       <c r="AB699" s="26"/>
     </row>
-    <row r="700" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A700" s="16"/>
       <c r="B700" s="16"/>
       <c r="C700" s="1"/>
@@ -21344,7 +21410,7 @@
       <c r="AA700" s="26"/>
       <c r="AB700" s="26"/>
     </row>
-    <row r="701" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A701" s="16"/>
       <c r="B701" s="16"/>
       <c r="C701" s="1"/>
@@ -21374,7 +21440,7 @@
       <c r="AA701" s="26"/>
       <c r="AB701" s="26"/>
     </row>
-    <row r="702" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A702" s="16"/>
       <c r="B702" s="16"/>
       <c r="C702" s="1"/>
@@ -21404,7 +21470,7 @@
       <c r="AA702" s="26"/>
       <c r="AB702" s="26"/>
     </row>
-    <row r="703" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A703" s="16"/>
       <c r="B703" s="16"/>
       <c r="C703" s="1"/>
@@ -21434,7 +21500,7 @@
       <c r="AA703" s="26"/>
       <c r="AB703" s="26"/>
     </row>
-    <row r="704" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A704" s="16"/>
       <c r="B704" s="16"/>
       <c r="C704" s="1"/>
@@ -21464,7 +21530,7 @@
       <c r="AA704" s="26"/>
       <c r="AB704" s="26"/>
     </row>
-    <row r="705" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A705" s="16"/>
       <c r="B705" s="16"/>
       <c r="C705" s="1"/>
@@ -21494,7 +21560,7 @@
       <c r="AA705" s="26"/>
       <c r="AB705" s="26"/>
     </row>
-    <row r="706" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A706" s="16"/>
       <c r="B706" s="16"/>
       <c r="C706" s="1"/>
@@ -21524,7 +21590,7 @@
       <c r="AA706" s="26"/>
       <c r="AB706" s="26"/>
     </row>
-    <row r="707" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A707" s="16"/>
       <c r="B707" s="16"/>
       <c r="C707" s="1"/>
@@ -21554,7 +21620,7 @@
       <c r="AA707" s="26"/>
       <c r="AB707" s="26"/>
     </row>
-    <row r="708" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A708" s="16"/>
       <c r="B708" s="16"/>
       <c r="C708" s="1"/>
@@ -21584,7 +21650,7 @@
       <c r="AA708" s="26"/>
       <c r="AB708" s="26"/>
     </row>
-    <row r="709" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A709" s="16"/>
       <c r="B709" s="16"/>
       <c r="C709" s="1"/>
@@ -21614,7 +21680,7 @@
       <c r="AA709" s="26"/>
       <c r="AB709" s="26"/>
     </row>
-    <row r="710" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A710" s="16"/>
       <c r="B710" s="16"/>
       <c r="C710" s="1"/>
@@ -21644,7 +21710,7 @@
       <c r="AA710" s="26"/>
       <c r="AB710" s="26"/>
     </row>
-    <row r="711" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A711" s="16"/>
       <c r="B711" s="16"/>
       <c r="C711" s="1"/>
@@ -21674,7 +21740,7 @@
       <c r="AA711" s="26"/>
       <c r="AB711" s="26"/>
     </row>
-    <row r="712" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A712" s="16"/>
       <c r="B712" s="16"/>
       <c r="C712" s="1"/>
@@ -21704,7 +21770,7 @@
       <c r="AA712" s="26"/>
       <c r="AB712" s="26"/>
     </row>
-    <row r="713" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A713" s="16"/>
       <c r="B713" s="16"/>
       <c r="C713" s="1"/>
@@ -21734,7 +21800,7 @@
       <c r="AA713" s="26"/>
       <c r="AB713" s="26"/>
     </row>
-    <row r="714" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A714" s="16"/>
       <c r="B714" s="16"/>
       <c r="C714" s="1"/>
@@ -21764,7 +21830,7 @@
       <c r="AA714" s="26"/>
       <c r="AB714" s="26"/>
     </row>
-    <row r="715" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A715" s="16"/>
       <c r="B715" s="16"/>
       <c r="C715" s="1"/>
@@ -21794,7 +21860,7 @@
       <c r="AA715" s="26"/>
       <c r="AB715" s="26"/>
     </row>
-    <row r="716" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A716" s="16"/>
       <c r="B716" s="16"/>
       <c r="C716" s="1"/>
@@ -21824,7 +21890,7 @@
       <c r="AA716" s="26"/>
       <c r="AB716" s="26"/>
     </row>
-    <row r="717" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A717" s="16"/>
       <c r="B717" s="16"/>
       <c r="C717" s="1"/>
@@ -21854,7 +21920,7 @@
       <c r="AA717" s="26"/>
       <c r="AB717" s="26"/>
     </row>
-    <row r="718" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A718" s="16"/>
       <c r="B718" s="16"/>
       <c r="C718" s="1"/>
@@ -21884,7 +21950,7 @@
       <c r="AA718" s="26"/>
       <c r="AB718" s="26"/>
     </row>
-    <row r="719" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A719" s="16"/>
       <c r="B719" s="16"/>
       <c r="C719" s="1"/>
@@ -21914,7 +21980,7 @@
       <c r="AA719" s="26"/>
       <c r="AB719" s="26"/>
     </row>
-    <row r="720" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A720" s="16"/>
       <c r="B720" s="16"/>
       <c r="C720" s="1"/>
@@ -21944,7 +22010,7 @@
       <c r="AA720" s="26"/>
       <c r="AB720" s="26"/>
     </row>
-    <row r="721" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A721" s="16"/>
       <c r="B721" s="16"/>
       <c r="C721" s="1"/>
@@ -21974,7 +22040,7 @@
       <c r="AA721" s="26"/>
       <c r="AB721" s="26"/>
     </row>
-    <row r="722" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A722" s="16"/>
       <c r="B722" s="16"/>
       <c r="C722" s="1"/>
@@ -22004,7 +22070,7 @@
       <c r="AA722" s="26"/>
       <c r="AB722" s="26"/>
     </row>
-    <row r="723" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A723" s="16"/>
       <c r="B723" s="16"/>
       <c r="C723" s="1"/>
@@ -22034,7 +22100,7 @@
       <c r="AA723" s="26"/>
       <c r="AB723" s="26"/>
     </row>
-    <row r="724" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A724" s="16"/>
       <c r="B724" s="16"/>
       <c r="C724" s="1"/>
@@ -22064,7 +22130,7 @@
       <c r="AA724" s="26"/>
       <c r="AB724" s="26"/>
     </row>
-    <row r="725" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A725" s="16"/>
       <c r="B725" s="16"/>
       <c r="C725" s="1"/>
@@ -22094,7 +22160,7 @@
       <c r="AA725" s="26"/>
       <c r="AB725" s="26"/>
     </row>
-    <row r="726" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A726" s="16"/>
       <c r="B726" s="16"/>
       <c r="C726" s="1"/>
@@ -22124,7 +22190,7 @@
       <c r="AA726" s="26"/>
       <c r="AB726" s="26"/>
     </row>
-    <row r="727" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A727" s="16"/>
       <c r="B727" s="16"/>
       <c r="C727" s="1"/>
@@ -22154,7 +22220,7 @@
       <c r="AA727" s="26"/>
       <c r="AB727" s="26"/>
     </row>
-    <row r="728" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A728" s="16"/>
       <c r="B728" s="16"/>
       <c r="C728" s="1"/>
@@ -22184,7 +22250,7 @@
       <c r="AA728" s="26"/>
       <c r="AB728" s="26"/>
     </row>
-    <row r="729" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A729" s="16"/>
       <c r="B729" s="16"/>
       <c r="C729" s="1"/>
@@ -22214,7 +22280,7 @@
       <c r="AA729" s="26"/>
       <c r="AB729" s="26"/>
     </row>
-    <row r="730" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A730" s="16"/>
       <c r="B730" s="16"/>
       <c r="C730" s="1"/>
@@ -22244,7 +22310,7 @@
       <c r="AA730" s="26"/>
       <c r="AB730" s="26"/>
     </row>
-    <row r="731" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A731" s="16"/>
       <c r="B731" s="16"/>
       <c r="C731" s="1"/>
@@ -22274,7 +22340,7 @@
       <c r="AA731" s="26"/>
       <c r="AB731" s="26"/>
     </row>
-    <row r="732" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A732" s="16"/>
       <c r="B732" s="16"/>
       <c r="C732" s="1"/>
@@ -22304,7 +22370,7 @@
       <c r="AA732" s="26"/>
       <c r="AB732" s="26"/>
     </row>
-    <row r="733" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A733" s="16"/>
       <c r="B733" s="16"/>
       <c r="C733" s="1"/>
@@ -22334,7 +22400,7 @@
       <c r="AA733" s="26"/>
       <c r="AB733" s="26"/>
     </row>
-    <row r="734" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A734" s="16"/>
       <c r="B734" s="16"/>
       <c r="C734" s="1"/>
@@ -22364,7 +22430,7 @@
       <c r="AA734" s="26"/>
       <c r="AB734" s="26"/>
     </row>
-    <row r="735" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A735" s="16"/>
       <c r="B735" s="16"/>
       <c r="C735" s="1"/>
@@ -22394,7 +22460,7 @@
       <c r="AA735" s="26"/>
       <c r="AB735" s="26"/>
     </row>
-    <row r="736" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A736" s="16"/>
       <c r="B736" s="16"/>
       <c r="C736" s="1"/>
@@ -22424,7 +22490,7 @@
       <c r="AA736" s="26"/>
       <c r="AB736" s="26"/>
     </row>
-    <row r="737" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A737" s="16"/>
       <c r="B737" s="16"/>
       <c r="C737" s="1"/>
@@ -22454,7 +22520,7 @@
       <c r="AA737" s="26"/>
       <c r="AB737" s="26"/>
     </row>
-    <row r="738" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A738" s="16"/>
       <c r="B738" s="16"/>
       <c r="C738" s="1"/>
@@ -22484,7 +22550,7 @@
       <c r="AA738" s="26"/>
       <c r="AB738" s="26"/>
     </row>
-    <row r="739" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A739" s="16"/>
       <c r="B739" s="16"/>
       <c r="C739" s="1"/>
@@ -22514,7 +22580,7 @@
       <c r="AA739" s="26"/>
       <c r="AB739" s="26"/>
     </row>
-    <row r="740" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A740" s="16"/>
       <c r="B740" s="16"/>
       <c r="C740" s="1"/>
@@ -22544,7 +22610,7 @@
       <c r="AA740" s="26"/>
       <c r="AB740" s="26"/>
     </row>
-    <row r="741" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A741" s="16"/>
       <c r="B741" s="16"/>
       <c r="C741" s="1"/>
@@ -22574,7 +22640,7 @@
       <c r="AA741" s="26"/>
       <c r="AB741" s="26"/>
     </row>
-    <row r="742" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A742" s="16"/>
       <c r="B742" s="16"/>
       <c r="C742" s="1"/>
@@ -22604,7 +22670,7 @@
       <c r="AA742" s="26"/>
       <c r="AB742" s="26"/>
     </row>
-    <row r="743" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A743" s="16"/>
       <c r="B743" s="16"/>
       <c r="C743" s="1"/>
@@ -22634,7 +22700,7 @@
       <c r="AA743" s="26"/>
       <c r="AB743" s="26"/>
     </row>
-    <row r="744" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A744" s="16"/>
       <c r="B744" s="16"/>
       <c r="C744" s="1"/>
@@ -22664,7 +22730,7 @@
       <c r="AA744" s="26"/>
       <c r="AB744" s="26"/>
     </row>
-    <row r="745" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A745" s="16"/>
       <c r="B745" s="16"/>
       <c r="C745" s="1"/>
@@ -22694,7 +22760,7 @@
       <c r="AA745" s="26"/>
       <c r="AB745" s="26"/>
     </row>
-    <row r="746" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A746" s="16"/>
       <c r="B746" s="16"/>
       <c r="C746" s="1"/>
@@ -22724,7 +22790,7 @@
       <c r="AA746" s="26"/>
       <c r="AB746" s="26"/>
     </row>
-    <row r="747" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A747" s="16"/>
       <c r="B747" s="16"/>
       <c r="C747" s="1"/>
@@ -22754,7 +22820,7 @@
       <c r="AA747" s="26"/>
       <c r="AB747" s="26"/>
     </row>
-    <row r="748" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A748" s="16"/>
       <c r="B748" s="16"/>
       <c r="C748" s="1"/>
@@ -22784,7 +22850,7 @@
       <c r="AA748" s="26"/>
       <c r="AB748" s="26"/>
     </row>
-    <row r="749" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A749" s="16"/>
       <c r="B749" s="16"/>
       <c r="C749" s="1"/>
@@ -22814,7 +22880,7 @@
       <c r="AA749" s="26"/>
       <c r="AB749" s="26"/>
     </row>
-    <row r="750" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A750" s="16"/>
       <c r="B750" s="16"/>
       <c r="C750" s="1"/>
@@ -22844,7 +22910,7 @@
       <c r="AA750" s="26"/>
       <c r="AB750" s="26"/>
     </row>
-    <row r="751" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A751" s="16"/>
       <c r="B751" s="16"/>
       <c r="C751" s="1"/>
@@ -22874,7 +22940,7 @@
       <c r="AA751" s="26"/>
       <c r="AB751" s="26"/>
     </row>
-    <row r="752" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A752" s="16"/>
       <c r="B752" s="16"/>
       <c r="C752" s="1"/>
@@ -22904,7 +22970,7 @@
       <c r="AA752" s="26"/>
       <c r="AB752" s="26"/>
     </row>
-    <row r="753" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A753" s="16"/>
       <c r="B753" s="16"/>
       <c r="C753" s="1"/>
@@ -22934,7 +23000,7 @@
       <c r="AA753" s="26"/>
       <c r="AB753" s="26"/>
     </row>
-    <row r="754" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A754" s="16"/>
       <c r="B754" s="16"/>
       <c r="C754" s="1"/>
@@ -22964,7 +23030,7 @@
       <c r="AA754" s="26"/>
       <c r="AB754" s="26"/>
     </row>
-    <row r="755" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A755" s="16"/>
       <c r="B755" s="16"/>
       <c r="C755" s="1"/>
@@ -22994,7 +23060,7 @@
       <c r="AA755" s="26"/>
       <c r="AB755" s="26"/>
     </row>
-    <row r="756" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A756" s="16"/>
       <c r="B756" s="16"/>
       <c r="C756" s="1"/>
@@ -23024,7 +23090,7 @@
       <c r="AA756" s="26"/>
       <c r="AB756" s="26"/>
     </row>
-    <row r="757" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A757" s="16"/>
       <c r="B757" s="16"/>
       <c r="C757" s="1"/>
@@ -23054,7 +23120,7 @@
       <c r="AA757" s="26"/>
       <c r="AB757" s="26"/>
     </row>
-    <row r="758" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A758" s="16"/>
       <c r="B758" s="16"/>
       <c r="C758" s="1"/>
@@ -23084,7 +23150,7 @@
       <c r="AA758" s="26"/>
       <c r="AB758" s="26"/>
     </row>
-    <row r="759" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A759" s="16"/>
       <c r="B759" s="16"/>
       <c r="C759" s="1"/>
@@ -23114,7 +23180,7 @@
       <c r="AA759" s="26"/>
       <c r="AB759" s="26"/>
     </row>
-    <row r="760" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A760" s="16"/>
       <c r="B760" s="16"/>
       <c r="C760" s="1"/>
@@ -23144,7 +23210,7 @@
       <c r="AA760" s="26"/>
       <c r="AB760" s="26"/>
     </row>
-    <row r="761" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A761" s="16"/>
       <c r="B761" s="16"/>
       <c r="C761" s="1"/>
@@ -23174,7 +23240,7 @@
       <c r="AA761" s="26"/>
       <c r="AB761" s="26"/>
     </row>
-    <row r="762" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A762" s="16"/>
       <c r="B762" s="16"/>
       <c r="C762" s="1"/>
@@ -23204,7 +23270,7 @@
       <c r="AA762" s="26"/>
       <c r="AB762" s="26"/>
     </row>
-    <row r="763" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A763" s="16"/>
       <c r="B763" s="16"/>
       <c r="C763" s="1"/>
@@ -23234,7 +23300,7 @@
       <c r="AA763" s="26"/>
       <c r="AB763" s="26"/>
     </row>
-    <row r="764" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A764" s="16"/>
       <c r="B764" s="16"/>
       <c r="C764" s="1"/>
@@ -23264,7 +23330,7 @@
       <c r="AA764" s="26"/>
       <c r="AB764" s="26"/>
     </row>
-    <row r="765" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A765" s="16"/>
       <c r="B765" s="16"/>
       <c r="C765" s="1"/>
@@ -23294,7 +23360,7 @@
       <c r="AA765" s="26"/>
       <c r="AB765" s="26"/>
     </row>
-    <row r="766" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A766" s="16"/>
       <c r="B766" s="16"/>
       <c r="C766" s="1"/>
@@ -23324,7 +23390,7 @@
       <c r="AA766" s="26"/>
       <c r="AB766" s="26"/>
     </row>
-    <row r="767" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A767" s="16"/>
       <c r="B767" s="16"/>
       <c r="C767" s="1"/>
@@ -23354,7 +23420,7 @@
       <c r="AA767" s="26"/>
       <c r="AB767" s="26"/>
     </row>
-    <row r="768" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A768" s="16"/>
       <c r="B768" s="16"/>
       <c r="C768" s="1"/>
@@ -23384,7 +23450,7 @@
       <c r="AA768" s="26"/>
       <c r="AB768" s="26"/>
     </row>
-    <row r="769" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A769" s="16"/>
       <c r="B769" s="16"/>
       <c r="C769" s="1"/>
@@ -23414,7 +23480,7 @@
       <c r="AA769" s="26"/>
       <c r="AB769" s="26"/>
     </row>
-    <row r="770" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A770" s="16"/>
       <c r="B770" s="16"/>
       <c r="C770" s="1"/>
@@ -23444,7 +23510,7 @@
       <c r="AA770" s="26"/>
       <c r="AB770" s="26"/>
     </row>
-    <row r="771" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A771" s="16"/>
       <c r="B771" s="16"/>
       <c r="C771" s="1"/>
@@ -23474,7 +23540,7 @@
       <c r="AA771" s="26"/>
       <c r="AB771" s="26"/>
     </row>
-    <row r="772" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A772" s="16"/>
       <c r="B772" s="16"/>
       <c r="C772" s="1"/>
@@ -23504,7 +23570,7 @@
       <c r="AA772" s="26"/>
       <c r="AB772" s="26"/>
     </row>
-    <row r="773" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A773" s="16"/>
       <c r="B773" s="16"/>
       <c r="C773" s="1"/>
@@ -23534,7 +23600,7 @@
       <c r="AA773" s="26"/>
       <c r="AB773" s="26"/>
     </row>
-    <row r="774" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A774" s="16"/>
       <c r="B774" s="16"/>
       <c r="C774" s="1"/>
@@ -23564,7 +23630,7 @@
       <c r="AA774" s="26"/>
       <c r="AB774" s="26"/>
     </row>
-    <row r="775" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A775" s="16"/>
       <c r="B775" s="16"/>
       <c r="C775" s="1"/>
@@ -23594,7 +23660,7 @@
       <c r="AA775" s="26"/>
       <c r="AB775" s="26"/>
     </row>
-    <row r="776" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A776" s="16"/>
       <c r="B776" s="16"/>
       <c r="C776" s="1"/>
@@ -23624,7 +23690,7 @@
       <c r="AA776" s="26"/>
       <c r="AB776" s="26"/>
     </row>
-    <row r="777" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A777" s="16"/>
       <c r="B777" s="16"/>
       <c r="C777" s="1"/>
@@ -23654,7 +23720,7 @@
       <c r="AA777" s="26"/>
       <c r="AB777" s="26"/>
     </row>
-    <row r="778" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A778" s="16"/>
       <c r="B778" s="16"/>
       <c r="C778" s="1"/>
@@ -23684,7 +23750,7 @@
       <c r="AA778" s="26"/>
       <c r="AB778" s="26"/>
     </row>
-    <row r="779" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A779" s="16"/>
       <c r="B779" s="16"/>
       <c r="C779" s="1"/>
@@ -23714,7 +23780,7 @@
       <c r="AA779" s="26"/>
       <c r="AB779" s="26"/>
     </row>
-    <row r="780" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A780" s="16"/>
       <c r="B780" s="16"/>
       <c r="C780" s="1"/>
@@ -23744,7 +23810,7 @@
       <c r="AA780" s="26"/>
       <c r="AB780" s="26"/>
     </row>
-    <row r="781" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A781" s="16"/>
       <c r="B781" s="16"/>
       <c r="C781" s="1"/>
@@ -23774,7 +23840,7 @@
       <c r="AA781" s="26"/>
       <c r="AB781" s="26"/>
     </row>
-    <row r="782" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A782" s="16"/>
       <c r="B782" s="16"/>
       <c r="C782" s="1"/>
@@ -23804,7 +23870,7 @@
       <c r="AA782" s="26"/>
       <c r="AB782" s="26"/>
     </row>
-    <row r="783" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A783" s="16"/>
       <c r="B783" s="16"/>
       <c r="C783" s="1"/>
@@ -23834,7 +23900,7 @@
       <c r="AA783" s="26"/>
       <c r="AB783" s="26"/>
     </row>
-    <row r="784" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A784" s="16"/>
       <c r="B784" s="16"/>
       <c r="C784" s="1"/>
@@ -23864,7 +23930,7 @@
       <c r="AA784" s="26"/>
       <c r="AB784" s="26"/>
     </row>
-    <row r="785" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A785" s="16"/>
       <c r="B785" s="16"/>
       <c r="C785" s="1"/>
@@ -23894,7 +23960,7 @@
       <c r="AA785" s="26"/>
       <c r="AB785" s="26"/>
     </row>
-    <row r="786" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A786" s="16"/>
       <c r="B786" s="16"/>
       <c r="C786" s="1"/>
@@ -23924,7 +23990,7 @@
       <c r="AA786" s="26"/>
       <c r="AB786" s="26"/>
     </row>
-    <row r="787" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A787" s="16"/>
       <c r="B787" s="16"/>
       <c r="C787" s="1"/>
@@ -23954,7 +24020,7 @@
       <c r="AA787" s="26"/>
       <c r="AB787" s="26"/>
     </row>
-    <row r="788" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A788" s="16"/>
       <c r="B788" s="16"/>
       <c r="C788" s="1"/>
@@ -23984,7 +24050,7 @@
       <c r="AA788" s="26"/>
       <c r="AB788" s="26"/>
     </row>
-    <row r="789" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A789" s="16"/>
       <c r="B789" s="16"/>
       <c r="C789" s="1"/>
@@ -24014,7 +24080,7 @@
       <c r="AA789" s="26"/>
       <c r="AB789" s="26"/>
     </row>
-    <row r="790" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A790" s="16"/>
       <c r="B790" s="16"/>
       <c r="C790" s="1"/>
@@ -24044,7 +24110,7 @@
       <c r="AA790" s="26"/>
       <c r="AB790" s="26"/>
     </row>
-    <row r="791" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A791" s="16"/>
       <c r="B791" s="16"/>
       <c r="C791" s="1"/>
@@ -24074,7 +24140,7 @@
       <c r="AA791" s="26"/>
       <c r="AB791" s="26"/>
     </row>
-    <row r="792" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A792" s="16"/>
       <c r="B792" s="16"/>
       <c r="C792" s="1"/>
@@ -24104,7 +24170,7 @@
       <c r="AA792" s="26"/>
       <c r="AB792" s="26"/>
     </row>
-    <row r="793" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A793" s="16"/>
       <c r="B793" s="16"/>
       <c r="C793" s="1"/>
@@ -24134,7 +24200,7 @@
       <c r="AA793" s="26"/>
       <c r="AB793" s="26"/>
     </row>
-    <row r="794" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A794" s="16"/>
       <c r="B794" s="16"/>
       <c r="C794" s="1"/>
@@ -24164,7 +24230,7 @@
       <c r="AA794" s="26"/>
       <c r="AB794" s="26"/>
     </row>
-    <row r="795" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A795" s="16"/>
       <c r="B795" s="16"/>
       <c r="C795" s="1"/>
@@ -24194,7 +24260,7 @@
       <c r="AA795" s="26"/>
       <c r="AB795" s="26"/>
     </row>
-    <row r="796" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A796" s="16"/>
       <c r="B796" s="16"/>
       <c r="C796" s="1"/>
@@ -24224,7 +24290,7 @@
       <c r="AA796" s="26"/>
       <c r="AB796" s="26"/>
     </row>
-    <row r="797" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A797" s="16"/>
       <c r="B797" s="16"/>
       <c r="C797" s="1"/>
@@ -24254,7 +24320,7 @@
       <c r="AA797" s="26"/>
       <c r="AB797" s="26"/>
     </row>
-    <row r="798" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A798" s="16"/>
       <c r="B798" s="16"/>
       <c r="C798" s="1"/>
@@ -24284,7 +24350,7 @@
       <c r="AA798" s="26"/>
       <c r="AB798" s="26"/>
     </row>
-    <row r="799" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A799" s="16"/>
       <c r="B799" s="16"/>
       <c r="C799" s="1"/>
@@ -24314,7 +24380,7 @@
       <c r="AA799" s="26"/>
       <c r="AB799" s="26"/>
     </row>
-    <row r="800" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A800" s="16"/>
       <c r="B800" s="16"/>
       <c r="C800" s="1"/>
@@ -24344,7 +24410,7 @@
       <c r="AA800" s="26"/>
       <c r="AB800" s="26"/>
     </row>
-    <row r="801" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A801" s="16"/>
       <c r="B801" s="16"/>
       <c r="C801" s="1"/>
@@ -24374,7 +24440,7 @@
       <c r="AA801" s="26"/>
       <c r="AB801" s="26"/>
     </row>
-    <row r="802" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A802" s="16"/>
       <c r="B802" s="16"/>
       <c r="C802" s="1"/>
@@ -24404,7 +24470,7 @@
       <c r="AA802" s="26"/>
       <c r="AB802" s="26"/>
     </row>
-    <row r="803" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A803" s="16"/>
       <c r="B803" s="16"/>
       <c r="C803" s="1"/>
@@ -24434,7 +24500,7 @@
       <c r="AA803" s="26"/>
       <c r="AB803" s="26"/>
     </row>
-    <row r="804" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A804" s="16"/>
       <c r="B804" s="16"/>
       <c r="C804" s="1"/>
@@ -24464,7 +24530,7 @@
       <c r="AA804" s="26"/>
       <c r="AB804" s="26"/>
     </row>
-    <row r="805" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A805" s="16"/>
       <c r="B805" s="16"/>
       <c r="C805" s="1"/>
@@ -24494,7 +24560,7 @@
       <c r="AA805" s="26"/>
       <c r="AB805" s="26"/>
     </row>
-    <row r="806" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A806" s="16"/>
       <c r="B806" s="16"/>
       <c r="C806" s="1"/>
@@ -24524,7 +24590,7 @@
       <c r="AA806" s="26"/>
       <c r="AB806" s="26"/>
     </row>
-    <row r="807" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A807" s="16"/>
       <c r="B807" s="16"/>
       <c r="C807" s="1"/>
@@ -24554,7 +24620,7 @@
       <c r="AA807" s="26"/>
       <c r="AB807" s="26"/>
     </row>
-    <row r="808" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A808" s="16"/>
       <c r="B808" s="16"/>
       <c r="C808" s="1"/>
@@ -24584,7 +24650,7 @@
       <c r="AA808" s="26"/>
       <c r="AB808" s="26"/>
     </row>
-    <row r="809" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A809" s="16"/>
       <c r="B809" s="16"/>
       <c r="C809" s="1"/>
@@ -24614,7 +24680,7 @@
       <c r="AA809" s="26"/>
       <c r="AB809" s="26"/>
     </row>
-    <row r="810" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A810" s="16"/>
       <c r="B810" s="16"/>
       <c r="C810" s="1"/>
@@ -24644,7 +24710,7 @@
       <c r="AA810" s="26"/>
       <c r="AB810" s="26"/>
     </row>
-    <row r="811" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A811" s="16"/>
       <c r="B811" s="16"/>
       <c r="C811" s="1"/>
@@ -24674,7 +24740,7 @@
       <c r="AA811" s="26"/>
       <c r="AB811" s="26"/>
     </row>
-    <row r="812" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A812" s="16"/>
       <c r="B812" s="16"/>
       <c r="C812" s="1"/>
@@ -24704,7 +24770,7 @@
       <c r="AA812" s="26"/>
       <c r="AB812" s="26"/>
     </row>
-    <row r="813" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A813" s="16"/>
       <c r="B813" s="16"/>
       <c r="C813" s="1"/>
@@ -24734,7 +24800,7 @@
       <c r="AA813" s="26"/>
       <c r="AB813" s="26"/>
     </row>
-    <row r="814" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A814" s="16"/>
       <c r="B814" s="16"/>
       <c r="C814" s="1"/>
@@ -24764,7 +24830,7 @@
       <c r="AA814" s="26"/>
       <c r="AB814" s="26"/>
     </row>
-    <row r="815" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A815" s="16"/>
       <c r="B815" s="16"/>
       <c r="C815" s="1"/>
@@ -24794,7 +24860,7 @@
       <c r="AA815" s="26"/>
       <c r="AB815" s="26"/>
     </row>
-    <row r="816" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A816" s="16"/>
       <c r="B816" s="16"/>
       <c r="C816" s="1"/>
@@ -24824,7 +24890,7 @@
       <c r="AA816" s="26"/>
       <c r="AB816" s="26"/>
     </row>
-    <row r="817" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A817" s="16"/>
       <c r="B817" s="16"/>
       <c r="C817" s="1"/>
@@ -24854,7 +24920,7 @@
       <c r="AA817" s="26"/>
       <c r="AB817" s="26"/>
     </row>
-    <row r="818" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A818" s="16"/>
       <c r="B818" s="16"/>
       <c r="C818" s="1"/>
@@ -24884,7 +24950,7 @@
       <c r="AA818" s="26"/>
       <c r="AB818" s="26"/>
     </row>
-    <row r="819" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A819" s="16"/>
       <c r="B819" s="16"/>
       <c r="C819" s="1"/>
@@ -24914,7 +24980,7 @@
       <c r="AA819" s="26"/>
       <c r="AB819" s="26"/>
     </row>
-    <row r="820" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A820" s="16"/>
       <c r="B820" s="16"/>
       <c r="C820" s="1"/>
@@ -24944,7 +25010,7 @@
       <c r="AA820" s="26"/>
       <c r="AB820" s="26"/>
     </row>
-    <row r="821" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A821" s="16"/>
       <c r="B821" s="16"/>
       <c r="C821" s="1"/>
@@ -24974,7 +25040,7 @@
       <c r="AA821" s="26"/>
       <c r="AB821" s="26"/>
     </row>
-    <row r="822" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A822" s="16"/>
       <c r="B822" s="16"/>
       <c r="C822" s="1"/>
@@ -25004,7 +25070,7 @@
       <c r="AA822" s="26"/>
       <c r="AB822" s="26"/>
     </row>
-    <row r="823" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A823" s="16"/>
       <c r="B823" s="16"/>
       <c r="C823" s="1"/>
@@ -25034,7 +25100,7 @@
       <c r="AA823" s="26"/>
       <c r="AB823" s="26"/>
     </row>
-    <row r="824" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A824" s="16"/>
       <c r="B824" s="16"/>
       <c r="C824" s="1"/>
@@ -25064,7 +25130,7 @@
       <c r="AA824" s="26"/>
       <c r="AB824" s="26"/>
     </row>
-    <row r="825" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A825" s="16"/>
       <c r="B825" s="16"/>
       <c r="C825" s="1"/>
@@ -25094,7 +25160,7 @@
       <c r="AA825" s="26"/>
       <c r="AB825" s="26"/>
     </row>
-    <row r="826" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A826" s="16"/>
       <c r="B826" s="16"/>
       <c r="C826" s="1"/>
@@ -25124,7 +25190,7 @@
       <c r="AA826" s="26"/>
       <c r="AB826" s="26"/>
     </row>
-    <row r="827" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A827" s="16"/>
       <c r="B827" s="16"/>
       <c r="C827" s="1"/>
@@ -25154,7 +25220,7 @@
       <c r="AA827" s="26"/>
       <c r="AB827" s="26"/>
     </row>
-    <row r="828" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A828" s="16"/>
       <c r="B828" s="16"/>
       <c r="C828" s="1"/>
@@ -25184,7 +25250,7 @@
       <c r="AA828" s="26"/>
       <c r="AB828" s="26"/>
     </row>
-    <row r="829" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A829" s="16"/>
       <c r="B829" s="16"/>
       <c r="C829" s="1"/>
@@ -25214,7 +25280,7 @@
       <c r="AA829" s="26"/>
       <c r="AB829" s="26"/>
     </row>
-    <row r="830" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A830" s="16"/>
       <c r="B830" s="16"/>
       <c r="C830" s="1"/>
@@ -25244,7 +25310,7 @@
       <c r="AA830" s="26"/>
       <c r="AB830" s="26"/>
     </row>
-    <row r="831" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A831" s="16"/>
       <c r="B831" s="16"/>
       <c r="C831" s="1"/>
@@ -25274,7 +25340,7 @@
       <c r="AA831" s="26"/>
       <c r="AB831" s="26"/>
     </row>
-    <row r="832" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A832" s="16"/>
       <c r="B832" s="16"/>
       <c r="C832" s="1"/>
@@ -25304,7 +25370,7 @@
       <c r="AA832" s="26"/>
       <c r="AB832" s="26"/>
     </row>
-    <row r="833" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A833" s="16"/>
       <c r="B833" s="16"/>
       <c r="C833" s="1"/>
@@ -25334,7 +25400,7 @@
       <c r="AA833" s="26"/>
       <c r="AB833" s="26"/>
     </row>
-    <row r="834" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A834" s="16"/>
       <c r="B834" s="16"/>
       <c r="C834" s="1"/>
@@ -25364,7 +25430,7 @@
       <c r="AA834" s="26"/>
       <c r="AB834" s="26"/>
     </row>
-    <row r="835" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A835" s="16"/>
       <c r="B835" s="16"/>
       <c r="C835" s="1"/>
@@ -25394,7 +25460,7 @@
       <c r="AA835" s="26"/>
       <c r="AB835" s="26"/>
     </row>
-    <row r="836" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A836" s="16"/>
       <c r="B836" s="16"/>
       <c r="C836" s="1"/>
@@ -25424,7 +25490,7 @@
       <c r="AA836" s="26"/>
       <c r="AB836" s="26"/>
     </row>
-    <row r="837" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A837" s="16"/>
       <c r="B837" s="16"/>
       <c r="C837" s="1"/>
@@ -25454,7 +25520,7 @@
       <c r="AA837" s="26"/>
       <c r="AB837" s="26"/>
     </row>
-    <row r="838" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A838" s="16"/>
       <c r="B838" s="16"/>
       <c r="C838" s="1"/>
@@ -25484,7 +25550,7 @@
       <c r="AA838" s="26"/>
       <c r="AB838" s="26"/>
     </row>
-    <row r="839" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A839" s="16"/>
       <c r="B839" s="16"/>
       <c r="C839" s="1"/>
@@ -25514,7 +25580,7 @@
       <c r="AA839" s="26"/>
       <c r="AB839" s="26"/>
     </row>
-    <row r="840" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A840" s="16"/>
       <c r="B840" s="16"/>
       <c r="C840" s="1"/>
@@ -25544,7 +25610,7 @@
       <c r="AA840" s="26"/>
       <c r="AB840" s="26"/>
     </row>
-    <row r="841" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A841" s="16"/>
       <c r="B841" s="16"/>
       <c r="C841" s="1"/>
@@ -25574,7 +25640,7 @@
       <c r="AA841" s="26"/>
       <c r="AB841" s="26"/>
     </row>
-    <row r="842" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A842" s="16"/>
       <c r="B842" s="16"/>
       <c r="C842" s="1"/>
@@ -25604,7 +25670,7 @@
       <c r="AA842" s="26"/>
       <c r="AB842" s="26"/>
     </row>
-    <row r="843" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A843" s="16"/>
       <c r="B843" s="16"/>
       <c r="C843" s="1"/>
@@ -25634,7 +25700,7 @@
       <c r="AA843" s="26"/>
       <c r="AB843" s="26"/>
     </row>
-    <row r="844" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A844" s="16"/>
       <c r="B844" s="16"/>
       <c r="C844" s="1"/>
@@ -25664,7 +25730,7 @@
       <c r="AA844" s="26"/>
       <c r="AB844" s="26"/>
     </row>
-    <row r="845" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A845" s="16"/>
       <c r="B845" s="16"/>
       <c r="C845" s="1"/>
@@ -25694,7 +25760,7 @@
       <c r="AA845" s="26"/>
       <c r="AB845" s="26"/>
     </row>
-    <row r="846" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A846" s="16"/>
       <c r="B846" s="16"/>
       <c r="C846" s="1"/>
@@ -25724,7 +25790,7 @@
       <c r="AA846" s="26"/>
       <c r="AB846" s="26"/>
     </row>
-    <row r="847" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A847" s="16"/>
       <c r="B847" s="16"/>
       <c r="C847" s="1"/>
@@ -25754,7 +25820,7 @@
       <c r="AA847" s="26"/>
       <c r="AB847" s="26"/>
     </row>
-    <row r="848" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A848" s="16"/>
       <c r="B848" s="16"/>
       <c r="C848" s="1"/>
@@ -25784,7 +25850,7 @@
       <c r="AA848" s="26"/>
       <c r="AB848" s="26"/>
     </row>
-    <row r="849" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A849" s="16"/>
       <c r="B849" s="16"/>
       <c r="C849" s="1"/>
@@ -25814,7 +25880,7 @@
       <c r="AA849" s="26"/>
       <c r="AB849" s="26"/>
     </row>
-    <row r="850" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A850" s="16"/>
       <c r="B850" s="16"/>
       <c r="C850" s="1"/>
@@ -25844,7 +25910,7 @@
       <c r="AA850" s="26"/>
       <c r="AB850" s="26"/>
     </row>
-    <row r="851" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A851" s="16"/>
       <c r="B851" s="16"/>
       <c r="C851" s="1"/>
@@ -25874,7 +25940,7 @@
       <c r="AA851" s="26"/>
       <c r="AB851" s="26"/>
     </row>
-    <row r="852" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A852" s="16"/>
       <c r="B852" s="16"/>
       <c r="C852" s="1"/>
@@ -25904,7 +25970,7 @@
       <c r="AA852" s="26"/>
       <c r="AB852" s="26"/>
     </row>
-    <row r="853" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A853" s="16"/>
       <c r="B853" s="16"/>
       <c r="C853" s="1"/>
@@ -25934,7 +26000,7 @@
       <c r="AA853" s="26"/>
       <c r="AB853" s="26"/>
     </row>
-    <row r="854" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A854" s="16"/>
       <c r="B854" s="16"/>
       <c r="C854" s="1"/>
@@ -25964,7 +26030,7 @@
       <c r="AA854" s="26"/>
       <c r="AB854" s="26"/>
     </row>
-    <row r="855" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A855" s="16"/>
       <c r="B855" s="16"/>
       <c r="C855" s="1"/>
@@ -25994,7 +26060,7 @@
       <c r="AA855" s="26"/>
       <c r="AB855" s="26"/>
     </row>
-    <row r="856" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A856" s="16"/>
       <c r="B856" s="16"/>
       <c r="C856" s="1"/>
@@ -26024,7 +26090,7 @@
       <c r="AA856" s="26"/>
       <c r="AB856" s="26"/>
     </row>
-    <row r="857" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A857" s="16"/>
       <c r="B857" s="16"/>
       <c r="C857" s="1"/>
@@ -26054,7 +26120,7 @@
       <c r="AA857" s="26"/>
       <c r="AB857" s="26"/>
     </row>
-    <row r="858" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A858" s="16"/>
       <c r="B858" s="16"/>
       <c r="C858" s="1"/>
@@ -26084,7 +26150,7 @@
       <c r="AA858" s="26"/>
       <c r="AB858" s="26"/>
     </row>
-    <row r="859" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A859" s="16"/>
       <c r="B859" s="16"/>
       <c r="C859" s="1"/>
@@ -26114,7 +26180,7 @@
       <c r="AA859" s="26"/>
       <c r="AB859" s="26"/>
     </row>
-    <row r="860" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A860" s="16"/>
       <c r="B860" s="16"/>
       <c r="C860" s="1"/>
@@ -26144,7 +26210,7 @@
       <c r="AA860" s="26"/>
       <c r="AB860" s="26"/>
     </row>
-    <row r="861" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A861" s="16"/>
       <c r="B861" s="16"/>
       <c r="C861" s="1"/>
@@ -26174,7 +26240,7 @@
       <c r="AA861" s="26"/>
       <c r="AB861" s="26"/>
     </row>
-    <row r="862" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A862" s="16"/>
       <c r="B862" s="16"/>
       <c r="C862" s="1"/>
@@ -26204,7 +26270,7 @@
       <c r="AA862" s="26"/>
       <c r="AB862" s="26"/>
     </row>
-    <row r="863" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A863" s="16"/>
       <c r="B863" s="16"/>
       <c r="C863" s="1"/>
@@ -26234,7 +26300,7 @@
       <c r="AA863" s="26"/>
       <c r="AB863" s="26"/>
     </row>
-    <row r="864" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A864" s="16"/>
       <c r="B864" s="16"/>
       <c r="C864" s="1"/>
@@ -26264,7 +26330,7 @@
       <c r="AA864" s="26"/>
       <c r="AB864" s="26"/>
     </row>
-    <row r="865" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A865" s="16"/>
       <c r="B865" s="16"/>
       <c r="C865" s="1"/>
@@ -26294,7 +26360,7 @@
       <c r="AA865" s="26"/>
       <c r="AB865" s="26"/>
     </row>
-    <row r="866" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A866" s="16"/>
       <c r="B866" s="16"/>
       <c r="C866" s="1"/>
@@ -26324,7 +26390,7 @@
       <c r="AA866" s="26"/>
       <c r="AB866" s="26"/>
     </row>
-    <row r="867" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A867" s="16"/>
       <c r="B867" s="16"/>
       <c r="C867" s="1"/>
@@ -26354,7 +26420,7 @@
       <c r="AA867" s="26"/>
       <c r="AB867" s="26"/>
     </row>
-    <row r="868" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A868" s="16"/>
       <c r="B868" s="16"/>
       <c r="C868" s="1"/>
@@ -26384,7 +26450,7 @@
       <c r="AA868" s="26"/>
       <c r="AB868" s="26"/>
     </row>
-    <row r="869" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A869" s="16"/>
       <c r="B869" s="16"/>
       <c r="C869" s="1"/>
@@ -26414,7 +26480,7 @@
       <c r="AA869" s="26"/>
       <c r="AB869" s="26"/>
     </row>
-    <row r="870" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A870" s="16"/>
       <c r="B870" s="16"/>
       <c r="C870" s="1"/>
@@ -26444,7 +26510,7 @@
       <c r="AA870" s="26"/>
       <c r="AB870" s="26"/>
     </row>
-    <row r="871" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A871" s="16"/>
       <c r="B871" s="16"/>
       <c r="C871" s="1"/>
@@ -26474,7 +26540,7 @@
       <c r="AA871" s="26"/>
       <c r="AB871" s="26"/>
     </row>
-    <row r="872" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A872" s="16"/>
       <c r="B872" s="16"/>
       <c r="C872" s="1"/>
@@ -26504,7 +26570,7 @@
       <c r="AA872" s="26"/>
       <c r="AB872" s="26"/>
     </row>
-    <row r="873" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A873" s="16"/>
       <c r="B873" s="16"/>
       <c r="C873" s="1"/>
@@ -26534,7 +26600,7 @@
       <c r="AA873" s="26"/>
       <c r="AB873" s="26"/>
     </row>
-    <row r="874" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A874" s="16"/>
       <c r="B874" s="16"/>
       <c r="C874" s="1"/>
@@ -26564,7 +26630,7 @@
       <c r="AA874" s="26"/>
       <c r="AB874" s="26"/>
     </row>
-    <row r="875" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A875" s="16"/>
       <c r="B875" s="16"/>
       <c r="C875" s="1"/>
@@ -26594,7 +26660,7 @@
       <c r="AA875" s="26"/>
       <c r="AB875" s="26"/>
     </row>
-    <row r="876" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A876" s="16"/>
       <c r="B876" s="16"/>
       <c r="C876" s="1"/>
@@ -26624,7 +26690,7 @@
       <c r="AA876" s="26"/>
       <c r="AB876" s="26"/>
     </row>
-    <row r="877" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A877" s="16"/>
       <c r="B877" s="16"/>
       <c r="C877" s="1"/>
@@ -26654,7 +26720,7 @@
       <c r="AA877" s="26"/>
       <c r="AB877" s="26"/>
     </row>
-    <row r="878" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A878" s="16"/>
       <c r="B878" s="16"/>
       <c r="C878" s="1"/>
@@ -26684,7 +26750,7 @@
       <c r="AA878" s="26"/>
       <c r="AB878" s="26"/>
     </row>
-    <row r="879" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A879" s="16"/>
       <c r="B879" s="16"/>
       <c r="C879" s="1"/>
@@ -26714,7 +26780,7 @@
       <c r="AA879" s="26"/>
       <c r="AB879" s="26"/>
     </row>
-    <row r="880" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A880" s="16"/>
       <c r="B880" s="16"/>
       <c r="C880" s="1"/>
@@ -26744,7 +26810,7 @@
       <c r="AA880" s="26"/>
       <c r="AB880" s="26"/>
     </row>
-    <row r="881" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A881" s="16"/>
       <c r="B881" s="16"/>
       <c r="C881" s="1"/>
@@ -26774,7 +26840,7 @@
       <c r="AA881" s="26"/>
       <c r="AB881" s="26"/>
     </row>
-    <row r="882" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A882" s="16"/>
       <c r="B882" s="16"/>
       <c r="C882" s="1"/>
@@ -26804,7 +26870,7 @@
       <c r="AA882" s="26"/>
       <c r="AB882" s="26"/>
     </row>
-    <row r="883" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A883" s="16"/>
       <c r="B883" s="16"/>
       <c r="C883" s="1"/>
@@ -26834,7 +26900,7 @@
       <c r="AA883" s="26"/>
       <c r="AB883" s="26"/>
     </row>
-    <row r="884" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A884" s="16"/>
       <c r="B884" s="16"/>
       <c r="C884" s="1"/>
@@ -26864,7 +26930,7 @@
       <c r="AA884" s="26"/>
       <c r="AB884" s="26"/>
     </row>
-    <row r="885" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A885" s="16"/>
       <c r="B885" s="16"/>
       <c r="C885" s="1"/>
@@ -26894,7 +26960,7 @@
       <c r="AA885" s="26"/>
       <c r="AB885" s="26"/>
     </row>
-    <row r="886" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A886" s="16"/>
       <c r="B886" s="16"/>
       <c r="C886" s="1"/>
@@ -26924,7 +26990,7 @@
       <c r="AA886" s="26"/>
       <c r="AB886" s="26"/>
     </row>
-    <row r="887" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A887" s="16"/>
       <c r="B887" s="16"/>
       <c r="C887" s="1"/>
@@ -26954,7 +27020,7 @@
       <c r="AA887" s="26"/>
       <c r="AB887" s="26"/>
     </row>
-    <row r="888" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A888" s="16"/>
       <c r="B888" s="16"/>
       <c r="C888" s="1"/>
@@ -26984,7 +27050,7 @@
       <c r="AA888" s="26"/>
       <c r="AB888" s="26"/>
     </row>
-    <row r="889" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A889" s="16"/>
       <c r="B889" s="16"/>
       <c r="C889" s="1"/>
@@ -27014,7 +27080,7 @@
       <c r="AA889" s="26"/>
       <c r="AB889" s="26"/>
     </row>
-    <row r="890" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A890" s="16"/>
       <c r="B890" s="16"/>
       <c r="C890" s="1"/>
@@ -27044,7 +27110,7 @@
       <c r="AA890" s="26"/>
       <c r="AB890" s="26"/>
     </row>
-    <row r="891" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A891" s="16"/>
       <c r="B891" s="16"/>
       <c r="C891" s="1"/>
@@ -27074,7 +27140,7 @@
       <c r="AA891" s="26"/>
       <c r="AB891" s="26"/>
     </row>
-    <row r="892" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A892" s="16"/>
       <c r="B892" s="16"/>
       <c r="C892" s="1"/>
@@ -27104,7 +27170,7 @@
       <c r="AA892" s="26"/>
       <c r="AB892" s="26"/>
     </row>
-    <row r="893" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A893" s="16"/>
       <c r="B893" s="16"/>
       <c r="C893" s="1"/>
@@ -27134,7 +27200,7 @@
       <c r="AA893" s="26"/>
       <c r="AB893" s="26"/>
     </row>
-    <row r="894" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A894" s="16"/>
       <c r="B894" s="16"/>
       <c r="C894" s="1"/>
@@ -27164,7 +27230,7 @@
       <c r="AA894" s="26"/>
       <c r="AB894" s="26"/>
     </row>
-    <row r="895" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A895" s="16"/>
       <c r="B895" s="16"/>
       <c r="C895" s="1"/>
@@ -27194,7 +27260,7 @@
       <c r="AA895" s="26"/>
       <c r="AB895" s="26"/>
     </row>
-    <row r="896" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A896" s="16"/>
       <c r="B896" s="16"/>
       <c r="C896" s="1"/>
@@ -27224,7 +27290,7 @@
       <c r="AA896" s="26"/>
       <c r="AB896" s="26"/>
     </row>
-    <row r="897" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A897" s="16"/>
       <c r="B897" s="16"/>
       <c r="C897" s="1"/>
@@ -27254,7 +27320,7 @@
       <c r="AA897" s="26"/>
       <c r="AB897" s="26"/>
     </row>
-    <row r="898" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A898" s="16"/>
       <c r="B898" s="16"/>
       <c r="C898" s="1"/>
@@ -27284,7 +27350,7 @@
       <c r="AA898" s="26"/>
       <c r="AB898" s="26"/>
     </row>
-    <row r="899" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A899" s="16"/>
       <c r="B899" s="16"/>
       <c r="C899" s="1"/>
@@ -27314,7 +27380,7 @@
       <c r="AA899" s="26"/>
       <c r="AB899" s="26"/>
     </row>
-    <row r="900" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A900" s="16"/>
       <c r="B900" s="16"/>
       <c r="C900" s="1"/>
@@ -27344,7 +27410,7 @@
       <c r="AA900" s="26"/>
       <c r="AB900" s="26"/>
     </row>
-    <row r="901" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A901" s="16"/>
       <c r="B901" s="16"/>
       <c r="C901" s="1"/>
@@ -27374,7 +27440,7 @@
       <c r="AA901" s="26"/>
       <c r="AB901" s="26"/>
     </row>
-    <row r="902" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A902" s="16"/>
       <c r="B902" s="16"/>
       <c r="C902" s="1"/>
@@ -27404,7 +27470,7 @@
       <c r="AA902" s="26"/>
       <c r="AB902" s="26"/>
     </row>
-    <row r="903" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A903" s="16"/>
       <c r="B903" s="16"/>
       <c r="C903" s="1"/>
@@ -27434,7 +27500,7 @@
       <c r="AA903" s="26"/>
       <c r="AB903" s="26"/>
     </row>
-    <row r="904" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A904" s="16"/>
       <c r="B904" s="16"/>
       <c r="C904" s="1"/>
@@ -27464,7 +27530,7 @@
       <c r="AA904" s="26"/>
       <c r="AB904" s="26"/>
     </row>
-    <row r="905" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A905" s="16"/>
       <c r="B905" s="16"/>
       <c r="C905" s="1"/>
@@ -27494,7 +27560,7 @@
       <c r="AA905" s="26"/>
       <c r="AB905" s="26"/>
     </row>
-    <row r="906" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A906" s="16"/>
       <c r="B906" s="16"/>
       <c r="C906" s="1"/>
@@ -27524,7 +27590,7 @@
       <c r="AA906" s="26"/>
       <c r="AB906" s="26"/>
     </row>
-    <row r="907" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A907" s="16"/>
       <c r="B907" s="16"/>
       <c r="C907" s="1"/>
@@ -27554,7 +27620,7 @@
       <c r="AA907" s="26"/>
       <c r="AB907" s="26"/>
     </row>
-    <row r="908" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A908" s="16"/>
       <c r="B908" s="16"/>
       <c r="C908" s="1"/>
@@ -27584,7 +27650,7 @@
       <c r="AA908" s="26"/>
       <c r="AB908" s="26"/>
     </row>
-    <row r="909" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A909" s="16"/>
       <c r="B909" s="16"/>
       <c r="C909" s="1"/>
@@ -27614,7 +27680,7 @@
       <c r="AA909" s="26"/>
       <c r="AB909" s="26"/>
     </row>
-    <row r="910" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A910" s="16"/>
       <c r="B910" s="16"/>
       <c r="C910" s="1"/>
@@ -27644,7 +27710,7 @@
       <c r="AA910" s="26"/>
       <c r="AB910" s="26"/>
     </row>
-    <row r="911" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A911" s="16"/>
       <c r="B911" s="16"/>
       <c r="C911" s="1"/>
@@ -27674,7 +27740,7 @@
       <c r="AA911" s="26"/>
       <c r="AB911" s="26"/>
     </row>
-    <row r="912" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A912" s="16"/>
       <c r="B912" s="16"/>
       <c r="C912" s="1"/>
@@ -27704,7 +27770,7 @@
       <c r="AA912" s="26"/>
       <c r="AB912" s="26"/>
     </row>
-    <row r="913" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A913" s="16"/>
       <c r="B913" s="16"/>
       <c r="C913" s="1"/>
@@ -27734,7 +27800,7 @@
       <c r="AA913" s="26"/>
       <c r="AB913" s="26"/>
     </row>
-    <row r="914" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A914" s="16"/>
       <c r="B914" s="16"/>
       <c r="C914" s="1"/>
@@ -27764,7 +27830,7 @@
       <c r="AA914" s="26"/>
       <c r="AB914" s="26"/>
     </row>
-    <row r="915" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A915" s="16"/>
       <c r="B915" s="16"/>
       <c r="C915" s="1"/>
@@ -27794,7 +27860,7 @@
       <c r="AA915" s="26"/>
       <c r="AB915" s="26"/>
     </row>
-    <row r="916" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A916" s="16"/>
       <c r="B916" s="16"/>
       <c r="C916" s="1"/>
@@ -27824,7 +27890,7 @@
       <c r="AA916" s="26"/>
       <c r="AB916" s="26"/>
     </row>
-    <row r="917" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A917" s="16"/>
       <c r="B917" s="16"/>
       <c r="C917" s="1"/>
@@ -27854,7 +27920,7 @@
       <c r="AA917" s="26"/>
       <c r="AB917" s="26"/>
     </row>
-    <row r="918" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A918" s="16"/>
       <c r="B918" s="16"/>
       <c r="C918" s="1"/>
@@ -27884,7 +27950,7 @@
       <c r="AA918" s="26"/>
       <c r="AB918" s="26"/>
     </row>
-    <row r="919" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A919" s="16"/>
       <c r="B919" s="16"/>
       <c r="C919" s="1"/>
@@ -27914,7 +27980,7 @@
       <c r="AA919" s="26"/>
       <c r="AB919" s="26"/>
     </row>
-    <row r="920" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A920" s="16"/>
       <c r="B920" s="16"/>
       <c r="C920" s="1"/>
@@ -27944,7 +28010,7 @@
       <c r="AA920" s="26"/>
       <c r="AB920" s="26"/>
     </row>
-    <row r="921" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A921" s="16"/>
       <c r="B921" s="16"/>
       <c r="C921" s="1"/>
@@ -27974,7 +28040,7 @@
       <c r="AA921" s="26"/>
       <c r="AB921" s="26"/>
     </row>
-    <row r="922" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A922" s="16"/>
       <c r="B922" s="16"/>
       <c r="C922" s="1"/>
@@ -28004,7 +28070,7 @@
       <c r="AA922" s="26"/>
       <c r="AB922" s="26"/>
     </row>
-    <row r="923" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A923" s="16"/>
       <c r="B923" s="16"/>
       <c r="C923" s="1"/>
@@ -28034,7 +28100,7 @@
       <c r="AA923" s="26"/>
       <c r="AB923" s="26"/>
     </row>
-    <row r="924" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A924" s="16"/>
       <c r="B924" s="16"/>
       <c r="C924" s="1"/>
@@ -28064,7 +28130,7 @@
       <c r="AA924" s="26"/>
       <c r="AB924" s="26"/>
     </row>
-    <row r="925" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A925" s="16"/>
       <c r="B925" s="16"/>
       <c r="C925" s="1"/>
@@ -28094,7 +28160,7 @@
       <c r="AA925" s="26"/>
       <c r="AB925" s="26"/>
     </row>
-    <row r="926" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A926" s="16"/>
       <c r="B926" s="16"/>
       <c r="C926" s="1"/>
@@ -28124,7 +28190,7 @@
       <c r="AA926" s="26"/>
       <c r="AB926" s="26"/>
     </row>
-    <row r="927" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A927" s="16"/>
       <c r="B927" s="16"/>
       <c r="C927" s="1"/>
@@ -28154,7 +28220,7 @@
       <c r="AA927" s="26"/>
       <c r="AB927" s="26"/>
     </row>
-    <row r="928" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A928" s="16"/>
       <c r="B928" s="16"/>
       <c r="C928" s="1"/>
@@ -28184,7 +28250,7 @@
       <c r="AA928" s="26"/>
       <c r="AB928" s="26"/>
     </row>
-    <row r="929" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A929" s="16"/>
       <c r="B929" s="16"/>
       <c r="C929" s="1"/>
@@ -28214,7 +28280,7 @@
       <c r="AA929" s="26"/>
       <c r="AB929" s="26"/>
     </row>
-    <row r="930" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A930" s="16"/>
       <c r="B930" s="16"/>
       <c r="C930" s="1"/>
@@ -28244,7 +28310,7 @@
       <c r="AA930" s="26"/>
       <c r="AB930" s="26"/>
     </row>
-    <row r="931" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A931" s="16"/>
       <c r="B931" s="16"/>
       <c r="C931" s="1"/>
@@ -28274,7 +28340,7 @@
       <c r="AA931" s="26"/>
       <c r="AB931" s="26"/>
     </row>
-    <row r="932" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A932" s="16"/>
       <c r="B932" s="16"/>
       <c r="C932" s="1"/>
@@ -28304,7 +28370,7 @@
       <c r="AA932" s="26"/>
       <c r="AB932" s="26"/>
     </row>
-    <row r="933" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A933" s="16"/>
       <c r="B933" s="16"/>
       <c r="C933" s="1"/>
@@ -28334,7 +28400,7 @@
       <c r="AA933" s="26"/>
       <c r="AB933" s="26"/>
     </row>
-    <row r="934" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A934" s="16"/>
       <c r="B934" s="16"/>
       <c r="C934" s="1"/>
@@ -28364,7 +28430,7 @@
       <c r="AA934" s="26"/>
       <c r="AB934" s="26"/>
     </row>
-    <row r="935" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A935" s="16"/>
       <c r="B935" s="16"/>
       <c r="C935" s="1"/>
@@ -28394,7 +28460,7 @@
       <c r="AA935" s="26"/>
       <c r="AB935" s="26"/>
     </row>
-    <row r="936" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A936" s="16"/>
       <c r="B936" s="16"/>
       <c r="C936" s="1"/>
@@ -28424,7 +28490,7 @@
       <c r="AA936" s="26"/>
       <c r="AB936" s="26"/>
     </row>
-    <row r="937" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A937" s="16"/>
       <c r="B937" s="16"/>
       <c r="C937" s="1"/>
@@ -28454,7 +28520,7 @@
       <c r="AA937" s="26"/>
       <c r="AB937" s="26"/>
     </row>
-    <row r="938" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A938" s="16"/>
       <c r="B938" s="16"/>
       <c r="C938" s="1"/>
@@ -28484,7 +28550,7 @@
       <c r="AA938" s="26"/>
       <c r="AB938" s="26"/>
     </row>
-    <row r="939" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A939" s="16"/>
       <c r="B939" s="16"/>
       <c r="C939" s="1"/>
@@ -28514,7 +28580,7 @@
       <c r="AA939" s="26"/>
       <c r="AB939" s="26"/>
     </row>
-    <row r="940" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A940" s="16"/>
       <c r="B940" s="16"/>
       <c r="C940" s="1"/>
@@ -28544,7 +28610,7 @@
       <c r="AA940" s="26"/>
       <c r="AB940" s="26"/>
     </row>
-    <row r="941" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A941" s="16"/>
       <c r="B941" s="16"/>
       <c r="C941" s="1"/>
@@ -28574,7 +28640,7 @@
       <c r="AA941" s="26"/>
       <c r="AB941" s="26"/>
     </row>
-    <row r="942" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A942" s="16"/>
       <c r="B942" s="16"/>
       <c r="C942" s="1"/>
@@ -28604,7 +28670,7 @@
       <c r="AA942" s="26"/>
       <c r="AB942" s="26"/>
     </row>
-    <row r="943" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A943" s="16"/>
       <c r="B943" s="16"/>
       <c r="C943" s="1"/>
@@ -28634,7 +28700,7 @@
       <c r="AA943" s="26"/>
       <c r="AB943" s="26"/>
     </row>
-    <row r="944" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A944" s="16"/>
       <c r="B944" s="16"/>
       <c r="C944" s="1"/>
@@ -28664,7 +28730,7 @@
       <c r="AA944" s="26"/>
       <c r="AB944" s="26"/>
     </row>
-    <row r="945" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A945" s="16"/>
       <c r="B945" s="16"/>
       <c r="C945" s="1"/>
@@ -28694,7 +28760,7 @@
       <c r="AA945" s="26"/>
       <c r="AB945" s="26"/>
     </row>
-    <row r="946" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A946" s="16"/>
       <c r="B946" s="16"/>
       <c r="C946" s="1"/>
@@ -28724,7 +28790,7 @@
       <c r="AA946" s="26"/>
       <c r="AB946" s="26"/>
     </row>
-    <row r="947" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A947" s="16"/>
       <c r="B947" s="16"/>
       <c r="C947" s="1"/>
@@ -28754,7 +28820,7 @@
       <c r="AA947" s="26"/>
       <c r="AB947" s="26"/>
     </row>
-    <row r="948" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A948" s="16"/>
       <c r="B948" s="16"/>
       <c r="C948" s="1"/>
@@ -28784,7 +28850,7 @@
       <c r="AA948" s="26"/>
       <c r="AB948" s="26"/>
     </row>
-    <row r="949" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A949" s="16"/>
       <c r="B949" s="16"/>
       <c r="C949" s="1"/>
@@ -28814,7 +28880,7 @@
       <c r="AA949" s="26"/>
       <c r="AB949" s="26"/>
     </row>
-    <row r="950" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A950" s="16"/>
       <c r="B950" s="16"/>
       <c r="C950" s="1"/>
@@ -28844,7 +28910,7 @@
       <c r="AA950" s="26"/>
       <c r="AB950" s="26"/>
     </row>
-    <row r="951" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A951" s="16"/>
       <c r="B951" s="16"/>
       <c r="C951" s="1"/>
@@ -28874,7 +28940,7 @@
       <c r="AA951" s="26"/>
       <c r="AB951" s="26"/>
     </row>
-    <row r="952" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A952" s="16"/>
       <c r="B952" s="16"/>
       <c r="C952" s="1"/>
@@ -28904,7 +28970,7 @@
       <c r="AA952" s="26"/>
       <c r="AB952" s="26"/>
     </row>
-    <row r="953" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A953" s="16"/>
       <c r="B953" s="16"/>
       <c r="C953" s="1"/>
@@ -28934,7 +29000,7 @@
       <c r="AA953" s="26"/>
       <c r="AB953" s="26"/>
     </row>
-    <row r="954" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A954" s="16"/>
       <c r="B954" s="16"/>
       <c r="C954" s="1"/>
@@ -28964,7 +29030,7 @@
       <c r="AA954" s="26"/>
       <c r="AB954" s="26"/>
     </row>
-    <row r="955" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A955" s="16"/>
       <c r="B955" s="16"/>
       <c r="C955" s="1"/>
@@ -28994,7 +29060,7 @@
       <c r="AA955" s="26"/>
       <c r="AB955" s="26"/>
     </row>
-    <row r="956" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A956" s="16"/>
       <c r="B956" s="16"/>
       <c r="C956" s="1"/>
@@ -29024,7 +29090,7 @@
       <c r="AA956" s="26"/>
       <c r="AB956" s="26"/>
     </row>
-    <row r="957" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A957" s="16"/>
       <c r="B957" s="16"/>
       <c r="C957" s="1"/>
@@ -29054,7 +29120,7 @@
       <c r="AA957" s="26"/>
       <c r="AB957" s="26"/>
     </row>
-    <row r="958" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A958" s="16"/>
       <c r="B958" s="16"/>
       <c r="C958" s="1"/>
@@ -29084,7 +29150,7 @@
       <c r="AA958" s="26"/>
       <c r="AB958" s="26"/>
     </row>
-    <row r="959" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A959" s="16"/>
       <c r="B959" s="16"/>
       <c r="C959" s="1"/>
@@ -29114,7 +29180,7 @@
       <c r="AA959" s="26"/>
       <c r="AB959" s="26"/>
     </row>
-    <row r="960" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A960" s="16"/>
       <c r="B960" s="16"/>
       <c r="C960" s="1"/>
@@ -29144,7 +29210,7 @@
       <c r="AA960" s="26"/>
       <c r="AB960" s="26"/>
     </row>
-    <row r="961" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A961" s="16"/>
       <c r="B961" s="16"/>
       <c r="C961" s="1"/>
@@ -29174,7 +29240,7 @@
       <c r="AA961" s="26"/>
       <c r="AB961" s="26"/>
     </row>
-    <row r="962" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A962" s="16"/>
       <c r="B962" s="16"/>
       <c r="C962" s="1"/>
@@ -29204,7 +29270,7 @@
       <c r="AA962" s="26"/>
       <c r="AB962" s="26"/>
     </row>
-    <row r="963" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A963" s="16"/>
       <c r="B963" s="16"/>
       <c r="C963" s="1"/>
@@ -29234,7 +29300,7 @@
       <c r="AA963" s="26"/>
       <c r="AB963" s="26"/>
     </row>
-    <row r="964" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A964" s="16"/>
       <c r="B964" s="16"/>
       <c r="C964" s="1"/>
@@ -29264,7 +29330,7 @@
       <c r="AA964" s="26"/>
       <c r="AB964" s="26"/>
     </row>
-    <row r="965" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A965" s="16"/>
       <c r="B965" s="16"/>
       <c r="C965" s="1"/>
@@ -29294,7 +29360,7 @@
       <c r="AA965" s="26"/>
       <c r="AB965" s="26"/>
     </row>
-    <row r="966" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A966" s="16"/>
       <c r="B966" s="16"/>
       <c r="C966" s="1"/>
@@ -29324,7 +29390,7 @@
       <c r="AA966" s="26"/>
       <c r="AB966" s="26"/>
     </row>
-    <row r="967" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A967" s="16"/>
       <c r="B967" s="16"/>
       <c r="C967" s="1"/>
@@ -29354,7 +29420,7 @@
       <c r="AA967" s="26"/>
       <c r="AB967" s="26"/>
     </row>
-    <row r="968" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A968" s="16"/>
       <c r="B968" s="16"/>
       <c r="C968" s="1"/>
@@ -29384,7 +29450,7 @@
       <c r="AA968" s="26"/>
       <c r="AB968" s="26"/>
     </row>
-    <row r="969" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A969" s="16"/>
       <c r="B969" s="16"/>
       <c r="C969" s="1"/>
@@ -29414,7 +29480,7 @@
       <c r="AA969" s="26"/>
       <c r="AB969" s="26"/>
     </row>
-    <row r="970" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A970" s="16"/>
       <c r="B970" s="16"/>
       <c r="C970" s="1"/>
@@ -29444,7 +29510,7 @@
       <c r="AA970" s="26"/>
       <c r="AB970" s="26"/>
     </row>
-    <row r="971" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A971" s="16"/>
       <c r="B971" s="16"/>
       <c r="C971" s="1"/>
@@ -29474,7 +29540,7 @@
       <c r="AA971" s="26"/>
       <c r="AB971" s="26"/>
     </row>
-    <row r="972" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A972" s="16"/>
       <c r="B972" s="16"/>
       <c r="C972" s="1"/>
@@ -29504,7 +29570,7 @@
       <c r="AA972" s="26"/>
       <c r="AB972" s="26"/>
     </row>
-    <row r="973" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A973" s="16"/>
       <c r="B973" s="16"/>
       <c r="C973" s="1"/>
@@ -29534,7 +29600,7 @@
       <c r="AA973" s="26"/>
       <c r="AB973" s="26"/>
     </row>
-    <row r="974" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A974" s="16"/>
       <c r="B974" s="16"/>
       <c r="C974" s="1"/>
@@ -29564,7 +29630,7 @@
       <c r="AA974" s="26"/>
       <c r="AB974" s="26"/>
     </row>
-    <row r="975" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A975" s="16"/>
       <c r="B975" s="16"/>
       <c r="C975" s="1"/>
@@ -29594,7 +29660,7 @@
       <c r="AA975" s="26"/>
       <c r="AB975" s="26"/>
     </row>
-    <row r="976" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A976" s="16"/>
       <c r="B976" s="16"/>
       <c r="C976" s="1"/>
@@ -29624,7 +29690,7 @@
       <c r="AA976" s="26"/>
       <c r="AB976" s="26"/>
     </row>
-    <row r="977" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A977" s="16"/>
       <c r="B977" s="16"/>
       <c r="C977" s="1"/>
@@ -29654,7 +29720,7 @@
       <c r="AA977" s="26"/>
       <c r="AB977" s="26"/>
     </row>
-    <row r="978" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A978" s="16"/>
       <c r="B978" s="16"/>
       <c r="C978" s="1"/>
@@ -29684,7 +29750,7 @@
       <c r="AA978" s="26"/>
       <c r="AB978" s="26"/>
     </row>
-    <row r="979" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A979" s="16"/>
       <c r="B979" s="16"/>
       <c r="C979" s="1"/>
@@ -29714,7 +29780,7 @@
       <c r="AA979" s="26"/>
       <c r="AB979" s="26"/>
     </row>
-    <row r="980" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A980" s="16"/>
       <c r="B980" s="16"/>
       <c r="C980" s="1"/>
@@ -29744,7 +29810,7 @@
       <c r="AA980" s="26"/>
       <c r="AB980" s="26"/>
     </row>
-    <row r="981" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A981" s="16"/>
       <c r="B981" s="16"/>
       <c r="C981" s="1"/>
@@ -29774,7 +29840,7 @@
       <c r="AA981" s="26"/>
       <c r="AB981" s="26"/>
     </row>
-    <row r="982" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A982" s="16"/>
       <c r="B982" s="16"/>
       <c r="C982" s="1"/>
@@ -29804,7 +29870,7 @@
       <c r="AA982" s="26"/>
       <c r="AB982" s="26"/>
     </row>
-    <row r="983" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A983" s="16"/>
       <c r="B983" s="16"/>
       <c r="C983" s="1"/>
@@ -29834,7 +29900,7 @@
       <c r="AA983" s="26"/>
       <c r="AB983" s="26"/>
     </row>
-    <row r="984" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A984" s="16"/>
       <c r="B984" s="16"/>
       <c r="C984" s="1"/>
@@ -29864,7 +29930,7 @@
       <c r="AA984" s="26"/>
       <c r="AB984" s="26"/>
     </row>
-    <row r="985" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A985" s="16"/>
       <c r="B985" s="16"/>
       <c r="C985" s="1"/>
@@ -29894,7 +29960,7 @@
       <c r="AA985" s="26"/>
       <c r="AB985" s="26"/>
     </row>
-    <row r="986" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A986" s="16"/>
       <c r="B986" s="16"/>
       <c r="C986" s="1"/>
@@ -29924,7 +29990,7 @@
       <c r="AA986" s="26"/>
       <c r="AB986" s="26"/>
     </row>
-    <row r="987" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A987" s="16"/>
       <c r="B987" s="16"/>
       <c r="C987" s="1"/>
@@ -29954,7 +30020,7 @@
       <c r="AA987" s="26"/>
       <c r="AB987" s="26"/>
     </row>
-    <row r="988" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A988" s="16"/>
       <c r="B988" s="16"/>
       <c r="C988" s="1"/>
@@ -29984,7 +30050,7 @@
       <c r="AA988" s="26"/>
       <c r="AB988" s="26"/>
     </row>
-    <row r="989" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A989" s="16"/>
       <c r="B989" s="16"/>
       <c r="C989" s="1"/>
@@ -30014,7 +30080,7 @@
       <c r="AA989" s="26"/>
       <c r="AB989" s="26"/>
     </row>
-    <row r="990" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A990" s="16"/>
       <c r="B990" s="16"/>
       <c r="C990" s="1"/>
@@ -30044,7 +30110,7 @@
       <c r="AA990" s="26"/>
       <c r="AB990" s="26"/>
     </row>
-    <row r="991" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A991" s="16"/>
       <c r="B991" s="16"/>
       <c r="C991" s="1"/>
@@ -30074,7 +30140,7 @@
       <c r="AA991" s="26"/>
       <c r="AB991" s="26"/>
     </row>
-    <row r="992" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A992" s="16"/>
       <c r="B992" s="16"/>
       <c r="C992" s="1"/>
@@ -30104,7 +30170,7 @@
       <c r="AA992" s="26"/>
       <c r="AB992" s="26"/>
     </row>
-    <row r="993" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A993" s="16"/>
       <c r="B993" s="16"/>
       <c r="C993" s="1"/>
@@ -30134,7 +30200,7 @@
       <c r="AA993" s="26"/>
       <c r="AB993" s="26"/>
     </row>
-    <row r="994" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A994" s="16"/>
       <c r="B994" s="16"/>
       <c r="C994" s="1"/>
@@ -30164,7 +30230,7 @@
       <c r="AA994" s="26"/>
       <c r="AB994" s="26"/>
     </row>
-    <row r="995" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A995" s="16"/>
       <c r="B995" s="16"/>
       <c r="C995" s="1"/>
@@ -30194,7 +30260,7 @@
       <c r="AA995" s="26"/>
       <c r="AB995" s="26"/>
     </row>
-    <row r="996" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A996" s="16"/>
       <c r="B996" s="16"/>
       <c r="C996" s="1"/>
@@ -30224,7 +30290,7 @@
       <c r="AA996" s="26"/>
       <c r="AB996" s="26"/>
     </row>
-    <row r="997" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A997" s="16"/>
       <c r="B997" s="16"/>
       <c r="C997" s="1"/>

--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/ma04289_st_habib_edu_pk/Documents/DELL/Habib University/Semester 7/CG/Projects/project-1-flight-simulator-ray/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munaw\Desktop\Final_Computer_Graphics\Ray\p1-p1-ray-main\p1-p1-ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3FE4AFBA-B85D-0748-9A92-4FB3C1E49108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D85EA0D-6858-460B-95F5-AB5504779C16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE4D38-FC03-4BE1-87AA-915B8BF52995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Score</t>
   </si>
@@ -151,15 +151,6 @@
   </si>
   <si>
     <t>Munawwar</t>
-  </si>
-  <si>
-    <t>Adan</t>
-  </si>
-  <si>
-    <t>Arham</t>
-  </si>
-  <si>
-    <t>Adan/Aliza</t>
   </si>
 </sst>
 </file>
@@ -568,11 +559,11 @@
   <dimension ref="A1:AB997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -674,9 +665,6 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="N4" s="23"/>
       <c r="S4" s="23"/>
     </row>
@@ -695,9 +683,6 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
@@ -714,9 +699,6 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="22" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
@@ -733,9 +715,6 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="22" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="8" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -752,9 +731,6 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="22" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -771,9 +747,6 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="10" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
@@ -790,9 +763,6 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="11" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -809,9 +779,6 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="12" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -828,9 +795,6 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="22" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="13" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -847,9 +811,6 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="22" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">

--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munaw\Desktop\Final_Computer_Graphics\Ray\p1-p1-ray-main\p1-p1-ray\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munaw\Desktop\Final_Computer_Graphics\Ray_2\p1-p1-ray-main\p1-p1-ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE4D38-FC03-4BE1-87AA-915B8BF52995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51BAA2-DB1D-4C97-BA94-CE11C38092FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Score</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Care is taken to keep the code efficient. Wherever applicable, computation is offloaded to the GPU and geometric types are favored over JS types . </t>
-  </si>
-  <si>
-    <t>Munawwar</t>
   </si>
 </sst>
 </file>
@@ -559,11 +556,11 @@
   <dimension ref="A1:AB997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -646,9 +643,6 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="22" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
